--- a/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="215">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -932,7 +932,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1228,12 +1228,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="23">
@@ -1825,7 +1819,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1975,10 +1969,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2139,9 +2129,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>585360</xdr:colOff>
+      <xdr:colOff>584640</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>179640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2151,7 +2141,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5377680" cy="2894760"/>
+          <a:ext cx="5375520" cy="2894040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4398,7 +4388,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="P26" activeCellId="0" sqref="P26"/>
+      <selection pane="bottomRight" activeCell="O27" activeCellId="0" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4418,8 +4408,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="24.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="36.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="27.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="33.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="28.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="44.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="36.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="1" width="31.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="14.42"/>
@@ -5440,8 +5430,10 @@
       <c r="N26" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="O26" s="32"/>
-      <c r="P26" s="38" t="s">
+      <c r="O26" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="P26" s="32" t="s">
         <v>143</v>
       </c>
       <c r="Q26" s="32"/>
@@ -5538,7 +5530,9 @@
       <c r="N28" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="O28" s="32"/>
+      <c r="O28" s="32" t="s">
+        <v>55</v>
+      </c>
       <c r="P28" s="32" t="s">
         <v>143</v>
       </c>
@@ -17184,10 +17178,10 @@
       <c r="B2" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>159</v>
       </c>
     </row>
@@ -17198,10 +17192,10 @@
       <c r="B3" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>162</v>
       </c>
     </row>
@@ -17212,10 +17206,10 @@
       <c r="B4" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>165</v>
       </c>
     </row>
@@ -17226,10 +17220,10 @@
       <c r="B5" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>168</v>
       </c>
     </row>
@@ -17240,10 +17234,10 @@
       <c r="B6" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>171</v>
       </c>
     </row>
@@ -17254,10 +17248,10 @@
       <c r="B7" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="39" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17268,10 +17262,10 @@
       <c r="B8" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="39" t="s">
         <v>177</v>
       </c>
     </row>
@@ -17282,10 +17276,10 @@
       <c r="B9" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="39" t="s">
         <v>180</v>
       </c>
     </row>
@@ -17296,10 +17290,10 @@
       <c r="B10" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="38" t="s">
         <v>183</v>
       </c>
     </row>
@@ -17310,10 +17304,10 @@
       <c r="B11" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="39" t="n">
+      <c r="C11" s="38" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="38" t="s">
         <v>185</v>
       </c>
     </row>
@@ -17324,10 +17318,10 @@
       <c r="B12" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="39" t="n">
+      <c r="C12" s="38" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="38" t="s">
         <v>186</v>
       </c>
     </row>
@@ -17338,10 +17332,10 @@
       <c r="B13" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="39" t="n">
+      <c r="C13" s="38" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="39" t="s">
         <v>187</v>
       </c>
     </row>
@@ -17352,10 +17346,10 @@
       <c r="B14" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C14" s="39" t="n">
+      <c r="C14" s="38" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>188</v>
       </c>
     </row>
@@ -17366,10 +17360,10 @@
       <c r="B15" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="39" t="n">
+      <c r="C15" s="38" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="39" t="s">
         <v>189</v>
       </c>
     </row>
@@ -17380,10 +17374,10 @@
       <c r="B16" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C16" s="39" t="n">
+      <c r="C16" s="38" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="39" t="s">
         <v>190</v>
       </c>
     </row>
@@ -17394,10 +17388,10 @@
       <c r="B17" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="39" t="n">
+      <c r="C17" s="38" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="39" t="s">
         <v>191</v>
       </c>
     </row>
@@ -17408,10 +17402,10 @@
       <c r="B18" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C18" s="39" t="n">
+      <c r="C18" s="38" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="39" t="s">
         <v>192</v>
       </c>
     </row>
@@ -17422,10 +17416,10 @@
       <c r="B19" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C19" s="39" t="n">
+      <c r="C19" s="38" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="38" t="s">
         <v>194</v>
       </c>
     </row>
@@ -17436,10 +17430,10 @@
       <c r="B20" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="39" t="n">
+      <c r="C20" s="38" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="38" t="s">
         <v>195</v>
       </c>
     </row>
@@ -17450,10 +17444,10 @@
       <c r="B21" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="39" t="n">
+      <c r="C21" s="38" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="39" t="s">
         <v>196</v>
       </c>
     </row>
@@ -17464,10 +17458,10 @@
       <c r="B22" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C22" s="39" t="n">
+      <c r="C22" s="38" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="38" t="s">
         <v>197</v>
       </c>
     </row>
@@ -17478,10 +17472,10 @@
       <c r="B23" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="39" t="n">
+      <c r="C23" s="38" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="39" t="s">
         <v>198</v>
       </c>
     </row>
@@ -17492,10 +17486,10 @@
       <c r="B24" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="39" t="n">
+      <c r="C24" s="38" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="39" t="s">
         <v>199</v>
       </c>
     </row>
@@ -17506,10 +17500,10 @@
       <c r="B25" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C25" s="39" t="n">
+      <c r="C25" s="38" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="39" t="s">
         <v>200</v>
       </c>
     </row>
@@ -17520,10 +17514,10 @@
       <c r="B26" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="39" t="n">
+      <c r="C26" s="38" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="39" t="s">
         <v>201</v>
       </c>
     </row>
@@ -17534,10 +17528,10 @@
       <c r="B27" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C27" s="39" t="n">
+      <c r="C27" s="38" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="38" t="s">
         <v>203</v>
       </c>
     </row>
@@ -17548,10 +17542,10 @@
       <c r="B28" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C28" s="39" t="n">
+      <c r="C28" s="38" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="38" t="s">
         <v>204</v>
       </c>
     </row>
@@ -17562,10 +17556,10 @@
       <c r="B29" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C29" s="39" t="n">
+      <c r="C29" s="38" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="40" t="s">
         <v>205</v>
       </c>
     </row>
@@ -17576,10 +17570,10 @@
       <c r="B30" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C30" s="39" t="n">
+      <c r="C30" s="38" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="38" t="s">
         <v>206</v>
       </c>
     </row>
@@ -17590,10 +17584,10 @@
       <c r="B31" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C31" s="39" t="n">
+      <c r="C31" s="38" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="39" t="s">
         <v>207</v>
       </c>
     </row>
@@ -17604,10 +17598,10 @@
       <c r="B32" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C32" s="39" t="n">
+      <c r="C32" s="38" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="39" t="s">
         <v>208</v>
       </c>
     </row>
@@ -17618,10 +17612,10 @@
       <c r="B33" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C33" s="39" t="n">
+      <c r="C33" s="38" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="39" t="s">
         <v>209</v>
       </c>
     </row>
@@ -17632,10 +17626,10 @@
       <c r="B34" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="39" t="n">
+      <c r="C34" s="38" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="39" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17646,10 +17640,10 @@
       <c r="B35" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C35" s="39" t="n">
+      <c r="C35" s="38" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="39" t="n">
+      <c r="D35" s="38" t="n">
         <v>204</v>
       </c>
     </row>
@@ -17660,10 +17654,10 @@
       <c r="B36" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C36" s="39" t="n">
+      <c r="C36" s="38" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="39" t="n">
+      <c r="D36" s="38" t="n">
         <v>220</v>
       </c>
     </row>
@@ -17674,10 +17668,10 @@
       <c r="B37" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C37" s="39" t="n">
+      <c r="C37" s="38" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="40" t="n">
+      <c r="D37" s="39" t="n">
         <v>236</v>
       </c>
     </row>
@@ -17688,10 +17682,10 @@
       <c r="B38" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C38" s="39" t="n">
+      <c r="C38" s="38" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="39" t="n">
+      <c r="D38" s="38" t="n">
         <v>252</v>
       </c>
     </row>
@@ -17702,10 +17696,10 @@
       <c r="B39" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="39" t="n">
+      <c r="C39" s="38" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="40" t="n">
+      <c r="D39" s="39" t="n">
         <v>268</v>
       </c>
     </row>
@@ -17716,10 +17710,10 @@
       <c r="B40" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="39" t="n">
+      <c r="C40" s="38" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="40" t="n">
+      <c r="D40" s="39" t="n">
         <v>284</v>
       </c>
     </row>
@@ -17730,10 +17724,10 @@
       <c r="B41" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C41" s="39" t="n">
+      <c r="C41" s="38" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="40" t="n">
+      <c r="D41" s="39" t="n">
         <v>300</v>
       </c>
     </row>
@@ -17744,10 +17738,10 @@
       <c r="B42" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="39" t="n">
+      <c r="C42" s="38" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="40" t="n">
+      <c r="D42" s="39" t="n">
         <v>316</v>
       </c>
     </row>
@@ -17758,10 +17752,10 @@
       <c r="B43" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C43" s="39" t="n">
+      <c r="C43" s="38" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="39" t="n">
+      <c r="D43" s="38" t="n">
         <v>207</v>
       </c>
     </row>
@@ -17772,10 +17766,10 @@
       <c r="B44" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C44" s="39" t="n">
+      <c r="C44" s="38" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="39" t="n">
+      <c r="D44" s="38" t="n">
         <v>223</v>
       </c>
     </row>
@@ -17786,10 +17780,10 @@
       <c r="B45" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C45" s="39" t="n">
+      <c r="C45" s="38" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="40" t="n">
+      <c r="D45" s="39" t="n">
         <v>239</v>
       </c>
     </row>
@@ -17800,10 +17794,10 @@
       <c r="B46" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C46" s="39" t="n">
+      <c r="C46" s="38" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="39" t="n">
+      <c r="D46" s="38" t="n">
         <v>255</v>
       </c>
     </row>
@@ -17814,10 +17808,10 @@
       <c r="B47" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C47" s="39" t="n">
+      <c r="C47" s="38" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="40" t="n">
+      <c r="D47" s="39" t="n">
         <v>271</v>
       </c>
     </row>
@@ -17828,10 +17822,10 @@
       <c r="B48" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C48" s="39" t="n">
+      <c r="C48" s="38" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="40" t="n">
+      <c r="D48" s="39" t="n">
         <v>287</v>
       </c>
     </row>
@@ -17842,10 +17836,10 @@
       <c r="B49" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="39" t="n">
+      <c r="C49" s="38" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="40" t="n">
+      <c r="D49" s="39" t="n">
         <v>303</v>
       </c>
     </row>
@@ -17856,10 +17850,10 @@
       <c r="B50" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C50" s="39" t="n">
+      <c r="C50" s="38" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="40" t="n">
+      <c r="D50" s="39" t="n">
         <v>319</v>
       </c>
     </row>
@@ -18844,26 +18838,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>97</v>
       </c>
     </row>

--- a/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="192">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -550,15 +550,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-05T20:04:01Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c0a3cee4a8e100dc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.569369a4be5cef75f5ec38405b6b396793743e826d7b6c3922c90fb4f915d638.f11c138b9e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">NO</t>
   </si>
   <si>
@@ -572,12 +563,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">04a29265b137ab5e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.569369a4be5cef75f5ec38405b6b396793743e826d7b6c3922c90fb4f915d638.fdc3617980^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">Il codice fiscale e' solo maiuscolo</t>
   </si>
   <si>
@@ -586,15 +571,6 @@
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-05T20:04:20Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a2646fb5616d11e4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.569369a4be5cef75f5ec38405b6b396793743e826d7b6c3922c90fb4f915d638.9420713de1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Gli unici valori utilizzabili per la generazione del CDA sono "Normal" e "Very Restricted"</t>
@@ -607,12 +583,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">7d763f28d4d37fea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.092424a8b83ac1734d0e118a4c3a43c793f3f6c63b6ba838d480115903a3b457.538876692c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">Il campo del comune di residenza del paziente è  obbligatorio</t>
   </si>
   <si>
@@ -621,12 +591,6 @@
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0f70ba4f1225baca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.092424a8b83ac1734d0e118a4c3a43c793f3f6c63b6ba838d480115903a3b457.de708c7ae9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Il nome e' obbligatorio</t>
@@ -639,15 +603,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-05T20:04:35Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8e7a2bcbf19e1adb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.092424a8b83ac1734d0e118a4c3a43c793f3f6c63b6ba838d480115903a3b457.7748c648c2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">I valori ammessi in  anagrafica sono solo  "maschio", "femmina" o "indifferenziato"</t>
   </si>
   <si>
@@ -658,12 +613,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">f871c912bb3d8f5b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.092424a8b83ac1734d0e118a4c3a43c793f3f6c63b6ba838d480115903a3b457.cd72a90d0a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">I soli valori ammessi sono Normale o Urgente</t>
   </si>
   <si>
@@ -672,15 +621,6 @@
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-05T20:04:45Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def2846e7ccb93da</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.092424a8b83ac1734d0e118a4c3a43c793f3f6c63b6ba838d480115903a3b457.0b36f62263^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Il codice univoco di prescrizione non puo' mancare</t>
@@ -713,15 +653,6 @@
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-05T20:04:52Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64f3570273edca59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.04d9a0852c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">OGNI CAMPIONE HA UN PROTOCOLLO UNICO</t>
@@ -932,7 +863,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1228,6 +1159,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="23">
@@ -1819,7 +1756,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1970,6 +1907,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2129,9 +2074,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>584640</xdr:colOff>
+      <xdr:colOff>582480</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
+      <xdr:rowOff>179280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2141,7 +2086,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5375520" cy="2894040"/>
+          <a:ext cx="5375160" cy="2893680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4388,7 +4333,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O27" activeCellId="0" sqref="O27"/>
+      <selection pane="bottomRight" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4396,7 +4341,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.7"/>
@@ -5037,23 +4982,15 @@
       <c r="E18" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="30" t="n">
-        <v>45082</v>
-      </c>
-      <c r="G18" s="30" t="s">
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="K18" s="32" t="s">
         <v>95</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="J18" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>98</v>
       </c>
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
@@ -5078,28 +5015,20 @@
         <v>49</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="30" t="n">
-        <v>45082</v>
-      </c>
-      <c r="G19" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="J19" s="32" t="s">
-        <v>97</v>
-      </c>
       <c r="K19" s="32" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
@@ -5124,28 +5053,20 @@
         <v>49</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="30" t="n">
-        <v>45082</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>108</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
@@ -5170,28 +5091,20 @@
         <v>49</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="30" t="n">
-        <v>45082</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K21" s="37" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
@@ -5216,28 +5129,20 @@
         <v>49</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" s="30" t="n">
-        <v>45082</v>
-      </c>
-      <c r="G22" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="H22" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>118</v>
-      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
       <c r="J22" s="32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
@@ -5262,28 +5167,20 @@
         <v>49</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="30" t="n">
-        <v>45082</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
       <c r="J23" s="32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
@@ -5308,28 +5205,20 @@
         <v>49</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="30" t="n">
-        <v>45082</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" s="31" t="s">
-        <v>129</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
       <c r="J24" s="32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
@@ -5354,28 +5243,20 @@
         <v>49</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" s="30" t="n">
-        <v>45082</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" s="31" t="s">
-        <v>135</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
       <c r="J25" s="32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
@@ -5400,22 +5281,22 @@
         <v>49</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F26" s="30" t="n">
         <v>45082</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J26" s="32" t="s">
         <v>55</v>
@@ -5428,13 +5309,13 @@
         <v>55</v>
       </c>
       <c r="N26" s="32" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="O26" s="32" t="s">
         <v>55</v>
       </c>
       <c r="P26" s="32" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="Q26" s="32"/>
       <c r="R26" s="33"/>
@@ -5454,28 +5335,20 @@
         <v>49</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="30" t="n">
-        <v>45082</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="H27" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="I27" s="31" t="s">
-        <v>148</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
       <c r="J27" s="32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
@@ -5500,22 +5373,22 @@
         <v>49</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="30" t="n">
+        <v>128</v>
+      </c>
+      <c r="F28" s="38" t="n">
         <v>45082</v>
       </c>
-      <c r="G28" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>153</v>
+      <c r="G28" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>130</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="J28" s="32" t="s">
         <v>55</v>
@@ -5528,13 +5401,13 @@
         <v>55</v>
       </c>
       <c r="N28" s="32" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="O28" s="32" t="s">
         <v>55</v>
       </c>
       <c r="P28" s="32" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="Q28" s="32"/>
       <c r="R28" s="33"/>
@@ -17165,10 +17038,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17176,125 +17049,125 @@
         <v>49</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>159</v>
+        <v>134</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>162</v>
+        <v>134</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>165</v>
+        <v>134</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>168</v>
+        <v>134</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>171</v>
+        <v>134</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>174</v>
+        <v>134</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>177</v>
+        <v>134</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="41" t="s">
         <v>157</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>183</v>
+        <v>134</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17302,111 +17175,111 @@
         <v>49</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" s="38" t="n">
+        <v>161</v>
+      </c>
+      <c r="C11" s="40" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>185</v>
+      <c r="D11" s="40" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="38" t="n">
+        <v>161</v>
+      </c>
+      <c r="C12" s="40" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>186</v>
+      <c r="D12" s="40" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="38" t="n">
+        <v>161</v>
+      </c>
+      <c r="C13" s="40" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>187</v>
+      <c r="D13" s="41" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="38" t="n">
+        <v>161</v>
+      </c>
+      <c r="C14" s="40" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>188</v>
+      <c r="D14" s="40" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="38" t="n">
+        <v>161</v>
+      </c>
+      <c r="C15" s="40" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>189</v>
+      <c r="D15" s="41" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" s="38" t="n">
+        <v>161</v>
+      </c>
+      <c r="C16" s="40" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>190</v>
+      <c r="D16" s="41" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="38" t="n">
+        <v>161</v>
+      </c>
+      <c r="C17" s="40" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>191</v>
+      <c r="D17" s="41" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="38" t="n">
+        <v>161</v>
+      </c>
+      <c r="C18" s="40" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="39" t="s">
-        <v>192</v>
+      <c r="D18" s="41" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17414,111 +17287,111 @@
         <v>49</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="40" t="n">
         <v>193</v>
       </c>
-      <c r="C19" s="38" t="n">
-        <v>193</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>194</v>
+      <c r="D19" s="40" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C20" s="38" t="n">
+        <v>170</v>
+      </c>
+      <c r="C20" s="40" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="38" t="s">
-        <v>195</v>
+      <c r="D20" s="40" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="38" t="n">
+        <v>170</v>
+      </c>
+      <c r="C21" s="40" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="39" t="s">
-        <v>196</v>
+      <c r="D21" s="41" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C22" s="38" t="n">
+        <v>170</v>
+      </c>
+      <c r="C22" s="40" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="38" t="s">
-        <v>197</v>
+      <c r="D22" s="40" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="38" t="n">
+        <v>170</v>
+      </c>
+      <c r="C23" s="40" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="39" t="s">
-        <v>198</v>
+      <c r="D23" s="41" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C24" s="38" t="n">
+        <v>170</v>
+      </c>
+      <c r="C24" s="40" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>199</v>
+      <c r="D24" s="41" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C25" s="38" t="n">
+        <v>170</v>
+      </c>
+      <c r="C25" s="40" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="39" t="s">
-        <v>200</v>
+      <c r="D25" s="41" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="40" t="n">
+        <v>305</v>
+      </c>
+      <c r="D26" s="41" t="s">
         <v>178</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="38" t="n">
-        <v>305</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17526,111 +17399,111 @@
         <v>49</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C27" s="38" t="n">
+        <v>179</v>
+      </c>
+      <c r="C27" s="40" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="38" t="s">
-        <v>203</v>
+      <c r="D27" s="40" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C28" s="38" t="n">
+        <v>179</v>
+      </c>
+      <c r="C28" s="40" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="38" t="s">
-        <v>204</v>
+      <c r="D28" s="40" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C29" s="38" t="n">
+        <v>179</v>
+      </c>
+      <c r="C29" s="40" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="40" t="s">
-        <v>205</v>
+      <c r="D29" s="42" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C30" s="38" t="n">
+        <v>179</v>
+      </c>
+      <c r="C30" s="40" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="38" t="s">
-        <v>206</v>
+      <c r="D30" s="40" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C31" s="38" t="n">
+        <v>179</v>
+      </c>
+      <c r="C31" s="40" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="39" t="s">
-        <v>207</v>
+      <c r="D31" s="41" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C32" s="38" t="n">
+        <v>179</v>
+      </c>
+      <c r="C32" s="40" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="39" t="s">
-        <v>208</v>
+      <c r="D32" s="41" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" s="38" t="n">
+        <v>179</v>
+      </c>
+      <c r="C33" s="40" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="39" t="s">
-        <v>209</v>
+      <c r="D33" s="41" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C34" s="38" t="n">
+        <v>179</v>
+      </c>
+      <c r="C34" s="40" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="39" t="s">
-        <v>210</v>
+      <c r="D34" s="41" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17638,110 +17511,110 @@
         <v>49</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="38" t="n">
+        <v>188</v>
+      </c>
+      <c r="C35" s="40" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="38" t="n">
+      <c r="D35" s="40" t="n">
         <v>204</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B36" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="40" t="n">
         <v>211</v>
       </c>
-      <c r="C36" s="38" t="n">
-        <v>211</v>
-      </c>
-      <c r="D36" s="38" t="n">
+      <c r="D36" s="40" t="n">
         <v>220</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C37" s="38" t="n">
+        <v>188</v>
+      </c>
+      <c r="C37" s="40" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="39" t="n">
+      <c r="D37" s="41" t="n">
         <v>236</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C38" s="38" t="n">
+        <v>188</v>
+      </c>
+      <c r="C38" s="40" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="38" t="n">
+      <c r="D38" s="40" t="n">
         <v>252</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C39" s="38" t="n">
+        <v>188</v>
+      </c>
+      <c r="C39" s="40" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="39" t="n">
+      <c r="D39" s="41" t="n">
         <v>268</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C40" s="38" t="n">
+        <v>188</v>
+      </c>
+      <c r="C40" s="40" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="39" t="n">
+      <c r="D40" s="41" t="n">
         <v>284</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C41" s="38" t="n">
+        <v>188</v>
+      </c>
+      <c r="C41" s="40" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="39" t="n">
+      <c r="D41" s="41" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C42" s="38" t="n">
+        <v>188</v>
+      </c>
+      <c r="C42" s="40" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="39" t="n">
+      <c r="D42" s="41" t="n">
         <v>316</v>
       </c>
     </row>
@@ -17750,110 +17623,110 @@
         <v>49</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C43" s="38" t="n">
+        <v>189</v>
+      </c>
+      <c r="C43" s="40" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="38" t="n">
+      <c r="D43" s="40" t="n">
         <v>207</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="40" t="n">
         <v>212</v>
       </c>
-      <c r="C44" s="38" t="n">
-        <v>212</v>
-      </c>
-      <c r="D44" s="38" t="n">
+      <c r="D44" s="40" t="n">
         <v>223</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C45" s="38" t="n">
+        <v>189</v>
+      </c>
+      <c r="C45" s="40" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="39" t="n">
+      <c r="D45" s="41" t="n">
         <v>239</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C46" s="38" t="n">
+        <v>189</v>
+      </c>
+      <c r="C46" s="40" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="38" t="n">
+      <c r="D46" s="40" t="n">
         <v>255</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C47" s="38" t="n">
+        <v>189</v>
+      </c>
+      <c r="C47" s="40" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="39" t="n">
+      <c r="D47" s="41" t="n">
         <v>271</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C48" s="38" t="n">
+        <v>189</v>
+      </c>
+      <c r="C48" s="40" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="39" t="n">
+      <c r="D48" s="41" t="n">
         <v>287</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C49" s="38" t="n">
+        <v>189</v>
+      </c>
+      <c r="C49" s="40" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="39" t="n">
+      <c r="D49" s="41" t="n">
         <v>303</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C50" s="38" t="n">
+        <v>189</v>
+      </c>
+      <c r="C50" s="40" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="39" t="n">
+      <c r="D50" s="41" t="n">
         <v>319</v>
       </c>
     </row>
@@ -18838,27 +18711,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>97</v>
+      <c r="A3" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="188">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -267,13 +267,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-05t20:50:04Z</t>
+    <t xml:space="preserve">2023-07-03:21:03:04:10Z</t>
   </si>
   <si>
-    <t xml:space="preserve">6bd7f83eacdab329</t>
+    <t xml:space="preserve">4b64210e50ffbc4d</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.ca0326b86b8bdf39f9c84e63d207c0479e13dd7921d8bdd206b55515e7c883cd.ab3fcd6026^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.ca0326b86b8bdf39f9c84e63d207c0479e13dd7921d8bdd206b55515e7c883cd.62b6dc114c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId
+</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -291,13 +292,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-05t20:50:10Z</t>
+    <t xml:space="preserve">8cc378f831c406a1</t>
   </si>
   <si>
-    <t xml:space="preserve">69bc9b32c9949d3d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.569369a4be5cef75f5ec38405b6b396793743e826d7b6c3922c90fb4f915d638.a9702163f2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.569369a4be5cef75f5ec38405b6b396793743e826d7b6c3922c90fb4f915d638.23a4d2b6c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT3</t>
@@ -309,13 +307,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-05t20:50:22Z</t>
+    <t xml:space="preserve">0b7df720d8dc4324</t>
   </si>
   <si>
-    <t xml:space="preserve">fe4914dd2d9ebec7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.092424a8b83ac1734d0e118a4c3a43c793f3f6c63b6ba838d480115903a3b457.ed152c2faf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.092424a8b83ac1734d0e118a4c3a43c793f3f6c63b6ba838d480115903a3b457.b8d8c8b00c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT4</t>
@@ -327,13 +322,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-05t20:50:32Z</t>
+    <t xml:space="preserve">a90d615b939e5369</t>
   </si>
   <si>
-    <t xml:space="preserve">99f83bc008080b46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.c6e7c7301b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.f99673cc27^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT5</t>
@@ -345,13 +337,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-05t20:50:42Z</t>
+    <t xml:space="preserve">56ec98cb820cf702</t>
   </si>
   <si>
-    <t xml:space="preserve">99c41b8c04cb31e3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.0159c975ef5be78c77b66a8a3fd551d6987c66ca9310e9c9298af20f9351570a.f15c0b38ec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.0159c975ef5be78c77b66a8a3fd551d6987c66ca9310e9c9298af20f9351570a.021393f5e4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LAB_KO</t>
@@ -633,13 +622,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-05T20:04:50Z</t>
+    <t xml:space="preserve">2023-07-03:20:43:10:10Z</t>
   </si>
   <si>
-    <t xml:space="preserve">a8c31b9edeadb48a</t>
+    <t xml:space="preserve">7492abdc39ccf8e7</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.092424a8b83ac1734d0e118a4c3a43c793f3f6c63b6ba838d480115903a3b457.9377564d8b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.092424a8b83ac1734d0e118a4c3a43c793f3f6c63b6ba838d480115903a3b457.0e8346143a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">output del gateway</t>
@@ -1143,6 +1132,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
       <b val="true"/>
       <u val="single"/>
       <sz val="11"/>
@@ -1159,12 +1154,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="23">
@@ -1901,20 +1890,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2073,10 +2062,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>582480</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>179280</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>103680</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>943560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2086,7 +2075,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5375160" cy="2893680"/>
+          <a:ext cx="5374800" cy="2893320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2144,7 +2133,7 @@
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="17:17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3219,7 +3208,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="17:17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4333,16 +4322,16 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H28" activeCellId="0" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="17:17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="63.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.76"/>
@@ -4532,7 +4521,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="16"/>
     </row>
-    <row r="9" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="26" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="s">
         <v>28</v>
       </c>
@@ -4594,7 +4583,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="n">
         <v>1</v>
       </c>
@@ -4611,7 +4600,7 @@
         <v>51</v>
       </c>
       <c r="F10" s="30" t="n">
-        <v>45082</v>
+        <v>44992</v>
       </c>
       <c r="G10" s="31" t="s">
         <v>52</v>
@@ -4638,7 +4627,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="n">
         <v>2</v>
       </c>
@@ -4654,17 +4643,17 @@
       <c r="E11" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="30" t="n">
-        <v>45082</v>
-      </c>
-      <c r="G11" s="31" t="s">
+      <c r="F11" s="36" t="n">
+        <v>44992</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="I11" s="31" t="s">
         <v>60</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>61</v>
       </c>
       <c r="J11" s="32" t="s">
         <v>55</v>
@@ -4682,7 +4671,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="n">
         <v>3</v>
       </c>
@@ -4693,22 +4682,22 @@
         <v>49</v>
       </c>
       <c r="D12" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="F12" s="36" t="n">
+        <v>44992</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="30" t="n">
-        <v>45082</v>
-      </c>
-      <c r="G12" s="31" t="s">
+      <c r="I12" s="31" t="s">
         <v>64</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>66</v>
       </c>
       <c r="J12" s="32" t="s">
         <v>55</v>
@@ -4726,7 +4715,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="n">
         <v>4</v>
       </c>
@@ -4737,22 +4726,22 @@
         <v>49</v>
       </c>
       <c r="D13" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="36" t="n">
+        <v>44992</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="I13" s="31" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="30" t="n">
-        <v>45082</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>71</v>
       </c>
       <c r="J13" s="32" t="s">
         <v>55</v>
@@ -4770,7 +4759,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="n">
         <v>5</v>
       </c>
@@ -4781,22 +4770,22 @@
         <v>49</v>
       </c>
       <c r="D14" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="36" t="n">
+        <v>44992</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="31" t="s">
         <v>72</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="30" t="n">
-        <v>45082</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>76</v>
       </c>
       <c r="J14" s="32" t="s">
         <v>55</v>
@@ -4814,7 +4803,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="n">
         <v>28</v>
       </c>
@@ -4825,22 +4814,22 @@
         <v>49</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>74</v>
       </c>
       <c r="F15" s="30" t="n">
         <v>45099</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J15" s="32" t="s">
         <v>55</v>
@@ -4853,22 +4842,22 @@
         <v>55</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O15" s="32" t="s">
         <v>55</v>
       </c>
       <c r="P15" s="32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q15" s="32"/>
       <c r="R15" s="33"/>
       <c r="S15" s="34"/>
       <c r="T15" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="27" t="n">
         <v>36</v>
       </c>
@@ -4879,22 +4868,22 @@
         <v>49</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>82</v>
       </c>
       <c r="F16" s="30" t="n">
         <v>45099</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J16" s="32" t="s">
         <v>55</v>
@@ -4907,22 +4896,22 @@
         <v>55</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O16" s="32" t="s">
         <v>55</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="32"/>
       <c r="R16" s="33"/>
       <c r="S16" s="34"/>
       <c r="T16" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="n">
         <v>44</v>
       </c>
@@ -4933,15 +4922,17 @@
         <v>49</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F17" s="30" t="n">
         <v>45099</v>
       </c>
-      <c r="G17" s="31"/>
+      <c r="G17" s="37" t="s">
+        <v>52</v>
+      </c>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
       <c r="J17" s="32"/>
@@ -4953,20 +4944,20 @@
         <v>55</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O17" s="32"/>
       <c r="P17" s="32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="32"/>
       <c r="R17" s="33"/>
       <c r="S17" s="34"/>
       <c r="T17" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="27" t="n">
         <v>52</v>
       </c>
@@ -4977,20 +4968,20 @@
         <v>49</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
       <c r="J18" s="32" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
@@ -5001,10 +4992,10 @@
       <c r="R18" s="33"/>
       <c r="S18" s="34"/>
       <c r="T18" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="27" t="n">
         <v>53</v>
       </c>
@@ -5015,20 +5006,20 @@
         <v>49</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
       <c r="J19" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="32" t="s">
         <v>94</v>
-      </c>
-      <c r="K19" s="32" t="s">
-        <v>98</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
@@ -5039,10 +5030,10 @@
       <c r="R19" s="33"/>
       <c r="S19" s="34"/>
       <c r="T19" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="27" t="n">
         <v>54</v>
       </c>
@@ -5053,20 +5044,20 @@
         <v>49</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
       <c r="J20" s="32" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
@@ -5077,10 +5068,10 @@
       <c r="R20" s="33"/>
       <c r="S20" s="34"/>
       <c r="T20" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="27" t="n">
         <v>55</v>
       </c>
@@ -5091,20 +5082,20 @@
         <v>49</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
       <c r="J21" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>104</v>
+        <v>90</v>
+      </c>
+      <c r="K21" s="39" t="s">
+        <v>100</v>
       </c>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
@@ -5115,10 +5106,10 @@
       <c r="R21" s="33"/>
       <c r="S21" s="34"/>
       <c r="T21" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="27" t="n">
         <v>56</v>
       </c>
@@ -5129,20 +5120,20 @@
         <v>49</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="32" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
@@ -5153,10 +5144,10 @@
       <c r="R22" s="33"/>
       <c r="S22" s="34"/>
       <c r="T22" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="27" t="n">
         <v>57</v>
       </c>
@@ -5167,20 +5158,20 @@
         <v>49</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
       <c r="J23" s="32" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
@@ -5191,10 +5182,10 @@
       <c r="R23" s="33"/>
       <c r="S23" s="34"/>
       <c r="T23" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="27" t="n">
         <v>58</v>
       </c>
@@ -5205,20 +5196,20 @@
         <v>49</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
       <c r="J24" s="32" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
@@ -5229,10 +5220,10 @@
       <c r="R24" s="33"/>
       <c r="S24" s="34"/>
       <c r="T24" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="27" t="n">
         <v>59</v>
       </c>
@@ -5243,20 +5234,20 @@
         <v>49</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
       <c r="J25" s="32" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
@@ -5267,10 +5258,10 @@
       <c r="R25" s="33"/>
       <c r="S25" s="34"/>
       <c r="T25" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="27" t="n">
         <v>60</v>
       </c>
@@ -5281,22 +5272,22 @@
         <v>49</v>
       </c>
       <c r="D26" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="36" t="n">
+        <v>44992</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" s="31" t="s">
         <v>117</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="30" t="n">
-        <v>45082</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>121</v>
       </c>
       <c r="J26" s="32" t="s">
         <v>55</v>
@@ -5309,22 +5300,22 @@
         <v>55</v>
       </c>
       <c r="N26" s="32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O26" s="32" t="s">
         <v>55</v>
       </c>
       <c r="P26" s="32" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q26" s="32"/>
       <c r="R26" s="33"/>
       <c r="S26" s="34"/>
       <c r="T26" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="27" t="n">
         <v>61</v>
       </c>
@@ -5335,20 +5326,20 @@
         <v>49</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
       <c r="J27" s="32" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
@@ -5359,10 +5350,10 @@
       <c r="R27" s="33"/>
       <c r="S27" s="34"/>
       <c r="T27" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="27" t="n">
         <v>62</v>
       </c>
@@ -5373,22 +5364,22 @@
         <v>49</v>
       </c>
       <c r="D28" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="30" t="n">
+        <v>45082</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="31" t="s">
         <v>127</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" s="38" t="n">
-        <v>45082</v>
-      </c>
-      <c r="G28" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>131</v>
       </c>
       <c r="J28" s="32" t="s">
         <v>55</v>
@@ -5401,19 +5392,19 @@
         <v>55</v>
       </c>
       <c r="N28" s="32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O28" s="32" t="s">
         <v>55</v>
       </c>
       <c r="P28" s="32" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q28" s="32"/>
       <c r="R28" s="33"/>
       <c r="S28" s="34"/>
       <c r="T28" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17017,7 +17008,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="1" sqref="17:17 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17038,10 +17029,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17049,125 +17040,125 @@
         <v>49</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>138</v>
-      </c>
       <c r="D3" s="40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17175,111 +17166,111 @@
         <v>49</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C11" s="40" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C12" s="40" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C13" s="40" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C14" s="40" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C15" s="40" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C16" s="40" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C17" s="40" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C18" s="40" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17287,111 +17278,111 @@
         <v>49</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C19" s="40" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C20" s="40" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C21" s="40" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C22" s="40" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C23" s="40" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C24" s="40" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C25" s="40" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C26" s="40" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17399,111 +17390,111 @@
         <v>49</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C27" s="40" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C28" s="40" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C29" s="40" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C30" s="40" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C31" s="40" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C32" s="40" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C33" s="40" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C34" s="40" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17511,7 +17502,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C35" s="40" t="n">
         <v>195</v>
@@ -17522,10 +17513,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C36" s="40" t="n">
         <v>211</v>
@@ -17536,10 +17527,10 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C37" s="40" t="n">
         <v>227</v>
@@ -17550,10 +17541,10 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C38" s="40" t="n">
         <v>243</v>
@@ -17564,10 +17555,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C39" s="40" t="n">
         <v>259</v>
@@ -17578,10 +17569,10 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C40" s="40" t="n">
         <v>275</v>
@@ -17592,10 +17583,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C41" s="40" t="n">
         <v>291</v>
@@ -17606,10 +17597,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C42" s="40" t="n">
         <v>307</v>
@@ -17623,7 +17614,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C43" s="40" t="n">
         <v>196</v>
@@ -17634,10 +17625,10 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C44" s="40" t="n">
         <v>212</v>
@@ -17648,10 +17639,10 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C45" s="40" t="n">
         <v>228</v>
@@ -17662,10 +17653,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C46" s="40" t="n">
         <v>244</v>
@@ -17676,10 +17667,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C47" s="40" t="n">
         <v>260</v>
@@ -17690,10 +17681,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C48" s="40" t="n">
         <v>276</v>
@@ -17704,10 +17695,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C49" s="40" t="n">
         <v>292</v>
@@ -17718,10 +17709,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C50" s="40" t="n">
         <v>308</v>
@@ -18699,7 +18690,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="17:17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18720,7 +18711,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="43" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>55</v>
@@ -18728,10 +18719,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="43" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
@@ -852,7 +852,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1130,12 +1130,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -1745,7 +1739,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1890,15 +1884,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2063,9 +2049,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>103680</xdr:colOff>
+      <xdr:colOff>103320</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>943560</xdr:rowOff>
+      <xdr:rowOff>943200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2075,7 +2061,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5374800" cy="2893320"/>
+          <a:ext cx="5374440" cy="2892960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2133,7 +2119,7 @@
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="17:17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3208,7 +3194,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="17:17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4318,11 +4304,11 @@
   <dimension ref="A1:T959"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="17:17"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="O17" activeCellId="0" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4643,10 +4629,10 @@
       <c r="E11" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="36" t="n">
+      <c r="F11" s="30" t="n">
         <v>44992</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="31" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="31" t="s">
@@ -4687,10 +4673,10 @@
       <c r="E12" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="36" t="n">
+      <c r="F12" s="30" t="n">
         <v>44992</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="31" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="31" t="s">
@@ -4731,10 +4717,10 @@
       <c r="E13" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="36" t="n">
+      <c r="F13" s="30" t="n">
         <v>44992</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="31" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="31" t="s">
@@ -4775,10 +4761,10 @@
       <c r="E14" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="36" t="n">
+      <c r="F14" s="30" t="n">
         <v>44992</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="31" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="31" t="s">
@@ -4816,7 +4802,7 @@
       <c r="D15" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="36" t="s">
         <v>74</v>
       </c>
       <c r="F15" s="30" t="n">
@@ -4870,7 +4856,7 @@
       <c r="D16" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="36" t="s">
         <v>82</v>
       </c>
       <c r="F16" s="30" t="n">
@@ -4927,12 +4913,8 @@
       <c r="E17" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="30" t="n">
-        <v>45099</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>52</v>
-      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
       <c r="J17" s="32"/>
@@ -4946,7 +4928,9 @@
       <c r="N17" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="O17" s="32"/>
+      <c r="O17" s="32" t="s">
+        <v>55</v>
+      </c>
       <c r="P17" s="32" t="s">
         <v>79</v>
       </c>
@@ -5094,7 +5078,7 @@
       <c r="J21" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="37" t="s">
         <v>100</v>
       </c>
       <c r="L21" s="32"/>
@@ -5277,10 +5261,10 @@
       <c r="E26" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F26" s="36" t="n">
+      <c r="F26" s="30" t="n">
         <v>44992</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="30" t="s">
         <v>115</v>
       </c>
       <c r="H26" s="31" t="s">
@@ -17008,7 +16992,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="1" sqref="17:17 B3"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17042,10 +17026,10 @@
       <c r="B2" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="38" t="s">
         <v>132</v>
       </c>
     </row>
@@ -17056,10 +17040,10 @@
       <c r="B3" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="38" t="s">
         <v>135</v>
       </c>
     </row>
@@ -17070,10 +17054,10 @@
       <c r="B4" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="39" t="s">
         <v>138</v>
       </c>
     </row>
@@ -17084,10 +17068,10 @@
       <c r="B5" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="38" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17098,10 +17082,10 @@
       <c r="B6" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="39" t="s">
         <v>144</v>
       </c>
     </row>
@@ -17112,10 +17096,10 @@
       <c r="B7" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="39" t="s">
         <v>147</v>
       </c>
     </row>
@@ -17126,10 +17110,10 @@
       <c r="B8" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="39" t="s">
         <v>150</v>
       </c>
     </row>
@@ -17140,10 +17124,10 @@
       <c r="B9" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="39" t="s">
         <v>153</v>
       </c>
     </row>
@@ -17154,10 +17138,10 @@
       <c r="B10" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="38" t="s">
         <v>156</v>
       </c>
     </row>
@@ -17168,10 +17152,10 @@
       <c r="B11" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="40" t="n">
+      <c r="C11" s="38" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="38" t="s">
         <v>158</v>
       </c>
     </row>
@@ -17182,10 +17166,10 @@
       <c r="B12" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="40" t="n">
+      <c r="C12" s="38" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="38" t="s">
         <v>159</v>
       </c>
     </row>
@@ -17196,10 +17180,10 @@
       <c r="B13" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="40" t="n">
+      <c r="C13" s="38" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="39" t="s">
         <v>160</v>
       </c>
     </row>
@@ -17210,10 +17194,10 @@
       <c r="B14" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="40" t="n">
+      <c r="C14" s="38" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="38" t="s">
         <v>161</v>
       </c>
     </row>
@@ -17224,10 +17208,10 @@
       <c r="B15" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="40" t="n">
+      <c r="C15" s="38" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="39" t="s">
         <v>162</v>
       </c>
     </row>
@@ -17238,10 +17222,10 @@
       <c r="B16" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="40" t="n">
+      <c r="C16" s="38" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="39" t="s">
         <v>163</v>
       </c>
     </row>
@@ -17252,10 +17236,10 @@
       <c r="B17" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="40" t="n">
+      <c r="C17" s="38" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="39" t="s">
         <v>164</v>
       </c>
     </row>
@@ -17266,10 +17250,10 @@
       <c r="B18" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="40" t="n">
+      <c r="C18" s="38" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="39" t="s">
         <v>165</v>
       </c>
     </row>
@@ -17280,10 +17264,10 @@
       <c r="B19" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C19" s="40" t="n">
+      <c r="C19" s="38" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="38" t="s">
         <v>167</v>
       </c>
     </row>
@@ -17294,10 +17278,10 @@
       <c r="B20" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="40" t="n">
+      <c r="C20" s="38" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="38" t="s">
         <v>168</v>
       </c>
     </row>
@@ -17308,10 +17292,10 @@
       <c r="B21" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="40" t="n">
+      <c r="C21" s="38" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="39" t="s">
         <v>169</v>
       </c>
     </row>
@@ -17322,10 +17306,10 @@
       <c r="B22" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="40" t="n">
+      <c r="C22" s="38" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="38" t="s">
         <v>170</v>
       </c>
     </row>
@@ -17336,10 +17320,10 @@
       <c r="B23" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C23" s="40" t="n">
+      <c r="C23" s="38" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="39" t="s">
         <v>171</v>
       </c>
     </row>
@@ -17350,10 +17334,10 @@
       <c r="B24" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="40" t="n">
+      <c r="C24" s="38" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="39" t="s">
         <v>172</v>
       </c>
     </row>
@@ -17364,10 +17348,10 @@
       <c r="B25" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="40" t="n">
+      <c r="C25" s="38" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="39" t="s">
         <v>173</v>
       </c>
     </row>
@@ -17378,10 +17362,10 @@
       <c r="B26" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="40" t="n">
+      <c r="C26" s="38" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="39" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17392,10 +17376,10 @@
       <c r="B27" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="40" t="n">
+      <c r="C27" s="38" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="38" t="s">
         <v>176</v>
       </c>
     </row>
@@ -17406,10 +17390,10 @@
       <c r="B28" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="40" t="n">
+      <c r="C28" s="38" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="38" t="s">
         <v>177</v>
       </c>
     </row>
@@ -17420,10 +17404,10 @@
       <c r="B29" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="40" t="n">
+      <c r="C29" s="38" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="40" t="s">
         <v>178</v>
       </c>
     </row>
@@ -17434,10 +17418,10 @@
       <c r="B30" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="40" t="n">
+      <c r="C30" s="38" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="38" t="s">
         <v>179</v>
       </c>
     </row>
@@ -17448,10 +17432,10 @@
       <c r="B31" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="40" t="n">
+      <c r="C31" s="38" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="39" t="s">
         <v>180</v>
       </c>
     </row>
@@ -17462,10 +17446,10 @@
       <c r="B32" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="40" t="n">
+      <c r="C32" s="38" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="39" t="s">
         <v>181</v>
       </c>
     </row>
@@ -17476,10 +17460,10 @@
       <c r="B33" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C33" s="40" t="n">
+      <c r="C33" s="38" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="39" t="s">
         <v>182</v>
       </c>
     </row>
@@ -17490,10 +17474,10 @@
       <c r="B34" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C34" s="40" t="n">
+      <c r="C34" s="38" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="39" t="s">
         <v>183</v>
       </c>
     </row>
@@ -17504,10 +17488,10 @@
       <c r="B35" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C35" s="40" t="n">
+      <c r="C35" s="38" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="40" t="n">
+      <c r="D35" s="38" t="n">
         <v>204</v>
       </c>
     </row>
@@ -17518,10 +17502,10 @@
       <c r="B36" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C36" s="40" t="n">
+      <c r="C36" s="38" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="40" t="n">
+      <c r="D36" s="38" t="n">
         <v>220</v>
       </c>
     </row>
@@ -17532,10 +17516,10 @@
       <c r="B37" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C37" s="40" t="n">
+      <c r="C37" s="38" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="41" t="n">
+      <c r="D37" s="39" t="n">
         <v>236</v>
       </c>
     </row>
@@ -17546,10 +17530,10 @@
       <c r="B38" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="40" t="n">
+      <c r="C38" s="38" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="40" t="n">
+      <c r="D38" s="38" t="n">
         <v>252</v>
       </c>
     </row>
@@ -17560,10 +17544,10 @@
       <c r="B39" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C39" s="40" t="n">
+      <c r="C39" s="38" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="41" t="n">
+      <c r="D39" s="39" t="n">
         <v>268</v>
       </c>
     </row>
@@ -17574,10 +17558,10 @@
       <c r="B40" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C40" s="40" t="n">
+      <c r="C40" s="38" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="41" t="n">
+      <c r="D40" s="39" t="n">
         <v>284</v>
       </c>
     </row>
@@ -17588,10 +17572,10 @@
       <c r="B41" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="40" t="n">
+      <c r="C41" s="38" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="41" t="n">
+      <c r="D41" s="39" t="n">
         <v>300</v>
       </c>
     </row>
@@ -17602,10 +17586,10 @@
       <c r="B42" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C42" s="40" t="n">
+      <c r="C42" s="38" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="41" t="n">
+      <c r="D42" s="39" t="n">
         <v>316</v>
       </c>
     </row>
@@ -17616,10 +17600,10 @@
       <c r="B43" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C43" s="40" t="n">
+      <c r="C43" s="38" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="40" t="n">
+      <c r="D43" s="38" t="n">
         <v>207</v>
       </c>
     </row>
@@ -17630,10 +17614,10 @@
       <c r="B44" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C44" s="40" t="n">
+      <c r="C44" s="38" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="40" t="n">
+      <c r="D44" s="38" t="n">
         <v>223</v>
       </c>
     </row>
@@ -17644,10 +17628,10 @@
       <c r="B45" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="40" t="n">
+      <c r="C45" s="38" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="41" t="n">
+      <c r="D45" s="39" t="n">
         <v>239</v>
       </c>
     </row>
@@ -17658,10 +17642,10 @@
       <c r="B46" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="40" t="n">
+      <c r="C46" s="38" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="40" t="n">
+      <c r="D46" s="38" t="n">
         <v>255</v>
       </c>
     </row>
@@ -17672,10 +17656,10 @@
       <c r="B47" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="40" t="n">
+      <c r="C47" s="38" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="41" t="n">
+      <c r="D47" s="39" t="n">
         <v>271</v>
       </c>
     </row>
@@ -17686,10 +17670,10 @@
       <c r="B48" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C48" s="40" t="n">
+      <c r="C48" s="38" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="41" t="n">
+      <c r="D48" s="39" t="n">
         <v>287</v>
       </c>
     </row>
@@ -17700,10 +17684,10 @@
       <c r="B49" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C49" s="40" t="n">
+      <c r="C49" s="38" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="41" t="n">
+      <c r="D49" s="39" t="n">
         <v>303</v>
       </c>
     </row>
@@ -17714,10 +17698,10 @@
       <c r="B50" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C50" s="40" t="n">
+      <c r="C50" s="38" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="41" t="n">
+      <c r="D50" s="39" t="n">
         <v>319</v>
       </c>
     </row>
@@ -18690,7 +18674,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="17:17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18702,26 +18686,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="41" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="41" t="s">
         <v>90</v>
       </c>
     </row>

--- a/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="188">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2049,9 +2049,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>103320</xdr:colOff>
+      <xdr:colOff>102960</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>943200</xdr:rowOff>
+      <xdr:rowOff>942840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2061,7 +2061,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5374440" cy="2892960"/>
+          <a:ext cx="5374080" cy="2892600"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4304,11 +4304,11 @@
   <dimension ref="A1:T959"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="O17" activeCellId="0" sqref="O17"/>
+      <selection pane="bottomRight" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4321,7 +4321,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="57.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="36.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="20.83"/>
@@ -4917,7 +4917,9 @@
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="32"/>
+      <c r="J17" s="32" t="s">
+        <v>55</v>
+      </c>
       <c r="K17" s="32"/>
       <c r="L17" s="32" t="s">
         <v>55</v>

--- a/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="194">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -348,13 +348,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-19T21:58:18Z</t>
+    <t xml:space="preserve">21/07/2023</t>
   </si>
   <si>
-    <t xml:space="preserve">241275b839e8d231</t>
+    <t xml:space="preserve">2023-07-21T21:15:42Z</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.0159c975ef5be78c77b66a8a3fd551d6987c66ca9310e9c9298af20f9351570a.70b3917811^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">a68b945c0ab41474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.569369a4be5cef75f5ec38405b6b396793743e826d7b6c3922c90fb4f915d638.d19e445f08^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LAB_KO</t>
@@ -1880,7 +1883,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1904,7 +1907,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2073,9 +2076,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>101880</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>941760</xdr:rowOff>
+      <xdr:rowOff>941400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2085,7 +2088,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5373000" cy="2891520"/>
+          <a:ext cx="5372640" cy="2891160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4332,7 +4335,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4653,7 +4656,7 @@
       <c r="E11" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="30" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="31" t="s">
@@ -4697,7 +4700,7 @@
       <c r="E12" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="30" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="31" t="s">
@@ -4741,7 +4744,7 @@
       <c r="E13" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="30" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="31" t="s">
@@ -4785,17 +4788,17 @@
       <c r="E14" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="36" t="s">
-        <v>52</v>
+      <c r="F14" s="30" t="s">
+        <v>75</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="31" t="s">
         <v>76</v>
       </c>
+      <c r="H14" s="36" t="s">
+        <v>77</v>
+      </c>
       <c r="I14" s="31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J14" s="32" t="s">
         <v>56</v>
@@ -4824,22 +4827,22 @@
         <v>49</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="36" t="n">
+        <v>80</v>
+      </c>
+      <c r="F15" s="30" t="n">
         <v>45099</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J15" s="32" t="s">
         <v>56</v>
@@ -4852,19 +4855,19 @@
         <v>56</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O15" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P15" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q15" s="32"/>
       <c r="R15" s="33"/>
       <c r="S15" s="34"/>
       <c r="T15" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4878,22 +4881,22 @@
         <v>49</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="36" t="n">
+        <v>88</v>
+      </c>
+      <c r="F16" s="30" t="n">
         <v>45099</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J16" s="32" t="s">
         <v>56</v>
@@ -4906,19 +4909,19 @@
         <v>56</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O16" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="32"/>
       <c r="R16" s="33"/>
       <c r="S16" s="34"/>
       <c r="T16" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4932,12 +4935,12 @@
         <v>49</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="36"/>
+        <v>92</v>
+      </c>
+      <c r="F17" s="30"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
@@ -4952,19 +4955,19 @@
         <v>56</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O17" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P17" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="32"/>
       <c r="R17" s="33"/>
       <c r="S17" s="34"/>
       <c r="T17" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4978,20 +4981,20 @@
         <v>49</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
+        <v>95</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
       <c r="J18" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
@@ -5002,7 +5005,7 @@
       <c r="R18" s="33"/>
       <c r="S18" s="34"/>
       <c r="T18" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5016,20 +5019,20 @@
         <v>49</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
+        <v>99</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
       <c r="J19" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
@@ -5040,7 +5043,7 @@
       <c r="R19" s="33"/>
       <c r="S19" s="34"/>
       <c r="T19" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5054,20 +5057,20 @@
         <v>49</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
       <c r="J20" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
@@ -5078,7 +5081,7 @@
       <c r="R20" s="33"/>
       <c r="S20" s="34"/>
       <c r="T20" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5092,20 +5095,20 @@
         <v>49</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
+        <v>105</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
       <c r="J21" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K21" s="38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
@@ -5116,7 +5119,7 @@
       <c r="R21" s="33"/>
       <c r="S21" s="34"/>
       <c r="T21" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5130,20 +5133,20 @@
         <v>49</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
+        <v>108</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
@@ -5154,7 +5157,7 @@
       <c r="R22" s="33"/>
       <c r="S22" s="34"/>
       <c r="T22" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5168,20 +5171,20 @@
         <v>49</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+        <v>111</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
       <c r="J23" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
@@ -5192,7 +5195,7 @@
       <c r="R23" s="33"/>
       <c r="S23" s="34"/>
       <c r="T23" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5206,20 +5209,20 @@
         <v>49</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
+        <v>114</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
       <c r="J24" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
@@ -5230,7 +5233,7 @@
       <c r="R24" s="33"/>
       <c r="S24" s="34"/>
       <c r="T24" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5244,20 +5247,20 @@
         <v>49</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
+        <v>117</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
       <c r="J25" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
@@ -5268,7 +5271,7 @@
       <c r="R25" s="33"/>
       <c r="S25" s="34"/>
       <c r="T25" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5282,22 +5285,22 @@
         <v>49</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="36" t="n">
+        <v>120</v>
+      </c>
+      <c r="F26" s="30" t="n">
         <v>44992</v>
       </c>
-      <c r="G26" s="36" t="s">
-        <v>120</v>
+      <c r="G26" s="30" t="s">
+        <v>121</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J26" s="32" t="s">
         <v>56</v>
@@ -5310,19 +5313,19 @@
         <v>56</v>
       </c>
       <c r="N26" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O26" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P26" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q26" s="32"/>
       <c r="R26" s="33"/>
       <c r="S26" s="34"/>
       <c r="T26" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5336,20 +5339,20 @@
         <v>49</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
+        <v>127</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
       <c r="J27" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
@@ -5360,7 +5363,7 @@
       <c r="R27" s="33"/>
       <c r="S27" s="34"/>
       <c r="T27" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5374,22 +5377,22 @@
         <v>49</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="F28" s="36" t="n">
+        <v>130</v>
+      </c>
+      <c r="F28" s="30" t="n">
         <v>45082</v>
       </c>
-      <c r="G28" s="36" t="s">
-        <v>130</v>
+      <c r="G28" s="30" t="s">
+        <v>131</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J28" s="32" t="s">
         <v>56</v>
@@ -5402,19 +5405,19 @@
         <v>56</v>
       </c>
       <c r="N28" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O28" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P28" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q28" s="32"/>
       <c r="R28" s="33"/>
       <c r="S28" s="34"/>
       <c r="T28" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5423,7 +5426,7 @@
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="36"/>
+      <c r="F29" s="30"/>
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
@@ -5445,7 +5448,7 @@
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="36"/>
+      <c r="F30" s="30"/>
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
@@ -5467,7 +5470,7 @@
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="29"/>
-      <c r="F31" s="36"/>
+      <c r="F31" s="30"/>
       <c r="G31" s="31"/>
       <c r="H31" s="31"/>
       <c r="I31" s="31"/>
@@ -5489,7 +5492,7 @@
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="29"/>
-      <c r="F32" s="36"/>
+      <c r="F32" s="30"/>
       <c r="G32" s="31"/>
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
@@ -5511,7 +5514,7 @@
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
       <c r="E33" s="29"/>
-      <c r="F33" s="36"/>
+      <c r="F33" s="30"/>
       <c r="G33" s="31"/>
       <c r="H33" s="31"/>
       <c r="I33" s="31"/>
@@ -5533,7 +5536,7 @@
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
-      <c r="F34" s="36"/>
+      <c r="F34" s="30"/>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
       <c r="I34" s="31"/>
@@ -5555,7 +5558,7 @@
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="36"/>
+      <c r="F35" s="30"/>
       <c r="G35" s="31"/>
       <c r="H35" s="31"/>
       <c r="I35" s="31"/>
@@ -5577,7 +5580,7 @@
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
       <c r="E36" s="29"/>
-      <c r="F36" s="36"/>
+      <c r="F36" s="30"/>
       <c r="G36" s="31"/>
       <c r="H36" s="31"/>
       <c r="I36" s="31"/>
@@ -5599,7 +5602,7 @@
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
       <c r="E37" s="29"/>
-      <c r="F37" s="36"/>
+      <c r="F37" s="30"/>
       <c r="G37" s="31"/>
       <c r="H37" s="31"/>
       <c r="I37" s="31"/>
@@ -5621,7 +5624,7 @@
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
       <c r="E38" s="29"/>
-      <c r="F38" s="36"/>
+      <c r="F38" s="30"/>
       <c r="G38" s="31"/>
       <c r="H38" s="31"/>
       <c r="I38" s="31"/>
@@ -5643,7 +5646,7 @@
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
-      <c r="F39" s="36"/>
+      <c r="F39" s="30"/>
       <c r="G39" s="31"/>
       <c r="H39" s="31"/>
       <c r="I39" s="31"/>
@@ -5665,7 +5668,7 @@
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
       <c r="E40" s="29"/>
-      <c r="F40" s="36"/>
+      <c r="F40" s="30"/>
       <c r="G40" s="31"/>
       <c r="H40" s="31"/>
       <c r="I40" s="31"/>
@@ -5687,7 +5690,7 @@
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
       <c r="E41" s="29"/>
-      <c r="F41" s="36"/>
+      <c r="F41" s="30"/>
       <c r="G41" s="31"/>
       <c r="H41" s="31"/>
       <c r="I41" s="31"/>
@@ -5709,7 +5712,7 @@
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
       <c r="E42" s="29"/>
-      <c r="F42" s="36"/>
+      <c r="F42" s="30"/>
       <c r="G42" s="31"/>
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
@@ -5731,7 +5734,7 @@
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
       <c r="E43" s="29"/>
-      <c r="F43" s="36"/>
+      <c r="F43" s="30"/>
       <c r="G43" s="31"/>
       <c r="H43" s="31"/>
       <c r="I43" s="31"/>
@@ -5753,7 +5756,7 @@
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="29"/>
-      <c r="F44" s="36"/>
+      <c r="F44" s="30"/>
       <c r="G44" s="31"/>
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
@@ -5775,7 +5778,7 @@
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="29"/>
-      <c r="F45" s="36"/>
+      <c r="F45" s="30"/>
       <c r="G45" s="31"/>
       <c r="H45" s="31"/>
       <c r="I45" s="31"/>
@@ -5797,7 +5800,7 @@
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
-      <c r="F46" s="36"/>
+      <c r="F46" s="30"/>
       <c r="G46" s="31"/>
       <c r="H46" s="31"/>
       <c r="I46" s="31"/>
@@ -5819,7 +5822,7 @@
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
       <c r="E47" s="29"/>
-      <c r="F47" s="36"/>
+      <c r="F47" s="30"/>
       <c r="G47" s="31"/>
       <c r="H47" s="31"/>
       <c r="I47" s="31"/>
@@ -5841,7 +5844,7 @@
       <c r="C48" s="28"/>
       <c r="D48" s="28"/>
       <c r="E48" s="29"/>
-      <c r="F48" s="36"/>
+      <c r="F48" s="30"/>
       <c r="G48" s="31"/>
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
@@ -5863,7 +5866,7 @@
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
       <c r="E49" s="29"/>
-      <c r="F49" s="36"/>
+      <c r="F49" s="30"/>
       <c r="G49" s="31"/>
       <c r="H49" s="31"/>
       <c r="I49" s="31"/>
@@ -5885,7 +5888,7 @@
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
       <c r="E50" s="29"/>
-      <c r="F50" s="36"/>
+      <c r="F50" s="30"/>
       <c r="G50" s="31"/>
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
@@ -5907,7 +5910,7 @@
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
-      <c r="F51" s="36"/>
+      <c r="F51" s="30"/>
       <c r="G51" s="31"/>
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
@@ -5929,7 +5932,7 @@
       <c r="C52" s="28"/>
       <c r="D52" s="28"/>
       <c r="E52" s="29"/>
-      <c r="F52" s="36"/>
+      <c r="F52" s="30"/>
       <c r="G52" s="31"/>
       <c r="H52" s="31"/>
       <c r="I52" s="31"/>
@@ -5951,7 +5954,7 @@
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
       <c r="E53" s="29"/>
-      <c r="F53" s="36"/>
+      <c r="F53" s="30"/>
       <c r="G53" s="31"/>
       <c r="H53" s="31"/>
       <c r="I53" s="31"/>
@@ -5973,7 +5976,7 @@
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
       <c r="E54" s="29"/>
-      <c r="F54" s="36"/>
+      <c r="F54" s="30"/>
       <c r="G54" s="31"/>
       <c r="H54" s="31"/>
       <c r="I54" s="31"/>
@@ -5995,7 +5998,7 @@
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
       <c r="E55" s="29"/>
-      <c r="F55" s="36"/>
+      <c r="F55" s="30"/>
       <c r="G55" s="31"/>
       <c r="H55" s="31"/>
       <c r="I55" s="31"/>
@@ -6017,7 +6020,7 @@
       <c r="C56" s="28"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
-      <c r="F56" s="36"/>
+      <c r="F56" s="30"/>
       <c r="G56" s="31"/>
       <c r="H56" s="31"/>
       <c r="I56" s="31"/>
@@ -6039,7 +6042,7 @@
       <c r="C57" s="28"/>
       <c r="D57" s="28"/>
       <c r="E57" s="29"/>
-      <c r="F57" s="36"/>
+      <c r="F57" s="30"/>
       <c r="G57" s="31"/>
       <c r="H57" s="31"/>
       <c r="I57" s="31"/>
@@ -6061,7 +6064,7 @@
       <c r="C58" s="28"/>
       <c r="D58" s="28"/>
       <c r="E58" s="29"/>
-      <c r="F58" s="36"/>
+      <c r="F58" s="30"/>
       <c r="G58" s="31"/>
       <c r="H58" s="31"/>
       <c r="I58" s="31"/>
@@ -6083,7 +6086,7 @@
       <c r="C59" s="28"/>
       <c r="D59" s="28"/>
       <c r="E59" s="29"/>
-      <c r="F59" s="36"/>
+      <c r="F59" s="30"/>
       <c r="G59" s="31"/>
       <c r="H59" s="31"/>
       <c r="I59" s="31"/>
@@ -6105,7 +6108,7 @@
       <c r="C60" s="28"/>
       <c r="D60" s="28"/>
       <c r="E60" s="29"/>
-      <c r="F60" s="36"/>
+      <c r="F60" s="30"/>
       <c r="G60" s="31"/>
       <c r="H60" s="31"/>
       <c r="I60" s="31"/>
@@ -6127,7 +6130,7 @@
       <c r="C61" s="28"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
-      <c r="F61" s="36"/>
+      <c r="F61" s="30"/>
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="31"/>
@@ -6149,7 +6152,7 @@
       <c r="C62" s="28"/>
       <c r="D62" s="28"/>
       <c r="E62" s="29"/>
-      <c r="F62" s="36"/>
+      <c r="F62" s="30"/>
       <c r="G62" s="31"/>
       <c r="H62" s="31"/>
       <c r="I62" s="31"/>
@@ -6171,7 +6174,7 @@
       <c r="C63" s="28"/>
       <c r="D63" s="28"/>
       <c r="E63" s="29"/>
-      <c r="F63" s="36"/>
+      <c r="F63" s="30"/>
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="31"/>
@@ -6193,7 +6196,7 @@
       <c r="C64" s="28"/>
       <c r="D64" s="28"/>
       <c r="E64" s="29"/>
-      <c r="F64" s="36"/>
+      <c r="F64" s="30"/>
       <c r="G64" s="31"/>
       <c r="H64" s="31"/>
       <c r="I64" s="31"/>
@@ -6215,7 +6218,7 @@
       <c r="C65" s="28"/>
       <c r="D65" s="28"/>
       <c r="E65" s="29"/>
-      <c r="F65" s="36"/>
+      <c r="F65" s="30"/>
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="31"/>
@@ -6237,7 +6240,7 @@
       <c r="C66" s="28"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
-      <c r="F66" s="36"/>
+      <c r="F66" s="30"/>
       <c r="G66" s="31"/>
       <c r="H66" s="31"/>
       <c r="I66" s="31"/>
@@ -6259,7 +6262,7 @@
       <c r="C67" s="28"/>
       <c r="D67" s="28"/>
       <c r="E67" s="29"/>
-      <c r="F67" s="36"/>
+      <c r="F67" s="30"/>
       <c r="G67" s="31"/>
       <c r="H67" s="31"/>
       <c r="I67" s="31"/>
@@ -6281,7 +6284,7 @@
       <c r="C68" s="28"/>
       <c r="D68" s="28"/>
       <c r="E68" s="29"/>
-      <c r="F68" s="36"/>
+      <c r="F68" s="30"/>
       <c r="G68" s="31"/>
       <c r="H68" s="31"/>
       <c r="I68" s="31"/>
@@ -6303,7 +6306,7 @@
       <c r="C69" s="28"/>
       <c r="D69" s="28"/>
       <c r="E69" s="29"/>
-      <c r="F69" s="36"/>
+      <c r="F69" s="30"/>
       <c r="G69" s="31"/>
       <c r="H69" s="31"/>
       <c r="I69" s="31"/>
@@ -6325,7 +6328,7 @@
       <c r="C70" s="28"/>
       <c r="D70" s="28"/>
       <c r="E70" s="29"/>
-      <c r="F70" s="36"/>
+      <c r="F70" s="30"/>
       <c r="G70" s="31"/>
       <c r="H70" s="31"/>
       <c r="I70" s="31"/>
@@ -6347,7 +6350,7 @@
       <c r="C71" s="28"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
-      <c r="F71" s="36"/>
+      <c r="F71" s="30"/>
       <c r="G71" s="31"/>
       <c r="H71" s="31"/>
       <c r="I71" s="31"/>
@@ -6369,7 +6372,7 @@
       <c r="C72" s="28"/>
       <c r="D72" s="28"/>
       <c r="E72" s="29"/>
-      <c r="F72" s="36"/>
+      <c r="F72" s="30"/>
       <c r="G72" s="31"/>
       <c r="H72" s="31"/>
       <c r="I72" s="31"/>
@@ -6391,7 +6394,7 @@
       <c r="C73" s="28"/>
       <c r="D73" s="28"/>
       <c r="E73" s="29"/>
-      <c r="F73" s="36"/>
+      <c r="F73" s="30"/>
       <c r="G73" s="31"/>
       <c r="H73" s="31"/>
       <c r="I73" s="31"/>
@@ -6413,7 +6416,7 @@
       <c r="C74" s="28"/>
       <c r="D74" s="28"/>
       <c r="E74" s="29"/>
-      <c r="F74" s="36"/>
+      <c r="F74" s="30"/>
       <c r="G74" s="31"/>
       <c r="H74" s="31"/>
       <c r="I74" s="31"/>
@@ -6435,7 +6438,7 @@
       <c r="C75" s="28"/>
       <c r="D75" s="28"/>
       <c r="E75" s="29"/>
-      <c r="F75" s="36"/>
+      <c r="F75" s="30"/>
       <c r="G75" s="31"/>
       <c r="H75" s="31"/>
       <c r="I75" s="31"/>
@@ -6457,7 +6460,7 @@
       <c r="C76" s="28"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
-      <c r="F76" s="36"/>
+      <c r="F76" s="30"/>
       <c r="G76" s="31"/>
       <c r="H76" s="31"/>
       <c r="I76" s="31"/>
@@ -6479,7 +6482,7 @@
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
       <c r="E77" s="29"/>
-      <c r="F77" s="36"/>
+      <c r="F77" s="30"/>
       <c r="G77" s="31"/>
       <c r="H77" s="31"/>
       <c r="I77" s="31"/>
@@ -6501,7 +6504,7 @@
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
       <c r="E78" s="29"/>
-      <c r="F78" s="36"/>
+      <c r="F78" s="30"/>
       <c r="G78" s="31"/>
       <c r="H78" s="31"/>
       <c r="I78" s="31"/>
@@ -6523,7 +6526,7 @@
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
       <c r="E79" s="29"/>
-      <c r="F79" s="36"/>
+      <c r="F79" s="30"/>
       <c r="G79" s="31"/>
       <c r="H79" s="31"/>
       <c r="I79" s="31"/>
@@ -6545,7 +6548,7 @@
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
       <c r="E80" s="29"/>
-      <c r="F80" s="36"/>
+      <c r="F80" s="30"/>
       <c r="G80" s="31"/>
       <c r="H80" s="31"/>
       <c r="I80" s="31"/>
@@ -6567,7 +6570,7 @@
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
       <c r="E81" s="29"/>
-      <c r="F81" s="36"/>
+      <c r="F81" s="30"/>
       <c r="G81" s="31"/>
       <c r="H81" s="31"/>
       <c r="I81" s="31"/>
@@ -6589,7 +6592,7 @@
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
       <c r="E82" s="29"/>
-      <c r="F82" s="36"/>
+      <c r="F82" s="30"/>
       <c r="G82" s="31"/>
       <c r="H82" s="31"/>
       <c r="I82" s="31"/>
@@ -6611,7 +6614,7 @@
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
       <c r="E83" s="29"/>
-      <c r="F83" s="36"/>
+      <c r="F83" s="30"/>
       <c r="G83" s="31"/>
       <c r="H83" s="31"/>
       <c r="I83" s="31"/>
@@ -6633,7 +6636,7 @@
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
       <c r="E84" s="29"/>
-      <c r="F84" s="36"/>
+      <c r="F84" s="30"/>
       <c r="G84" s="31"/>
       <c r="H84" s="31"/>
       <c r="I84" s="31"/>
@@ -6655,7 +6658,7 @@
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
       <c r="E85" s="29"/>
-      <c r="F85" s="36"/>
+      <c r="F85" s="30"/>
       <c r="G85" s="31"/>
       <c r="H85" s="31"/>
       <c r="I85" s="31"/>
@@ -6677,7 +6680,7 @@
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
       <c r="E86" s="29"/>
-      <c r="F86" s="36"/>
+      <c r="F86" s="30"/>
       <c r="G86" s="31"/>
       <c r="H86" s="31"/>
       <c r="I86" s="31"/>
@@ -6699,7 +6702,7 @@
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
       <c r="E87" s="29"/>
-      <c r="F87" s="36"/>
+      <c r="F87" s="30"/>
       <c r="G87" s="31"/>
       <c r="H87" s="31"/>
       <c r="I87" s="31"/>
@@ -6721,7 +6724,7 @@
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
       <c r="E88" s="29"/>
-      <c r="F88" s="36"/>
+      <c r="F88" s="30"/>
       <c r="G88" s="31"/>
       <c r="H88" s="31"/>
       <c r="I88" s="31"/>
@@ -6743,7 +6746,7 @@
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
       <c r="E89" s="29"/>
-      <c r="F89" s="36"/>
+      <c r="F89" s="30"/>
       <c r="G89" s="31"/>
       <c r="H89" s="31"/>
       <c r="I89" s="31"/>
@@ -6765,7 +6768,7 @@
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
       <c r="E90" s="29"/>
-      <c r="F90" s="36"/>
+      <c r="F90" s="30"/>
       <c r="G90" s="31"/>
       <c r="H90" s="31"/>
       <c r="I90" s="31"/>
@@ -6787,7 +6790,7 @@
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
       <c r="E91" s="29"/>
-      <c r="F91" s="36"/>
+      <c r="F91" s="30"/>
       <c r="G91" s="31"/>
       <c r="H91" s="31"/>
       <c r="I91" s="31"/>
@@ -6809,7 +6812,7 @@
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
       <c r="E92" s="29"/>
-      <c r="F92" s="36"/>
+      <c r="F92" s="30"/>
       <c r="G92" s="31"/>
       <c r="H92" s="31"/>
       <c r="I92" s="31"/>
@@ -6831,7 +6834,7 @@
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
       <c r="E93" s="29"/>
-      <c r="F93" s="36"/>
+      <c r="F93" s="30"/>
       <c r="G93" s="31"/>
       <c r="H93" s="31"/>
       <c r="I93" s="31"/>
@@ -6853,7 +6856,7 @@
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
       <c r="E94" s="29"/>
-      <c r="F94" s="36"/>
+      <c r="F94" s="30"/>
       <c r="G94" s="31"/>
       <c r="H94" s="31"/>
       <c r="I94" s="31"/>
@@ -6875,7 +6878,7 @@
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
       <c r="E95" s="29"/>
-      <c r="F95" s="36"/>
+      <c r="F95" s="30"/>
       <c r="G95" s="31"/>
       <c r="H95" s="31"/>
       <c r="I95" s="31"/>
@@ -6897,7 +6900,7 @@
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
       <c r="E96" s="29"/>
-      <c r="F96" s="36"/>
+      <c r="F96" s="30"/>
       <c r="G96" s="31"/>
       <c r="H96" s="31"/>
       <c r="I96" s="31"/>
@@ -6919,7 +6922,7 @@
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
       <c r="E97" s="29"/>
-      <c r="F97" s="36"/>
+      <c r="F97" s="30"/>
       <c r="G97" s="31"/>
       <c r="H97" s="31"/>
       <c r="I97" s="31"/>
@@ -6941,7 +6944,7 @@
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
       <c r="E98" s="29"/>
-      <c r="F98" s="36"/>
+      <c r="F98" s="30"/>
       <c r="G98" s="31"/>
       <c r="H98" s="31"/>
       <c r="I98" s="31"/>
@@ -6963,7 +6966,7 @@
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
       <c r="E99" s="29"/>
-      <c r="F99" s="36"/>
+      <c r="F99" s="30"/>
       <c r="G99" s="31"/>
       <c r="H99" s="31"/>
       <c r="I99" s="31"/>
@@ -6985,7 +6988,7 @@
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
       <c r="E100" s="29"/>
-      <c r="F100" s="36"/>
+      <c r="F100" s="30"/>
       <c r="G100" s="31"/>
       <c r="H100" s="31"/>
       <c r="I100" s="31"/>
@@ -7007,7 +7010,7 @@
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
       <c r="E101" s="29"/>
-      <c r="F101" s="36"/>
+      <c r="F101" s="30"/>
       <c r="G101" s="31"/>
       <c r="H101" s="31"/>
       <c r="I101" s="31"/>
@@ -7029,7 +7032,7 @@
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
       <c r="E102" s="29"/>
-      <c r="F102" s="36"/>
+      <c r="F102" s="30"/>
       <c r="G102" s="31"/>
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
@@ -7051,7 +7054,7 @@
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
       <c r="E103" s="29"/>
-      <c r="F103" s="36"/>
+      <c r="F103" s="30"/>
       <c r="G103" s="31"/>
       <c r="H103" s="31"/>
       <c r="I103" s="31"/>
@@ -7073,7 +7076,7 @@
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
       <c r="E104" s="29"/>
-      <c r="F104" s="36"/>
+      <c r="F104" s="30"/>
       <c r="G104" s="31"/>
       <c r="H104" s="31"/>
       <c r="I104" s="31"/>
@@ -7095,7 +7098,7 @@
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
       <c r="E105" s="29"/>
-      <c r="F105" s="36"/>
+      <c r="F105" s="30"/>
       <c r="G105" s="31"/>
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
@@ -7117,7 +7120,7 @@
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
       <c r="E106" s="29"/>
-      <c r="F106" s="36"/>
+      <c r="F106" s="30"/>
       <c r="G106" s="31"/>
       <c r="H106" s="31"/>
       <c r="I106" s="31"/>
@@ -7139,7 +7142,7 @@
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
       <c r="E107" s="29"/>
-      <c r="F107" s="36"/>
+      <c r="F107" s="30"/>
       <c r="G107" s="31"/>
       <c r="H107" s="31"/>
       <c r="I107" s="31"/>
@@ -7161,7 +7164,7 @@
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
       <c r="E108" s="29"/>
-      <c r="F108" s="36"/>
+      <c r="F108" s="30"/>
       <c r="G108" s="31"/>
       <c r="H108" s="31"/>
       <c r="I108" s="31"/>
@@ -7183,7 +7186,7 @@
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
       <c r="E109" s="29"/>
-      <c r="F109" s="36"/>
+      <c r="F109" s="30"/>
       <c r="G109" s="31"/>
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
@@ -7205,7 +7208,7 @@
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
       <c r="E110" s="29"/>
-      <c r="F110" s="36"/>
+      <c r="F110" s="30"/>
       <c r="G110" s="31"/>
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
@@ -7227,7 +7230,7 @@
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
       <c r="E111" s="29"/>
-      <c r="F111" s="36"/>
+      <c r="F111" s="30"/>
       <c r="G111" s="31"/>
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
@@ -7249,7 +7252,7 @@
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
       <c r="E112" s="29"/>
-      <c r="F112" s="36"/>
+      <c r="F112" s="30"/>
       <c r="G112" s="31"/>
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
@@ -7271,7 +7274,7 @@
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
       <c r="E113" s="29"/>
-      <c r="F113" s="36"/>
+      <c r="F113" s="30"/>
       <c r="G113" s="31"/>
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
@@ -7293,7 +7296,7 @@
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
       <c r="E114" s="29"/>
-      <c r="F114" s="36"/>
+      <c r="F114" s="30"/>
       <c r="G114" s="31"/>
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
@@ -7315,7 +7318,7 @@
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
       <c r="E115" s="29"/>
-      <c r="F115" s="36"/>
+      <c r="F115" s="30"/>
       <c r="G115" s="31"/>
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
@@ -7337,7 +7340,7 @@
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
       <c r="E116" s="29"/>
-      <c r="F116" s="36"/>
+      <c r="F116" s="30"/>
       <c r="G116" s="31"/>
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
@@ -7359,7 +7362,7 @@
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
       <c r="E117" s="29"/>
-      <c r="F117" s="36"/>
+      <c r="F117" s="30"/>
       <c r="G117" s="31"/>
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
@@ -7381,7 +7384,7 @@
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
       <c r="E118" s="29"/>
-      <c r="F118" s="36"/>
+      <c r="F118" s="30"/>
       <c r="G118" s="31"/>
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
@@ -7403,7 +7406,7 @@
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
       <c r="E119" s="29"/>
-      <c r="F119" s="36"/>
+      <c r="F119" s="30"/>
       <c r="G119" s="31"/>
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
@@ -7425,7 +7428,7 @@
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
       <c r="E120" s="29"/>
-      <c r="F120" s="36"/>
+      <c r="F120" s="30"/>
       <c r="G120" s="31"/>
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
@@ -7447,7 +7450,7 @@
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
       <c r="E121" s="29"/>
-      <c r="F121" s="36"/>
+      <c r="F121" s="30"/>
       <c r="G121" s="31"/>
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
@@ -7469,7 +7472,7 @@
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
       <c r="E122" s="29"/>
-      <c r="F122" s="36"/>
+      <c r="F122" s="30"/>
       <c r="G122" s="31"/>
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
@@ -7491,7 +7494,7 @@
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
       <c r="E123" s="29"/>
-      <c r="F123" s="36"/>
+      <c r="F123" s="30"/>
       <c r="G123" s="31"/>
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
@@ -7513,7 +7516,7 @@
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
       <c r="E124" s="29"/>
-      <c r="F124" s="36"/>
+      <c r="F124" s="30"/>
       <c r="G124" s="31"/>
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
@@ -7535,7 +7538,7 @@
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
       <c r="E125" s="29"/>
-      <c r="F125" s="36"/>
+      <c r="F125" s="30"/>
       <c r="G125" s="31"/>
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
@@ -7557,7 +7560,7 @@
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
       <c r="E126" s="29"/>
-      <c r="F126" s="36"/>
+      <c r="F126" s="30"/>
       <c r="G126" s="31"/>
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
@@ -7579,7 +7582,7 @@
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
       <c r="E127" s="29"/>
-      <c r="F127" s="36"/>
+      <c r="F127" s="30"/>
       <c r="G127" s="31"/>
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
@@ -7601,7 +7604,7 @@
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
       <c r="E128" s="29"/>
-      <c r="F128" s="36"/>
+      <c r="F128" s="30"/>
       <c r="G128" s="31"/>
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
@@ -7623,7 +7626,7 @@
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
       <c r="E129" s="29"/>
-      <c r="F129" s="36"/>
+      <c r="F129" s="30"/>
       <c r="G129" s="31"/>
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
@@ -7645,7 +7648,7 @@
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
       <c r="E130" s="29"/>
-      <c r="F130" s="36"/>
+      <c r="F130" s="30"/>
       <c r="G130" s="31"/>
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
@@ -7667,7 +7670,7 @@
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
       <c r="E131" s="29"/>
-      <c r="F131" s="36"/>
+      <c r="F131" s="30"/>
       <c r="G131" s="31"/>
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
@@ -7689,7 +7692,7 @@
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
       <c r="E132" s="29"/>
-      <c r="F132" s="36"/>
+      <c r="F132" s="30"/>
       <c r="G132" s="31"/>
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
@@ -7711,7 +7714,7 @@
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
       <c r="E133" s="29"/>
-      <c r="F133" s="36"/>
+      <c r="F133" s="30"/>
       <c r="G133" s="31"/>
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
@@ -7733,7 +7736,7 @@
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
       <c r="E134" s="29"/>
-      <c r="F134" s="36"/>
+      <c r="F134" s="30"/>
       <c r="G134" s="31"/>
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
@@ -7755,7 +7758,7 @@
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
       <c r="E135" s="29"/>
-      <c r="F135" s="36"/>
+      <c r="F135" s="30"/>
       <c r="G135" s="31"/>
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
@@ -7777,7 +7780,7 @@
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
       <c r="E136" s="29"/>
-      <c r="F136" s="36"/>
+      <c r="F136" s="30"/>
       <c r="G136" s="31"/>
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
@@ -7799,7 +7802,7 @@
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
       <c r="E137" s="29"/>
-      <c r="F137" s="36"/>
+      <c r="F137" s="30"/>
       <c r="G137" s="31"/>
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
@@ -7821,7 +7824,7 @@
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
       <c r="E138" s="29"/>
-      <c r="F138" s="36"/>
+      <c r="F138" s="30"/>
       <c r="G138" s="31"/>
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
@@ -7843,7 +7846,7 @@
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
       <c r="E139" s="29"/>
-      <c r="F139" s="36"/>
+      <c r="F139" s="30"/>
       <c r="G139" s="31"/>
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
@@ -7865,7 +7868,7 @@
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
       <c r="E140" s="29"/>
-      <c r="F140" s="36"/>
+      <c r="F140" s="30"/>
       <c r="G140" s="31"/>
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
@@ -7887,7 +7890,7 @@
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
       <c r="E141" s="29"/>
-      <c r="F141" s="36"/>
+      <c r="F141" s="30"/>
       <c r="G141" s="31"/>
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
@@ -7909,7 +7912,7 @@
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
       <c r="E142" s="29"/>
-      <c r="F142" s="36"/>
+      <c r="F142" s="30"/>
       <c r="G142" s="31"/>
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
@@ -7931,7 +7934,7 @@
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
       <c r="E143" s="29"/>
-      <c r="F143" s="36"/>
+      <c r="F143" s="30"/>
       <c r="G143" s="31"/>
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
@@ -7953,7 +7956,7 @@
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
       <c r="E144" s="29"/>
-      <c r="F144" s="36"/>
+      <c r="F144" s="30"/>
       <c r="G144" s="31"/>
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
@@ -7975,7 +7978,7 @@
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
       <c r="E145" s="29"/>
-      <c r="F145" s="36"/>
+      <c r="F145" s="30"/>
       <c r="G145" s="31"/>
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
@@ -7997,7 +8000,7 @@
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
       <c r="E146" s="29"/>
-      <c r="F146" s="36"/>
+      <c r="F146" s="30"/>
       <c r="G146" s="31"/>
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
@@ -8019,7 +8022,7 @@
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
       <c r="E147" s="29"/>
-      <c r="F147" s="36"/>
+      <c r="F147" s="30"/>
       <c r="G147" s="31"/>
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
@@ -8041,7 +8044,7 @@
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
       <c r="E148" s="29"/>
-      <c r="F148" s="36"/>
+      <c r="F148" s="30"/>
       <c r="G148" s="31"/>
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
@@ -8063,7 +8066,7 @@
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
       <c r="E149" s="29"/>
-      <c r="F149" s="36"/>
+      <c r="F149" s="30"/>
       <c r="G149" s="31"/>
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
@@ -8085,7 +8088,7 @@
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
       <c r="E150" s="29"/>
-      <c r="F150" s="36"/>
+      <c r="F150" s="30"/>
       <c r="G150" s="31"/>
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
@@ -8107,7 +8110,7 @@
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
       <c r="E151" s="29"/>
-      <c r="F151" s="36"/>
+      <c r="F151" s="30"/>
       <c r="G151" s="31"/>
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
@@ -8129,7 +8132,7 @@
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
       <c r="E152" s="29"/>
-      <c r="F152" s="36"/>
+      <c r="F152" s="30"/>
       <c r="G152" s="31"/>
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
@@ -8151,7 +8154,7 @@
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
       <c r="E153" s="29"/>
-      <c r="F153" s="36"/>
+      <c r="F153" s="30"/>
       <c r="G153" s="31"/>
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
@@ -8173,7 +8176,7 @@
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
       <c r="E154" s="29"/>
-      <c r="F154" s="36"/>
+      <c r="F154" s="30"/>
       <c r="G154" s="31"/>
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
@@ -8195,7 +8198,7 @@
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
       <c r="E155" s="29"/>
-      <c r="F155" s="36"/>
+      <c r="F155" s="30"/>
       <c r="G155" s="31"/>
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
@@ -8217,7 +8220,7 @@
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
       <c r="E156" s="29"/>
-      <c r="F156" s="36"/>
+      <c r="F156" s="30"/>
       <c r="G156" s="31"/>
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
@@ -8239,7 +8242,7 @@
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
       <c r="E157" s="29"/>
-      <c r="F157" s="36"/>
+      <c r="F157" s="30"/>
       <c r="G157" s="31"/>
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
@@ -8261,7 +8264,7 @@
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
       <c r="E158" s="29"/>
-      <c r="F158" s="36"/>
+      <c r="F158" s="30"/>
       <c r="G158" s="31"/>
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
@@ -8283,7 +8286,7 @@
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
       <c r="E159" s="29"/>
-      <c r="F159" s="36"/>
+      <c r="F159" s="30"/>
       <c r="G159" s="31"/>
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
@@ -8305,7 +8308,7 @@
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
       <c r="E160" s="29"/>
-      <c r="F160" s="36"/>
+      <c r="F160" s="30"/>
       <c r="G160" s="31"/>
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
@@ -8327,7 +8330,7 @@
       <c r="C161" s="28"/>
       <c r="D161" s="28"/>
       <c r="E161" s="29"/>
-      <c r="F161" s="36"/>
+      <c r="F161" s="30"/>
       <c r="G161" s="31"/>
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
@@ -8349,7 +8352,7 @@
       <c r="C162" s="28"/>
       <c r="D162" s="28"/>
       <c r="E162" s="29"/>
-      <c r="F162" s="36"/>
+      <c r="F162" s="30"/>
       <c r="G162" s="31"/>
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
@@ -8371,7 +8374,7 @@
       <c r="C163" s="28"/>
       <c r="D163" s="28"/>
       <c r="E163" s="29"/>
-      <c r="F163" s="36"/>
+      <c r="F163" s="30"/>
       <c r="G163" s="31"/>
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
@@ -8393,7 +8396,7 @@
       <c r="C164" s="28"/>
       <c r="D164" s="28"/>
       <c r="E164" s="29"/>
-      <c r="F164" s="36"/>
+      <c r="F164" s="30"/>
       <c r="G164" s="31"/>
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
@@ -8415,7 +8418,7 @@
       <c r="C165" s="28"/>
       <c r="D165" s="28"/>
       <c r="E165" s="29"/>
-      <c r="F165" s="36"/>
+      <c r="F165" s="30"/>
       <c r="G165" s="31"/>
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
@@ -8437,7 +8440,7 @@
       <c r="C166" s="28"/>
       <c r="D166" s="28"/>
       <c r="E166" s="29"/>
-      <c r="F166" s="36"/>
+      <c r="F166" s="30"/>
       <c r="G166" s="31"/>
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
@@ -8459,7 +8462,7 @@
       <c r="C167" s="28"/>
       <c r="D167" s="28"/>
       <c r="E167" s="29"/>
-      <c r="F167" s="36"/>
+      <c r="F167" s="30"/>
       <c r="G167" s="31"/>
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
@@ -8481,7 +8484,7 @@
       <c r="C168" s="28"/>
       <c r="D168" s="28"/>
       <c r="E168" s="29"/>
-      <c r="F168" s="36"/>
+      <c r="F168" s="30"/>
       <c r="G168" s="31"/>
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
@@ -8503,7 +8506,7 @@
       <c r="C169" s="28"/>
       <c r="D169" s="28"/>
       <c r="E169" s="29"/>
-      <c r="F169" s="36"/>
+      <c r="F169" s="30"/>
       <c r="G169" s="31"/>
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
@@ -8525,7 +8528,7 @@
       <c r="C170" s="28"/>
       <c r="D170" s="28"/>
       <c r="E170" s="29"/>
-      <c r="F170" s="36"/>
+      <c r="F170" s="30"/>
       <c r="G170" s="31"/>
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
@@ -8547,7 +8550,7 @@
       <c r="C171" s="28"/>
       <c r="D171" s="28"/>
       <c r="E171" s="29"/>
-      <c r="F171" s="36"/>
+      <c r="F171" s="30"/>
       <c r="G171" s="31"/>
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
@@ -8569,7 +8572,7 @@
       <c r="C172" s="28"/>
       <c r="D172" s="28"/>
       <c r="E172" s="29"/>
-      <c r="F172" s="36"/>
+      <c r="F172" s="30"/>
       <c r="G172" s="31"/>
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
@@ -8591,7 +8594,7 @@
       <c r="C173" s="28"/>
       <c r="D173" s="28"/>
       <c r="E173" s="29"/>
-      <c r="F173" s="36"/>
+      <c r="F173" s="30"/>
       <c r="G173" s="31"/>
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
@@ -8613,7 +8616,7 @@
       <c r="C174" s="28"/>
       <c r="D174" s="28"/>
       <c r="E174" s="29"/>
-      <c r="F174" s="36"/>
+      <c r="F174" s="30"/>
       <c r="G174" s="31"/>
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
@@ -8635,7 +8638,7 @@
       <c r="C175" s="28"/>
       <c r="D175" s="28"/>
       <c r="E175" s="29"/>
-      <c r="F175" s="36"/>
+      <c r="F175" s="30"/>
       <c r="G175" s="31"/>
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
@@ -8657,7 +8660,7 @@
       <c r="C176" s="28"/>
       <c r="D176" s="28"/>
       <c r="E176" s="29"/>
-      <c r="F176" s="36"/>
+      <c r="F176" s="30"/>
       <c r="G176" s="31"/>
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
@@ -8679,7 +8682,7 @@
       <c r="C177" s="28"/>
       <c r="D177" s="28"/>
       <c r="E177" s="29"/>
-      <c r="F177" s="36"/>
+      <c r="F177" s="30"/>
       <c r="G177" s="31"/>
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
@@ -8701,7 +8704,7 @@
       <c r="C178" s="28"/>
       <c r="D178" s="28"/>
       <c r="E178" s="29"/>
-      <c r="F178" s="36"/>
+      <c r="F178" s="30"/>
       <c r="G178" s="31"/>
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
@@ -8723,7 +8726,7 @@
       <c r="C179" s="28"/>
       <c r="D179" s="28"/>
       <c r="E179" s="29"/>
-      <c r="F179" s="36"/>
+      <c r="F179" s="30"/>
       <c r="G179" s="31"/>
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
@@ -8745,7 +8748,7 @@
       <c r="C180" s="28"/>
       <c r="D180" s="28"/>
       <c r="E180" s="29"/>
-      <c r="F180" s="36"/>
+      <c r="F180" s="30"/>
       <c r="G180" s="31"/>
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
@@ -8767,7 +8770,7 @@
       <c r="C181" s="28"/>
       <c r="D181" s="28"/>
       <c r="E181" s="29"/>
-      <c r="F181" s="36"/>
+      <c r="F181" s="30"/>
       <c r="G181" s="31"/>
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
@@ -8789,7 +8792,7 @@
       <c r="C182" s="28"/>
       <c r="D182" s="28"/>
       <c r="E182" s="29"/>
-      <c r="F182" s="36"/>
+      <c r="F182" s="30"/>
       <c r="G182" s="31"/>
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
@@ -8811,7 +8814,7 @@
       <c r="C183" s="28"/>
       <c r="D183" s="28"/>
       <c r="E183" s="29"/>
-      <c r="F183" s="36"/>
+      <c r="F183" s="30"/>
       <c r="G183" s="31"/>
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
@@ -8833,7 +8836,7 @@
       <c r="C184" s="28"/>
       <c r="D184" s="28"/>
       <c r="E184" s="29"/>
-      <c r="F184" s="36"/>
+      <c r="F184" s="30"/>
       <c r="G184" s="31"/>
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
@@ -8855,7 +8858,7 @@
       <c r="C185" s="28"/>
       <c r="D185" s="28"/>
       <c r="E185" s="29"/>
-      <c r="F185" s="36"/>
+      <c r="F185" s="30"/>
       <c r="G185" s="31"/>
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
@@ -8877,7 +8880,7 @@
       <c r="C186" s="28"/>
       <c r="D186" s="28"/>
       <c r="E186" s="29"/>
-      <c r="F186" s="36"/>
+      <c r="F186" s="30"/>
       <c r="G186" s="31"/>
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
@@ -8899,7 +8902,7 @@
       <c r="C187" s="28"/>
       <c r="D187" s="28"/>
       <c r="E187" s="29"/>
-      <c r="F187" s="36"/>
+      <c r="F187" s="30"/>
       <c r="G187" s="31"/>
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
@@ -8921,7 +8924,7 @@
       <c r="C188" s="28"/>
       <c r="D188" s="28"/>
       <c r="E188" s="29"/>
-      <c r="F188" s="36"/>
+      <c r="F188" s="30"/>
       <c r="G188" s="31"/>
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
@@ -8943,7 +8946,7 @@
       <c r="C189" s="28"/>
       <c r="D189" s="28"/>
       <c r="E189" s="29"/>
-      <c r="F189" s="36"/>
+      <c r="F189" s="30"/>
       <c r="G189" s="31"/>
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
@@ -8965,7 +8968,7 @@
       <c r="C190" s="28"/>
       <c r="D190" s="28"/>
       <c r="E190" s="29"/>
-      <c r="F190" s="36"/>
+      <c r="F190" s="30"/>
       <c r="G190" s="31"/>
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
@@ -8987,7 +8990,7 @@
       <c r="C191" s="28"/>
       <c r="D191" s="28"/>
       <c r="E191" s="29"/>
-      <c r="F191" s="36"/>
+      <c r="F191" s="30"/>
       <c r="G191" s="31"/>
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
@@ -9009,7 +9012,7 @@
       <c r="C192" s="28"/>
       <c r="D192" s="28"/>
       <c r="E192" s="29"/>
-      <c r="F192" s="36"/>
+      <c r="F192" s="30"/>
       <c r="G192" s="31"/>
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
@@ -9031,7 +9034,7 @@
       <c r="C193" s="28"/>
       <c r="D193" s="28"/>
       <c r="E193" s="29"/>
-      <c r="F193" s="36"/>
+      <c r="F193" s="30"/>
       <c r="G193" s="31"/>
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
@@ -9053,7 +9056,7 @@
       <c r="C194" s="28"/>
       <c r="D194" s="28"/>
       <c r="E194" s="29"/>
-      <c r="F194" s="36"/>
+      <c r="F194" s="30"/>
       <c r="G194" s="31"/>
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
@@ -9075,7 +9078,7 @@
       <c r="C195" s="28"/>
       <c r="D195" s="28"/>
       <c r="E195" s="29"/>
-      <c r="F195" s="36"/>
+      <c r="F195" s="30"/>
       <c r="G195" s="31"/>
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
@@ -9097,7 +9100,7 @@
       <c r="C196" s="28"/>
       <c r="D196" s="28"/>
       <c r="E196" s="29"/>
-      <c r="F196" s="36"/>
+      <c r="F196" s="30"/>
       <c r="G196" s="31"/>
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
@@ -9119,7 +9122,7 @@
       <c r="C197" s="28"/>
       <c r="D197" s="28"/>
       <c r="E197" s="29"/>
-      <c r="F197" s="36"/>
+      <c r="F197" s="30"/>
       <c r="G197" s="31"/>
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
@@ -9141,7 +9144,7 @@
       <c r="C198" s="28"/>
       <c r="D198" s="28"/>
       <c r="E198" s="29"/>
-      <c r="F198" s="36"/>
+      <c r="F198" s="30"/>
       <c r="G198" s="31"/>
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
@@ -9163,7 +9166,7 @@
       <c r="C199" s="28"/>
       <c r="D199" s="28"/>
       <c r="E199" s="29"/>
-      <c r="F199" s="36"/>
+      <c r="F199" s="30"/>
       <c r="G199" s="31"/>
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
@@ -9185,7 +9188,7 @@
       <c r="C200" s="28"/>
       <c r="D200" s="28"/>
       <c r="E200" s="29"/>
-      <c r="F200" s="36"/>
+      <c r="F200" s="30"/>
       <c r="G200" s="31"/>
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
@@ -9207,7 +9210,7 @@
       <c r="C201" s="28"/>
       <c r="D201" s="28"/>
       <c r="E201" s="29"/>
-      <c r="F201" s="36"/>
+      <c r="F201" s="30"/>
       <c r="G201" s="31"/>
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
@@ -9229,7 +9232,7 @@
       <c r="C202" s="28"/>
       <c r="D202" s="28"/>
       <c r="E202" s="29"/>
-      <c r="F202" s="36"/>
+      <c r="F202" s="30"/>
       <c r="G202" s="31"/>
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
@@ -9251,7 +9254,7 @@
       <c r="C203" s="28"/>
       <c r="D203" s="28"/>
       <c r="E203" s="29"/>
-      <c r="F203" s="36"/>
+      <c r="F203" s="30"/>
       <c r="G203" s="31"/>
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
@@ -9273,7 +9276,7 @@
       <c r="C204" s="28"/>
       <c r="D204" s="28"/>
       <c r="E204" s="29"/>
-      <c r="F204" s="36"/>
+      <c r="F204" s="30"/>
       <c r="G204" s="31"/>
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
@@ -9295,7 +9298,7 @@
       <c r="C205" s="28"/>
       <c r="D205" s="28"/>
       <c r="E205" s="29"/>
-      <c r="F205" s="36"/>
+      <c r="F205" s="30"/>
       <c r="G205" s="31"/>
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
@@ -9317,7 +9320,7 @@
       <c r="C206" s="28"/>
       <c r="D206" s="28"/>
       <c r="E206" s="29"/>
-      <c r="F206" s="36"/>
+      <c r="F206" s="30"/>
       <c r="G206" s="31"/>
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
@@ -9339,7 +9342,7 @@
       <c r="C207" s="28"/>
       <c r="D207" s="28"/>
       <c r="E207" s="29"/>
-      <c r="F207" s="36"/>
+      <c r="F207" s="30"/>
       <c r="G207" s="31"/>
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
@@ -9361,7 +9364,7 @@
       <c r="C208" s="28"/>
       <c r="D208" s="28"/>
       <c r="E208" s="29"/>
-      <c r="F208" s="36"/>
+      <c r="F208" s="30"/>
       <c r="G208" s="31"/>
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
@@ -9383,7 +9386,7 @@
       <c r="C209" s="28"/>
       <c r="D209" s="28"/>
       <c r="E209" s="29"/>
-      <c r="F209" s="36"/>
+      <c r="F209" s="30"/>
       <c r="G209" s="31"/>
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
@@ -9405,7 +9408,7 @@
       <c r="C210" s="28"/>
       <c r="D210" s="28"/>
       <c r="E210" s="29"/>
-      <c r="F210" s="36"/>
+      <c r="F210" s="30"/>
       <c r="G210" s="31"/>
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
@@ -9427,7 +9430,7 @@
       <c r="C211" s="28"/>
       <c r="D211" s="28"/>
       <c r="E211" s="29"/>
-      <c r="F211" s="36"/>
+      <c r="F211" s="30"/>
       <c r="G211" s="31"/>
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
@@ -9449,7 +9452,7 @@
       <c r="C212" s="28"/>
       <c r="D212" s="28"/>
       <c r="E212" s="29"/>
-      <c r="F212" s="36"/>
+      <c r="F212" s="30"/>
       <c r="G212" s="31"/>
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
@@ -9471,7 +9474,7 @@
       <c r="C213" s="28"/>
       <c r="D213" s="28"/>
       <c r="E213" s="29"/>
-      <c r="F213" s="36"/>
+      <c r="F213" s="30"/>
       <c r="G213" s="31"/>
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
@@ -9493,7 +9496,7 @@
       <c r="C214" s="28"/>
       <c r="D214" s="28"/>
       <c r="E214" s="29"/>
-      <c r="F214" s="36"/>
+      <c r="F214" s="30"/>
       <c r="G214" s="31"/>
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
@@ -9515,7 +9518,7 @@
       <c r="C215" s="28"/>
       <c r="D215" s="28"/>
       <c r="E215" s="29"/>
-      <c r="F215" s="36"/>
+      <c r="F215" s="30"/>
       <c r="G215" s="31"/>
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
@@ -9537,7 +9540,7 @@
       <c r="C216" s="28"/>
       <c r="D216" s="28"/>
       <c r="E216" s="29"/>
-      <c r="F216" s="36"/>
+      <c r="F216" s="30"/>
       <c r="G216" s="31"/>
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
@@ -9559,7 +9562,7 @@
       <c r="C217" s="28"/>
       <c r="D217" s="28"/>
       <c r="E217" s="29"/>
-      <c r="F217" s="36"/>
+      <c r="F217" s="30"/>
       <c r="G217" s="31"/>
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
@@ -9581,7 +9584,7 @@
       <c r="C218" s="28"/>
       <c r="D218" s="28"/>
       <c r="E218" s="29"/>
-      <c r="F218" s="36"/>
+      <c r="F218" s="30"/>
       <c r="G218" s="31"/>
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
@@ -9603,7 +9606,7 @@
       <c r="C219" s="28"/>
       <c r="D219" s="28"/>
       <c r="E219" s="29"/>
-      <c r="F219" s="36"/>
+      <c r="F219" s="30"/>
       <c r="G219" s="31"/>
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
@@ -9625,7 +9628,7 @@
       <c r="C220" s="28"/>
       <c r="D220" s="28"/>
       <c r="E220" s="29"/>
-      <c r="F220" s="36"/>
+      <c r="F220" s="30"/>
       <c r="G220" s="31"/>
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
@@ -9647,7 +9650,7 @@
       <c r="C221" s="28"/>
       <c r="D221" s="28"/>
       <c r="E221" s="29"/>
-      <c r="F221" s="36"/>
+      <c r="F221" s="30"/>
       <c r="G221" s="31"/>
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
@@ -9669,7 +9672,7 @@
       <c r="C222" s="28"/>
       <c r="D222" s="28"/>
       <c r="E222" s="29"/>
-      <c r="F222" s="36"/>
+      <c r="F222" s="30"/>
       <c r="G222" s="31"/>
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
@@ -9691,7 +9694,7 @@
       <c r="C223" s="28"/>
       <c r="D223" s="28"/>
       <c r="E223" s="29"/>
-      <c r="F223" s="36"/>
+      <c r="F223" s="30"/>
       <c r="G223" s="31"/>
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
@@ -9713,7 +9716,7 @@
       <c r="C224" s="28"/>
       <c r="D224" s="28"/>
       <c r="E224" s="29"/>
-      <c r="F224" s="36"/>
+      <c r="F224" s="30"/>
       <c r="G224" s="31"/>
       <c r="H224" s="31"/>
       <c r="I224" s="31"/>
@@ -9735,7 +9738,7 @@
       <c r="C225" s="28"/>
       <c r="D225" s="28"/>
       <c r="E225" s="29"/>
-      <c r="F225" s="36"/>
+      <c r="F225" s="30"/>
       <c r="G225" s="31"/>
       <c r="H225" s="31"/>
       <c r="I225" s="31"/>
@@ -9757,7 +9760,7 @@
       <c r="C226" s="28"/>
       <c r="D226" s="28"/>
       <c r="E226" s="29"/>
-      <c r="F226" s="36"/>
+      <c r="F226" s="30"/>
       <c r="G226" s="31"/>
       <c r="H226" s="31"/>
       <c r="I226" s="31"/>
@@ -9779,7 +9782,7 @@
       <c r="C227" s="28"/>
       <c r="D227" s="28"/>
       <c r="E227" s="29"/>
-      <c r="F227" s="36"/>
+      <c r="F227" s="30"/>
       <c r="G227" s="31"/>
       <c r="H227" s="31"/>
       <c r="I227" s="31"/>
@@ -9801,7 +9804,7 @@
       <c r="C228" s="28"/>
       <c r="D228" s="28"/>
       <c r="E228" s="29"/>
-      <c r="F228" s="36"/>
+      <c r="F228" s="30"/>
       <c r="G228" s="31"/>
       <c r="H228" s="31"/>
       <c r="I228" s="31"/>
@@ -9823,7 +9826,7 @@
       <c r="C229" s="28"/>
       <c r="D229" s="28"/>
       <c r="E229" s="29"/>
-      <c r="F229" s="36"/>
+      <c r="F229" s="30"/>
       <c r="G229" s="31"/>
       <c r="H229" s="31"/>
       <c r="I229" s="31"/>
@@ -9845,7 +9848,7 @@
       <c r="C230" s="28"/>
       <c r="D230" s="28"/>
       <c r="E230" s="29"/>
-      <c r="F230" s="36"/>
+      <c r="F230" s="30"/>
       <c r="G230" s="31"/>
       <c r="H230" s="31"/>
       <c r="I230" s="31"/>
@@ -9867,7 +9870,7 @@
       <c r="C231" s="28"/>
       <c r="D231" s="28"/>
       <c r="E231" s="29"/>
-      <c r="F231" s="36"/>
+      <c r="F231" s="30"/>
       <c r="G231" s="31"/>
       <c r="H231" s="31"/>
       <c r="I231" s="31"/>
@@ -9889,7 +9892,7 @@
       <c r="C232" s="28"/>
       <c r="D232" s="28"/>
       <c r="E232" s="29"/>
-      <c r="F232" s="36"/>
+      <c r="F232" s="30"/>
       <c r="G232" s="31"/>
       <c r="H232" s="31"/>
       <c r="I232" s="31"/>
@@ -9911,7 +9914,7 @@
       <c r="C233" s="28"/>
       <c r="D233" s="28"/>
       <c r="E233" s="29"/>
-      <c r="F233" s="36"/>
+      <c r="F233" s="30"/>
       <c r="G233" s="31"/>
       <c r="H233" s="31"/>
       <c r="I233" s="31"/>
@@ -9933,7 +9936,7 @@
       <c r="C234" s="28"/>
       <c r="D234" s="28"/>
       <c r="E234" s="29"/>
-      <c r="F234" s="36"/>
+      <c r="F234" s="30"/>
       <c r="G234" s="31"/>
       <c r="H234" s="31"/>
       <c r="I234" s="31"/>
@@ -9955,7 +9958,7 @@
       <c r="C235" s="28"/>
       <c r="D235" s="28"/>
       <c r="E235" s="29"/>
-      <c r="F235" s="36"/>
+      <c r="F235" s="30"/>
       <c r="G235" s="31"/>
       <c r="H235" s="31"/>
       <c r="I235" s="31"/>
@@ -9977,7 +9980,7 @@
       <c r="C236" s="28"/>
       <c r="D236" s="28"/>
       <c r="E236" s="29"/>
-      <c r="F236" s="36"/>
+      <c r="F236" s="30"/>
       <c r="G236" s="31"/>
       <c r="H236" s="31"/>
       <c r="I236" s="31"/>
@@ -9999,7 +10002,7 @@
       <c r="C237" s="28"/>
       <c r="D237" s="28"/>
       <c r="E237" s="29"/>
-      <c r="F237" s="36"/>
+      <c r="F237" s="30"/>
       <c r="G237" s="31"/>
       <c r="H237" s="31"/>
       <c r="I237" s="31"/>
@@ -10021,7 +10024,7 @@
       <c r="C238" s="28"/>
       <c r="D238" s="28"/>
       <c r="E238" s="29"/>
-      <c r="F238" s="36"/>
+      <c r="F238" s="30"/>
       <c r="G238" s="31"/>
       <c r="H238" s="31"/>
       <c r="I238" s="31"/>
@@ -10043,7 +10046,7 @@
       <c r="C239" s="28"/>
       <c r="D239" s="28"/>
       <c r="E239" s="29"/>
-      <c r="F239" s="36"/>
+      <c r="F239" s="30"/>
       <c r="G239" s="31"/>
       <c r="H239" s="31"/>
       <c r="I239" s="31"/>
@@ -10065,7 +10068,7 @@
       <c r="C240" s="28"/>
       <c r="D240" s="28"/>
       <c r="E240" s="29"/>
-      <c r="F240" s="36"/>
+      <c r="F240" s="30"/>
       <c r="G240" s="31"/>
       <c r="H240" s="31"/>
       <c r="I240" s="31"/>
@@ -10087,7 +10090,7 @@
       <c r="C241" s="28"/>
       <c r="D241" s="28"/>
       <c r="E241" s="29"/>
-      <c r="F241" s="36"/>
+      <c r="F241" s="30"/>
       <c r="G241" s="31"/>
       <c r="H241" s="31"/>
       <c r="I241" s="31"/>
@@ -10109,7 +10112,7 @@
       <c r="C242" s="28"/>
       <c r="D242" s="28"/>
       <c r="E242" s="29"/>
-      <c r="F242" s="36"/>
+      <c r="F242" s="30"/>
       <c r="G242" s="31"/>
       <c r="H242" s="31"/>
       <c r="I242" s="31"/>
@@ -10131,7 +10134,7 @@
       <c r="C243" s="28"/>
       <c r="D243" s="28"/>
       <c r="E243" s="29"/>
-      <c r="F243" s="36"/>
+      <c r="F243" s="30"/>
       <c r="G243" s="31"/>
       <c r="H243" s="31"/>
       <c r="I243" s="31"/>
@@ -10153,7 +10156,7 @@
       <c r="C244" s="28"/>
       <c r="D244" s="28"/>
       <c r="E244" s="29"/>
-      <c r="F244" s="36"/>
+      <c r="F244" s="30"/>
       <c r="G244" s="31"/>
       <c r="H244" s="31"/>
       <c r="I244" s="31"/>
@@ -10175,7 +10178,7 @@
       <c r="C245" s="28"/>
       <c r="D245" s="28"/>
       <c r="E245" s="29"/>
-      <c r="F245" s="36"/>
+      <c r="F245" s="30"/>
       <c r="G245" s="31"/>
       <c r="H245" s="31"/>
       <c r="I245" s="31"/>
@@ -10197,7 +10200,7 @@
       <c r="C246" s="28"/>
       <c r="D246" s="28"/>
       <c r="E246" s="29"/>
-      <c r="F246" s="36"/>
+      <c r="F246" s="30"/>
       <c r="G246" s="31"/>
       <c r="H246" s="31"/>
       <c r="I246" s="31"/>
@@ -10219,7 +10222,7 @@
       <c r="C247" s="28"/>
       <c r="D247" s="28"/>
       <c r="E247" s="29"/>
-      <c r="F247" s="36"/>
+      <c r="F247" s="30"/>
       <c r="G247" s="31"/>
       <c r="H247" s="31"/>
       <c r="I247" s="31"/>
@@ -10241,7 +10244,7 @@
       <c r="C248" s="28"/>
       <c r="D248" s="28"/>
       <c r="E248" s="29"/>
-      <c r="F248" s="36"/>
+      <c r="F248" s="30"/>
       <c r="G248" s="31"/>
       <c r="H248" s="31"/>
       <c r="I248" s="31"/>
@@ -10263,7 +10266,7 @@
       <c r="C249" s="28"/>
       <c r="D249" s="28"/>
       <c r="E249" s="29"/>
-      <c r="F249" s="36"/>
+      <c r="F249" s="30"/>
       <c r="G249" s="31"/>
       <c r="H249" s="31"/>
       <c r="I249" s="31"/>
@@ -10285,7 +10288,7 @@
       <c r="C250" s="28"/>
       <c r="D250" s="28"/>
       <c r="E250" s="29"/>
-      <c r="F250" s="36"/>
+      <c r="F250" s="30"/>
       <c r="G250" s="31"/>
       <c r="H250" s="31"/>
       <c r="I250" s="31"/>
@@ -10307,7 +10310,7 @@
       <c r="C251" s="28"/>
       <c r="D251" s="28"/>
       <c r="E251" s="29"/>
-      <c r="F251" s="36"/>
+      <c r="F251" s="30"/>
       <c r="G251" s="31"/>
       <c r="H251" s="31"/>
       <c r="I251" s="31"/>
@@ -10329,7 +10332,7 @@
       <c r="C252" s="28"/>
       <c r="D252" s="28"/>
       <c r="E252" s="29"/>
-      <c r="F252" s="36"/>
+      <c r="F252" s="30"/>
       <c r="G252" s="31"/>
       <c r="H252" s="31"/>
       <c r="I252" s="31"/>
@@ -10351,7 +10354,7 @@
       <c r="C253" s="28"/>
       <c r="D253" s="28"/>
       <c r="E253" s="29"/>
-      <c r="F253" s="36"/>
+      <c r="F253" s="30"/>
       <c r="G253" s="31"/>
       <c r="H253" s="31"/>
       <c r="I253" s="31"/>
@@ -10373,7 +10376,7 @@
       <c r="C254" s="28"/>
       <c r="D254" s="28"/>
       <c r="E254" s="29"/>
-      <c r="F254" s="36"/>
+      <c r="F254" s="30"/>
       <c r="G254" s="31"/>
       <c r="H254" s="31"/>
       <c r="I254" s="31"/>
@@ -10395,7 +10398,7 @@
       <c r="C255" s="28"/>
       <c r="D255" s="28"/>
       <c r="E255" s="29"/>
-      <c r="F255" s="36"/>
+      <c r="F255" s="30"/>
       <c r="G255" s="31"/>
       <c r="H255" s="31"/>
       <c r="I255" s="31"/>
@@ -10417,7 +10420,7 @@
       <c r="C256" s="28"/>
       <c r="D256" s="28"/>
       <c r="E256" s="29"/>
-      <c r="F256" s="36"/>
+      <c r="F256" s="30"/>
       <c r="G256" s="31"/>
       <c r="H256" s="31"/>
       <c r="I256" s="31"/>
@@ -10439,7 +10442,7 @@
       <c r="C257" s="28"/>
       <c r="D257" s="28"/>
       <c r="E257" s="29"/>
-      <c r="F257" s="36"/>
+      <c r="F257" s="30"/>
       <c r="G257" s="31"/>
       <c r="H257" s="31"/>
       <c r="I257" s="31"/>
@@ -10461,7 +10464,7 @@
       <c r="C258" s="28"/>
       <c r="D258" s="28"/>
       <c r="E258" s="29"/>
-      <c r="F258" s="36"/>
+      <c r="F258" s="30"/>
       <c r="G258" s="31"/>
       <c r="H258" s="31"/>
       <c r="I258" s="31"/>
@@ -10483,7 +10486,7 @@
       <c r="C259" s="28"/>
       <c r="D259" s="28"/>
       <c r="E259" s="29"/>
-      <c r="F259" s="36"/>
+      <c r="F259" s="30"/>
       <c r="G259" s="31"/>
       <c r="H259" s="31"/>
       <c r="I259" s="31"/>
@@ -10505,7 +10508,7 @@
       <c r="C260" s="28"/>
       <c r="D260" s="28"/>
       <c r="E260" s="29"/>
-      <c r="F260" s="36"/>
+      <c r="F260" s="30"/>
       <c r="G260" s="31"/>
       <c r="H260" s="31"/>
       <c r="I260" s="31"/>
@@ -10527,7 +10530,7 @@
       <c r="C261" s="28"/>
       <c r="D261" s="28"/>
       <c r="E261" s="29"/>
-      <c r="F261" s="36"/>
+      <c r="F261" s="30"/>
       <c r="G261" s="31"/>
       <c r="H261" s="31"/>
       <c r="I261" s="31"/>
@@ -10549,7 +10552,7 @@
       <c r="C262" s="28"/>
       <c r="D262" s="28"/>
       <c r="E262" s="29"/>
-      <c r="F262" s="36"/>
+      <c r="F262" s="30"/>
       <c r="G262" s="31"/>
       <c r="H262" s="31"/>
       <c r="I262" s="31"/>
@@ -10571,7 +10574,7 @@
       <c r="C263" s="28"/>
       <c r="D263" s="28"/>
       <c r="E263" s="29"/>
-      <c r="F263" s="36"/>
+      <c r="F263" s="30"/>
       <c r="G263" s="31"/>
       <c r="H263" s="31"/>
       <c r="I263" s="31"/>
@@ -10593,7 +10596,7 @@
       <c r="C264" s="28"/>
       <c r="D264" s="28"/>
       <c r="E264" s="29"/>
-      <c r="F264" s="36"/>
+      <c r="F264" s="30"/>
       <c r="G264" s="31"/>
       <c r="H264" s="31"/>
       <c r="I264" s="31"/>
@@ -10615,7 +10618,7 @@
       <c r="C265" s="28"/>
       <c r="D265" s="28"/>
       <c r="E265" s="29"/>
-      <c r="F265" s="36"/>
+      <c r="F265" s="30"/>
       <c r="G265" s="31"/>
       <c r="H265" s="31"/>
       <c r="I265" s="31"/>
@@ -10637,7 +10640,7 @@
       <c r="C266" s="28"/>
       <c r="D266" s="28"/>
       <c r="E266" s="29"/>
-      <c r="F266" s="36"/>
+      <c r="F266" s="30"/>
       <c r="G266" s="31"/>
       <c r="H266" s="31"/>
       <c r="I266" s="31"/>
@@ -10659,7 +10662,7 @@
       <c r="C267" s="28"/>
       <c r="D267" s="28"/>
       <c r="E267" s="29"/>
-      <c r="F267" s="36"/>
+      <c r="F267" s="30"/>
       <c r="G267" s="31"/>
       <c r="H267" s="31"/>
       <c r="I267" s="31"/>
@@ -10681,7 +10684,7 @@
       <c r="C268" s="28"/>
       <c r="D268" s="28"/>
       <c r="E268" s="29"/>
-      <c r="F268" s="36"/>
+      <c r="F268" s="30"/>
       <c r="G268" s="31"/>
       <c r="H268" s="31"/>
       <c r="I268" s="31"/>
@@ -10703,7 +10706,7 @@
       <c r="C269" s="28"/>
       <c r="D269" s="28"/>
       <c r="E269" s="29"/>
-      <c r="F269" s="36"/>
+      <c r="F269" s="30"/>
       <c r="G269" s="31"/>
       <c r="H269" s="31"/>
       <c r="I269" s="31"/>
@@ -10725,7 +10728,7 @@
       <c r="C270" s="28"/>
       <c r="D270" s="28"/>
       <c r="E270" s="29"/>
-      <c r="F270" s="36"/>
+      <c r="F270" s="30"/>
       <c r="G270" s="31"/>
       <c r="H270" s="31"/>
       <c r="I270" s="31"/>
@@ -10747,7 +10750,7 @@
       <c r="C271" s="28"/>
       <c r="D271" s="28"/>
       <c r="E271" s="29"/>
-      <c r="F271" s="36"/>
+      <c r="F271" s="30"/>
       <c r="G271" s="31"/>
       <c r="H271" s="31"/>
       <c r="I271" s="31"/>
@@ -10769,7 +10772,7 @@
       <c r="C272" s="28"/>
       <c r="D272" s="28"/>
       <c r="E272" s="29"/>
-      <c r="F272" s="36"/>
+      <c r="F272" s="30"/>
       <c r="G272" s="31"/>
       <c r="H272" s="31"/>
       <c r="I272" s="31"/>
@@ -10791,7 +10794,7 @@
       <c r="C273" s="28"/>
       <c r="D273" s="28"/>
       <c r="E273" s="29"/>
-      <c r="F273" s="36"/>
+      <c r="F273" s="30"/>
       <c r="G273" s="31"/>
       <c r="H273" s="31"/>
       <c r="I273" s="31"/>
@@ -10813,7 +10816,7 @@
       <c r="C274" s="28"/>
       <c r="D274" s="28"/>
       <c r="E274" s="29"/>
-      <c r="F274" s="36"/>
+      <c r="F274" s="30"/>
       <c r="G274" s="31"/>
       <c r="H274" s="31"/>
       <c r="I274" s="31"/>
@@ -10835,7 +10838,7 @@
       <c r="C275" s="28"/>
       <c r="D275" s="28"/>
       <c r="E275" s="29"/>
-      <c r="F275" s="36"/>
+      <c r="F275" s="30"/>
       <c r="G275" s="31"/>
       <c r="H275" s="31"/>
       <c r="I275" s="31"/>
@@ -10857,7 +10860,7 @@
       <c r="C276" s="28"/>
       <c r="D276" s="28"/>
       <c r="E276" s="29"/>
-      <c r="F276" s="36"/>
+      <c r="F276" s="30"/>
       <c r="G276" s="31"/>
       <c r="H276" s="31"/>
       <c r="I276" s="31"/>
@@ -10879,7 +10882,7 @@
       <c r="C277" s="28"/>
       <c r="D277" s="28"/>
       <c r="E277" s="29"/>
-      <c r="F277" s="36"/>
+      <c r="F277" s="30"/>
       <c r="G277" s="31"/>
       <c r="H277" s="31"/>
       <c r="I277" s="31"/>
@@ -10901,7 +10904,7 @@
       <c r="C278" s="28"/>
       <c r="D278" s="28"/>
       <c r="E278" s="29"/>
-      <c r="F278" s="36"/>
+      <c r="F278" s="30"/>
       <c r="G278" s="31"/>
       <c r="H278" s="31"/>
       <c r="I278" s="31"/>
@@ -10923,7 +10926,7 @@
       <c r="C279" s="28"/>
       <c r="D279" s="28"/>
       <c r="E279" s="29"/>
-      <c r="F279" s="36"/>
+      <c r="F279" s="30"/>
       <c r="G279" s="31"/>
       <c r="H279" s="31"/>
       <c r="I279" s="31"/>
@@ -10945,7 +10948,7 @@
       <c r="C280" s="28"/>
       <c r="D280" s="28"/>
       <c r="E280" s="29"/>
-      <c r="F280" s="36"/>
+      <c r="F280" s="30"/>
       <c r="G280" s="31"/>
       <c r="H280" s="31"/>
       <c r="I280" s="31"/>
@@ -10967,7 +10970,7 @@
       <c r="C281" s="28"/>
       <c r="D281" s="28"/>
       <c r="E281" s="29"/>
-      <c r="F281" s="36"/>
+      <c r="F281" s="30"/>
       <c r="G281" s="31"/>
       <c r="H281" s="31"/>
       <c r="I281" s="31"/>
@@ -10989,7 +10992,7 @@
       <c r="C282" s="28"/>
       <c r="D282" s="28"/>
       <c r="E282" s="29"/>
-      <c r="F282" s="36"/>
+      <c r="F282" s="30"/>
       <c r="G282" s="31"/>
       <c r="H282" s="31"/>
       <c r="I282" s="31"/>
@@ -11011,7 +11014,7 @@
       <c r="C283" s="28"/>
       <c r="D283" s="28"/>
       <c r="E283" s="29"/>
-      <c r="F283" s="36"/>
+      <c r="F283" s="30"/>
       <c r="G283" s="31"/>
       <c r="H283" s="31"/>
       <c r="I283" s="31"/>
@@ -11033,7 +11036,7 @@
       <c r="C284" s="28"/>
       <c r="D284" s="28"/>
       <c r="E284" s="29"/>
-      <c r="F284" s="36"/>
+      <c r="F284" s="30"/>
       <c r="G284" s="31"/>
       <c r="H284" s="31"/>
       <c r="I284" s="31"/>
@@ -11055,7 +11058,7 @@
       <c r="C285" s="28"/>
       <c r="D285" s="28"/>
       <c r="E285" s="29"/>
-      <c r="F285" s="36"/>
+      <c r="F285" s="30"/>
       <c r="G285" s="31"/>
       <c r="H285" s="31"/>
       <c r="I285" s="31"/>
@@ -11077,7 +11080,7 @@
       <c r="C286" s="28"/>
       <c r="D286" s="28"/>
       <c r="E286" s="29"/>
-      <c r="F286" s="36"/>
+      <c r="F286" s="30"/>
       <c r="G286" s="31"/>
       <c r="H286" s="31"/>
       <c r="I286" s="31"/>
@@ -11099,7 +11102,7 @@
       <c r="C287" s="28"/>
       <c r="D287" s="28"/>
       <c r="E287" s="29"/>
-      <c r="F287" s="36"/>
+      <c r="F287" s="30"/>
       <c r="G287" s="31"/>
       <c r="H287" s="31"/>
       <c r="I287" s="31"/>
@@ -11121,7 +11124,7 @@
       <c r="C288" s="28"/>
       <c r="D288" s="28"/>
       <c r="E288" s="29"/>
-      <c r="F288" s="36"/>
+      <c r="F288" s="30"/>
       <c r="G288" s="31"/>
       <c r="H288" s="31"/>
       <c r="I288" s="31"/>
@@ -11143,7 +11146,7 @@
       <c r="C289" s="28"/>
       <c r="D289" s="28"/>
       <c r="E289" s="29"/>
-      <c r="F289" s="36"/>
+      <c r="F289" s="30"/>
       <c r="G289" s="31"/>
       <c r="H289" s="31"/>
       <c r="I289" s="31"/>
@@ -11165,7 +11168,7 @@
       <c r="C290" s="28"/>
       <c r="D290" s="28"/>
       <c r="E290" s="29"/>
-      <c r="F290" s="36"/>
+      <c r="F290" s="30"/>
       <c r="G290" s="31"/>
       <c r="H290" s="31"/>
       <c r="I290" s="31"/>
@@ -11187,7 +11190,7 @@
       <c r="C291" s="28"/>
       <c r="D291" s="28"/>
       <c r="E291" s="29"/>
-      <c r="F291" s="36"/>
+      <c r="F291" s="30"/>
       <c r="G291" s="31"/>
       <c r="H291" s="31"/>
       <c r="I291" s="31"/>
@@ -11209,7 +11212,7 @@
       <c r="C292" s="28"/>
       <c r="D292" s="28"/>
       <c r="E292" s="29"/>
-      <c r="F292" s="36"/>
+      <c r="F292" s="30"/>
       <c r="G292" s="31"/>
       <c r="H292" s="31"/>
       <c r="I292" s="31"/>
@@ -11231,7 +11234,7 @@
       <c r="C293" s="28"/>
       <c r="D293" s="28"/>
       <c r="E293" s="29"/>
-      <c r="F293" s="36"/>
+      <c r="F293" s="30"/>
       <c r="G293" s="31"/>
       <c r="H293" s="31"/>
       <c r="I293" s="31"/>
@@ -11253,7 +11256,7 @@
       <c r="C294" s="28"/>
       <c r="D294" s="28"/>
       <c r="E294" s="29"/>
-      <c r="F294" s="36"/>
+      <c r="F294" s="30"/>
       <c r="G294" s="31"/>
       <c r="H294" s="31"/>
       <c r="I294" s="31"/>
@@ -11275,7 +11278,7 @@
       <c r="C295" s="28"/>
       <c r="D295" s="28"/>
       <c r="E295" s="29"/>
-      <c r="F295" s="36"/>
+      <c r="F295" s="30"/>
       <c r="G295" s="31"/>
       <c r="H295" s="31"/>
       <c r="I295" s="31"/>
@@ -11297,7 +11300,7 @@
       <c r="C296" s="28"/>
       <c r="D296" s="28"/>
       <c r="E296" s="29"/>
-      <c r="F296" s="36"/>
+      <c r="F296" s="30"/>
       <c r="G296" s="31"/>
       <c r="H296" s="31"/>
       <c r="I296" s="31"/>
@@ -11319,7 +11322,7 @@
       <c r="C297" s="28"/>
       <c r="D297" s="28"/>
       <c r="E297" s="29"/>
-      <c r="F297" s="36"/>
+      <c r="F297" s="30"/>
       <c r="G297" s="31"/>
       <c r="H297" s="31"/>
       <c r="I297" s="31"/>
@@ -11341,7 +11344,7 @@
       <c r="C298" s="28"/>
       <c r="D298" s="28"/>
       <c r="E298" s="29"/>
-      <c r="F298" s="36"/>
+      <c r="F298" s="30"/>
       <c r="G298" s="31"/>
       <c r="H298" s="31"/>
       <c r="I298" s="31"/>
@@ -11363,7 +11366,7 @@
       <c r="C299" s="28"/>
       <c r="D299" s="28"/>
       <c r="E299" s="29"/>
-      <c r="F299" s="36"/>
+      <c r="F299" s="30"/>
       <c r="G299" s="31"/>
       <c r="H299" s="31"/>
       <c r="I299" s="31"/>
@@ -11385,7 +11388,7 @@
       <c r="C300" s="28"/>
       <c r="D300" s="28"/>
       <c r="E300" s="29"/>
-      <c r="F300" s="36"/>
+      <c r="F300" s="30"/>
       <c r="G300" s="31"/>
       <c r="H300" s="31"/>
       <c r="I300" s="31"/>
@@ -11407,7 +11410,7 @@
       <c r="C301" s="28"/>
       <c r="D301" s="28"/>
       <c r="E301" s="29"/>
-      <c r="F301" s="36"/>
+      <c r="F301" s="30"/>
       <c r="G301" s="31"/>
       <c r="H301" s="31"/>
       <c r="I301" s="31"/>
@@ -11429,7 +11432,7 @@
       <c r="C302" s="28"/>
       <c r="D302" s="28"/>
       <c r="E302" s="29"/>
-      <c r="F302" s="36"/>
+      <c r="F302" s="30"/>
       <c r="G302" s="31"/>
       <c r="H302" s="31"/>
       <c r="I302" s="31"/>
@@ -11451,7 +11454,7 @@
       <c r="C303" s="28"/>
       <c r="D303" s="28"/>
       <c r="E303" s="29"/>
-      <c r="F303" s="36"/>
+      <c r="F303" s="30"/>
       <c r="G303" s="31"/>
       <c r="H303" s="31"/>
       <c r="I303" s="31"/>
@@ -11473,7 +11476,7 @@
       <c r="C304" s="28"/>
       <c r="D304" s="28"/>
       <c r="E304" s="29"/>
-      <c r="F304" s="36"/>
+      <c r="F304" s="30"/>
       <c r="G304" s="31"/>
       <c r="H304" s="31"/>
       <c r="I304" s="31"/>
@@ -11495,7 +11498,7 @@
       <c r="C305" s="28"/>
       <c r="D305" s="28"/>
       <c r="E305" s="29"/>
-      <c r="F305" s="36"/>
+      <c r="F305" s="30"/>
       <c r="G305" s="31"/>
       <c r="H305" s="31"/>
       <c r="I305" s="31"/>
@@ -11517,7 +11520,7 @@
       <c r="C306" s="28"/>
       <c r="D306" s="28"/>
       <c r="E306" s="29"/>
-      <c r="F306" s="36"/>
+      <c r="F306" s="30"/>
       <c r="G306" s="31"/>
       <c r="H306" s="31"/>
       <c r="I306" s="31"/>
@@ -11539,7 +11542,7 @@
       <c r="C307" s="28"/>
       <c r="D307" s="28"/>
       <c r="E307" s="29"/>
-      <c r="F307" s="36"/>
+      <c r="F307" s="30"/>
       <c r="G307" s="31"/>
       <c r="H307" s="31"/>
       <c r="I307" s="31"/>
@@ -11561,7 +11564,7 @@
       <c r="C308" s="28"/>
       <c r="D308" s="28"/>
       <c r="E308" s="29"/>
-      <c r="F308" s="36"/>
+      <c r="F308" s="30"/>
       <c r="G308" s="31"/>
       <c r="H308" s="31"/>
       <c r="I308" s="31"/>
@@ -11583,7 +11586,7 @@
       <c r="C309" s="28"/>
       <c r="D309" s="28"/>
       <c r="E309" s="29"/>
-      <c r="F309" s="36"/>
+      <c r="F309" s="30"/>
       <c r="G309" s="31"/>
       <c r="H309" s="31"/>
       <c r="I309" s="31"/>
@@ -11605,7 +11608,7 @@
       <c r="C310" s="28"/>
       <c r="D310" s="28"/>
       <c r="E310" s="29"/>
-      <c r="F310" s="36"/>
+      <c r="F310" s="30"/>
       <c r="G310" s="31"/>
       <c r="H310" s="31"/>
       <c r="I310" s="31"/>
@@ -11627,7 +11630,7 @@
       <c r="C311" s="28"/>
       <c r="D311" s="28"/>
       <c r="E311" s="29"/>
-      <c r="F311" s="36"/>
+      <c r="F311" s="30"/>
       <c r="G311" s="31"/>
       <c r="H311" s="31"/>
       <c r="I311" s="31"/>
@@ -11649,7 +11652,7 @@
       <c r="C312" s="28"/>
       <c r="D312" s="28"/>
       <c r="E312" s="29"/>
-      <c r="F312" s="36"/>
+      <c r="F312" s="30"/>
       <c r="G312" s="31"/>
       <c r="H312" s="31"/>
       <c r="I312" s="31"/>
@@ -11671,7 +11674,7 @@
       <c r="C313" s="28"/>
       <c r="D313" s="28"/>
       <c r="E313" s="29"/>
-      <c r="F313" s="36"/>
+      <c r="F313" s="30"/>
       <c r="G313" s="31"/>
       <c r="H313" s="31"/>
       <c r="I313" s="31"/>
@@ -11693,7 +11696,7 @@
       <c r="C314" s="28"/>
       <c r="D314" s="28"/>
       <c r="E314" s="29"/>
-      <c r="F314" s="36"/>
+      <c r="F314" s="30"/>
       <c r="G314" s="31"/>
       <c r="H314" s="31"/>
       <c r="I314" s="31"/>
@@ -11715,7 +11718,7 @@
       <c r="C315" s="28"/>
       <c r="D315" s="28"/>
       <c r="E315" s="29"/>
-      <c r="F315" s="36"/>
+      <c r="F315" s="30"/>
       <c r="G315" s="31"/>
       <c r="H315" s="31"/>
       <c r="I315" s="31"/>
@@ -11737,7 +11740,7 @@
       <c r="C316" s="28"/>
       <c r="D316" s="28"/>
       <c r="E316" s="29"/>
-      <c r="F316" s="36"/>
+      <c r="F316" s="30"/>
       <c r="G316" s="31"/>
       <c r="H316" s="31"/>
       <c r="I316" s="31"/>
@@ -11759,7 +11762,7 @@
       <c r="C317" s="28"/>
       <c r="D317" s="28"/>
       <c r="E317" s="29"/>
-      <c r="F317" s="36"/>
+      <c r="F317" s="30"/>
       <c r="G317" s="31"/>
       <c r="H317" s="31"/>
       <c r="I317" s="31"/>
@@ -11781,7 +11784,7 @@
       <c r="C318" s="28"/>
       <c r="D318" s="28"/>
       <c r="E318" s="29"/>
-      <c r="F318" s="36"/>
+      <c r="F318" s="30"/>
       <c r="G318" s="31"/>
       <c r="H318" s="31"/>
       <c r="I318" s="31"/>
@@ -11803,7 +11806,7 @@
       <c r="C319" s="28"/>
       <c r="D319" s="28"/>
       <c r="E319" s="29"/>
-      <c r="F319" s="36"/>
+      <c r="F319" s="30"/>
       <c r="G319" s="31"/>
       <c r="H319" s="31"/>
       <c r="I319" s="31"/>
@@ -11825,7 +11828,7 @@
       <c r="C320" s="28"/>
       <c r="D320" s="28"/>
       <c r="E320" s="29"/>
-      <c r="F320" s="36"/>
+      <c r="F320" s="30"/>
       <c r="G320" s="31"/>
       <c r="H320" s="31"/>
       <c r="I320" s="31"/>
@@ -11847,7 +11850,7 @@
       <c r="C321" s="28"/>
       <c r="D321" s="28"/>
       <c r="E321" s="29"/>
-      <c r="F321" s="36"/>
+      <c r="F321" s="30"/>
       <c r="G321" s="31"/>
       <c r="H321" s="31"/>
       <c r="I321" s="31"/>
@@ -11869,7 +11872,7 @@
       <c r="C322" s="28"/>
       <c r="D322" s="28"/>
       <c r="E322" s="29"/>
-      <c r="F322" s="36"/>
+      <c r="F322" s="30"/>
       <c r="G322" s="31"/>
       <c r="H322" s="31"/>
       <c r="I322" s="31"/>
@@ -11891,7 +11894,7 @@
       <c r="C323" s="28"/>
       <c r="D323" s="28"/>
       <c r="E323" s="29"/>
-      <c r="F323" s="36"/>
+      <c r="F323" s="30"/>
       <c r="G323" s="31"/>
       <c r="H323" s="31"/>
       <c r="I323" s="31"/>
@@ -11913,7 +11916,7 @@
       <c r="C324" s="28"/>
       <c r="D324" s="28"/>
       <c r="E324" s="29"/>
-      <c r="F324" s="36"/>
+      <c r="F324" s="30"/>
       <c r="G324" s="31"/>
       <c r="H324" s="31"/>
       <c r="I324" s="31"/>
@@ -11935,7 +11938,7 @@
       <c r="C325" s="28"/>
       <c r="D325" s="28"/>
       <c r="E325" s="29"/>
-      <c r="F325" s="36"/>
+      <c r="F325" s="30"/>
       <c r="G325" s="31"/>
       <c r="H325" s="31"/>
       <c r="I325" s="31"/>
@@ -11957,7 +11960,7 @@
       <c r="C326" s="28"/>
       <c r="D326" s="28"/>
       <c r="E326" s="29"/>
-      <c r="F326" s="36"/>
+      <c r="F326" s="30"/>
       <c r="G326" s="31"/>
       <c r="H326" s="31"/>
       <c r="I326" s="31"/>
@@ -11979,7 +11982,7 @@
       <c r="C327" s="28"/>
       <c r="D327" s="28"/>
       <c r="E327" s="29"/>
-      <c r="F327" s="36"/>
+      <c r="F327" s="30"/>
       <c r="G327" s="31"/>
       <c r="H327" s="31"/>
       <c r="I327" s="31"/>
@@ -12001,7 +12004,7 @@
       <c r="C328" s="28"/>
       <c r="D328" s="28"/>
       <c r="E328" s="29"/>
-      <c r="F328" s="36"/>
+      <c r="F328" s="30"/>
       <c r="G328" s="31"/>
       <c r="H328" s="31"/>
       <c r="I328" s="31"/>
@@ -12023,7 +12026,7 @@
       <c r="C329" s="28"/>
       <c r="D329" s="28"/>
       <c r="E329" s="29"/>
-      <c r="F329" s="36"/>
+      <c r="F329" s="30"/>
       <c r="G329" s="31"/>
       <c r="H329" s="31"/>
       <c r="I329" s="31"/>
@@ -12045,7 +12048,7 @@
       <c r="C330" s="28"/>
       <c r="D330" s="28"/>
       <c r="E330" s="29"/>
-      <c r="F330" s="36"/>
+      <c r="F330" s="30"/>
       <c r="G330" s="31"/>
       <c r="H330" s="31"/>
       <c r="I330" s="31"/>
@@ -12067,7 +12070,7 @@
       <c r="C331" s="28"/>
       <c r="D331" s="28"/>
       <c r="E331" s="29"/>
-      <c r="F331" s="36"/>
+      <c r="F331" s="30"/>
       <c r="G331" s="31"/>
       <c r="H331" s="31"/>
       <c r="I331" s="31"/>
@@ -12089,7 +12092,7 @@
       <c r="C332" s="28"/>
       <c r="D332" s="28"/>
       <c r="E332" s="29"/>
-      <c r="F332" s="36"/>
+      <c r="F332" s="30"/>
       <c r="G332" s="31"/>
       <c r="H332" s="31"/>
       <c r="I332" s="31"/>
@@ -12111,7 +12114,7 @@
       <c r="C333" s="28"/>
       <c r="D333" s="28"/>
       <c r="E333" s="29"/>
-      <c r="F333" s="36"/>
+      <c r="F333" s="30"/>
       <c r="G333" s="31"/>
       <c r="H333" s="31"/>
       <c r="I333" s="31"/>
@@ -12133,7 +12136,7 @@
       <c r="C334" s="28"/>
       <c r="D334" s="28"/>
       <c r="E334" s="29"/>
-      <c r="F334" s="36"/>
+      <c r="F334" s="30"/>
       <c r="G334" s="31"/>
       <c r="H334" s="31"/>
       <c r="I334" s="31"/>
@@ -12155,7 +12158,7 @@
       <c r="C335" s="28"/>
       <c r="D335" s="28"/>
       <c r="E335" s="29"/>
-      <c r="F335" s="36"/>
+      <c r="F335" s="30"/>
       <c r="G335" s="31"/>
       <c r="H335" s="31"/>
       <c r="I335" s="31"/>
@@ -12177,7 +12180,7 @@
       <c r="C336" s="28"/>
       <c r="D336" s="28"/>
       <c r="E336" s="29"/>
-      <c r="F336" s="36"/>
+      <c r="F336" s="30"/>
       <c r="G336" s="31"/>
       <c r="H336" s="31"/>
       <c r="I336" s="31"/>
@@ -12199,7 +12202,7 @@
       <c r="C337" s="28"/>
       <c r="D337" s="28"/>
       <c r="E337" s="29"/>
-      <c r="F337" s="36"/>
+      <c r="F337" s="30"/>
       <c r="G337" s="31"/>
       <c r="H337" s="31"/>
       <c r="I337" s="31"/>
@@ -12221,7 +12224,7 @@
       <c r="C338" s="28"/>
       <c r="D338" s="28"/>
       <c r="E338" s="29"/>
-      <c r="F338" s="36"/>
+      <c r="F338" s="30"/>
       <c r="G338" s="31"/>
       <c r="H338" s="31"/>
       <c r="I338" s="31"/>
@@ -12243,7 +12246,7 @@
       <c r="C339" s="28"/>
       <c r="D339" s="28"/>
       <c r="E339" s="29"/>
-      <c r="F339" s="36"/>
+      <c r="F339" s="30"/>
       <c r="G339" s="31"/>
       <c r="H339" s="31"/>
       <c r="I339" s="31"/>
@@ -12265,7 +12268,7 @@
       <c r="C340" s="28"/>
       <c r="D340" s="28"/>
       <c r="E340" s="29"/>
-      <c r="F340" s="36"/>
+      <c r="F340" s="30"/>
       <c r="G340" s="31"/>
       <c r="H340" s="31"/>
       <c r="I340" s="31"/>
@@ -12287,7 +12290,7 @@
       <c r="C341" s="28"/>
       <c r="D341" s="28"/>
       <c r="E341" s="29"/>
-      <c r="F341" s="36"/>
+      <c r="F341" s="30"/>
       <c r="G341" s="31"/>
       <c r="H341" s="31"/>
       <c r="I341" s="31"/>
@@ -12309,7 +12312,7 @@
       <c r="C342" s="28"/>
       <c r="D342" s="28"/>
       <c r="E342" s="29"/>
-      <c r="F342" s="36"/>
+      <c r="F342" s="30"/>
       <c r="G342" s="31"/>
       <c r="H342" s="31"/>
       <c r="I342" s="31"/>
@@ -17039,10 +17042,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17050,125 +17053,125 @@
         <v>49</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17176,111 +17179,111 @@
         <v>49</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C11" s="39" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C12" s="39" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="39" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="39" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C15" s="39" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C16" s="39" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" s="39" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C18" s="39" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17288,111 +17291,111 @@
         <v>49</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C19" s="39" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C20" s="39" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C21" s="39" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C22" s="39" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C23" s="39" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C24" s="39" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C25" s="39" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C26" s="39" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17400,111 +17403,111 @@
         <v>49</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C27" s="39" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C28" s="39" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C29" s="39" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C30" s="39" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C31" s="39" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C32" s="39" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C33" s="39" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C34" s="39" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17512,7 +17515,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C35" s="39" t="n">
         <v>195</v>
@@ -17523,10 +17526,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C36" s="39" t="n">
         <v>211</v>
@@ -17537,10 +17540,10 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C37" s="39" t="n">
         <v>227</v>
@@ -17551,10 +17554,10 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C38" s="39" t="n">
         <v>243</v>
@@ -17565,10 +17568,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C39" s="39" t="n">
         <v>259</v>
@@ -17579,10 +17582,10 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C40" s="39" t="n">
         <v>275</v>
@@ -17593,10 +17596,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C41" s="39" t="n">
         <v>291</v>
@@ -17607,10 +17610,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C42" s="39" t="n">
         <v>307</v>
@@ -17624,7 +17627,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C43" s="39" t="n">
         <v>196</v>
@@ -17635,10 +17638,10 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C44" s="39" t="n">
         <v>212</v>
@@ -17649,10 +17652,10 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C45" s="39" t="n">
         <v>228</v>
@@ -17663,10 +17666,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C46" s="39" t="n">
         <v>244</v>
@@ -17677,10 +17680,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C47" s="39" t="n">
         <v>260</v>
@@ -17691,10 +17694,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C48" s="39" t="n">
         <v>276</v>
@@ -17705,10 +17708,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C49" s="39" t="n">
         <v>292</v>
@@ -17719,10 +17722,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C50" s="39" t="n">
         <v>308</v>
@@ -18721,7 +18724,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>56</v>
@@ -18729,10 +18732,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="42" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="193">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -267,16 +267,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">19/07/2023</t>
+    <t xml:space="preserve">21/07/2023</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-19T23:25:35Z</t>
+    <t xml:space="preserve">2023-07-21T23:39:54Z</t>
   </si>
   <si>
-    <t xml:space="preserve">c1cf3c67c81d2010</t>
+    <t xml:space="preserve">de0c6322bb00271b</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.ca0326b86b8bdf39f9c84e63d207c0479e13dd7921d8bdd206b55515e7c883cd.8c9149f449^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.ca0326b86b8bdf39f9c84e63d207c0479e13dd7921d8bdd206b55515e7c883cd.8b32a288b3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -294,13 +294,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-19T21:58:12Z</t>
+    <t xml:space="preserve">2023-07-21T23:39:56Z</t>
   </si>
   <si>
-    <t xml:space="preserve">066209f9c336f40b</t>
+    <t xml:space="preserve">1b957d7dcad3f7c6</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.569369a4be5cef75f5ec38405b6b396793743e826d7b6c3922c90fb4f915d638.2c5b8d361e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.569369a4be5cef75f5ec38405b6b396793743e826d7b6c3922c90fb4f915d638.16357bf99f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT3</t>
@@ -312,13 +312,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-19T21:58:14Z</t>
+    <t xml:space="preserve">2023-07-21T23:36:58Z</t>
   </si>
   <si>
-    <t xml:space="preserve">686582454b160e8b</t>
+    <t xml:space="preserve">fea6942a2c42a12f</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.092424a8b83ac1734d0e118a4c3a43c793f3f6c63b6ba838d480115903a3b457.4f205ba1dd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.092424a8b83ac1734d0e118a4c3a43c793f3f6c63b6ba838d480115903a3b457.a7c670f24f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT4</t>
@@ -330,13 +330,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-19T23:25:37Z</t>
+    <t xml:space="preserve">2023-07-21T23:39:59Z</t>
   </si>
   <si>
-    <t xml:space="preserve">5c3e96be1a3b5971</t>
+    <t xml:space="preserve">231b424040f886a9</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.025a280e0e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.99e757ae1e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT5</t>
@@ -348,16 +348,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">21/07/2023</t>
+    <t xml:space="preserve">2023-07-21T23:40:02Z</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-21T21:15:42Z</t>
+    <t xml:space="preserve">44bb6419e8f1fb5d</t>
   </si>
   <si>
-    <t xml:space="preserve">a68b945c0ab41474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.569369a4be5cef75f5ec38405b6b396793743e826d7b6c3922c90fb4f915d638.d19e445f08^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.0159c975ef5be78c77b66a8a3fd551d6987c66ca9310e9c9298af20f9351570a.9b78f939ab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LAB_KO</t>
@@ -869,7 +866,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1147,12 +1144,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -1762,7 +1753,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1907,11 +1898,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2076,9 +2063,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>101520</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>941400</xdr:rowOff>
+      <xdr:rowOff>941040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2088,7 +2075,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5372640" cy="2891160"/>
+          <a:ext cx="5372280" cy="2890800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4335,7 +4322,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4789,16 +4776,16 @@
         <v>74</v>
       </c>
       <c r="F14" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="H14" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="I14" s="31" t="s">
         <v>77</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>78</v>
       </c>
       <c r="J14" s="32" t="s">
         <v>56</v>
@@ -4827,22 +4814,22 @@
         <v>49</v>
       </c>
       <c r="D15" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="36" t="s">
         <v>79</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>80</v>
       </c>
       <c r="F15" s="30" t="n">
         <v>45099</v>
       </c>
       <c r="G15" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="I15" s="31" t="s">
         <v>82</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>83</v>
       </c>
       <c r="J15" s="32" t="s">
         <v>56</v>
@@ -4855,19 +4842,19 @@
         <v>56</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O15" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P15" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q15" s="32"/>
       <c r="R15" s="33"/>
       <c r="S15" s="34"/>
       <c r="T15" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4881,22 +4868,22 @@
         <v>49</v>
       </c>
       <c r="D16" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="36" t="s">
         <v>87</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>88</v>
       </c>
       <c r="F16" s="30" t="n">
         <v>45099</v>
       </c>
       <c r="G16" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="I16" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J16" s="32" t="s">
         <v>56</v>
@@ -4909,19 +4896,19 @@
         <v>56</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O16" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="32"/>
       <c r="R16" s="33"/>
       <c r="S16" s="34"/>
       <c r="T16" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4935,10 +4922,10 @@
         <v>49</v>
       </c>
       <c r="D17" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="29" t="s">
         <v>91</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>92</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
@@ -4955,19 +4942,19 @@
         <v>56</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O17" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P17" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="32"/>
       <c r="R17" s="33"/>
       <c r="S17" s="34"/>
       <c r="T17" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4981,20 +4968,20 @@
         <v>49</v>
       </c>
       <c r="D18" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="29" t="s">
         <v>94</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>95</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
       <c r="J18" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="32" t="s">
         <v>96</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>97</v>
       </c>
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
@@ -5005,7 +4992,7 @@
       <c r="R18" s="33"/>
       <c r="S18" s="34"/>
       <c r="T18" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5019,20 +5006,20 @@
         <v>49</v>
       </c>
       <c r="D19" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="29" t="s">
         <v>98</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>99</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
       <c r="J19" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
@@ -5043,7 +5030,7 @@
       <c r="R19" s="33"/>
       <c r="S19" s="34"/>
       <c r="T19" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5057,20 +5044,20 @@
         <v>49</v>
       </c>
       <c r="D20" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="29" t="s">
         <v>101</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>102</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
       <c r="J20" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
@@ -5081,7 +5068,7 @@
       <c r="R20" s="33"/>
       <c r="S20" s="34"/>
       <c r="T20" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5095,20 +5082,20 @@
         <v>49</v>
       </c>
       <c r="D21" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="29" t="s">
         <v>104</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>105</v>
       </c>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
       <c r="J21" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="K21" s="38" t="s">
-        <v>106</v>
+        <v>95</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>105</v>
       </c>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
@@ -5119,7 +5106,7 @@
       <c r="R21" s="33"/>
       <c r="S21" s="34"/>
       <c r="T21" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5133,20 +5120,20 @@
         <v>49</v>
       </c>
       <c r="D22" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>107</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>108</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
@@ -5157,7 +5144,7 @@
       <c r="R22" s="33"/>
       <c r="S22" s="34"/>
       <c r="T22" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5171,20 +5158,20 @@
         <v>49</v>
       </c>
       <c r="D23" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>110</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>111</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
       <c r="J23" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
@@ -5195,7 +5182,7 @@
       <c r="R23" s="33"/>
       <c r="S23" s="34"/>
       <c r="T23" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5209,20 +5196,20 @@
         <v>49</v>
       </c>
       <c r="D24" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="29" t="s">
         <v>113</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>114</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
       <c r="J24" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
@@ -5233,7 +5220,7 @@
       <c r="R24" s="33"/>
       <c r="S24" s="34"/>
       <c r="T24" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5247,20 +5234,20 @@
         <v>49</v>
       </c>
       <c r="D25" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="29" t="s">
         <v>116</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>117</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
       <c r="J25" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
@@ -5271,7 +5258,7 @@
       <c r="R25" s="33"/>
       <c r="S25" s="34"/>
       <c r="T25" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5285,22 +5272,22 @@
         <v>49</v>
       </c>
       <c r="D26" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="29" t="s">
         <v>119</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>120</v>
       </c>
       <c r="F26" s="30" t="n">
         <v>44992</v>
       </c>
       <c r="G26" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="I26" s="31" t="s">
         <v>122</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>123</v>
       </c>
       <c r="J26" s="32" t="s">
         <v>56</v>
@@ -5313,19 +5300,19 @@
         <v>56</v>
       </c>
       <c r="N26" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O26" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P26" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q26" s="32"/>
       <c r="R26" s="33"/>
       <c r="S26" s="34"/>
       <c r="T26" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5339,20 +5326,20 @@
         <v>49</v>
       </c>
       <c r="D27" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="29" t="s">
         <v>126</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>127</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
       <c r="J27" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
@@ -5363,7 +5350,7 @@
       <c r="R27" s="33"/>
       <c r="S27" s="34"/>
       <c r="T27" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5377,22 +5364,22 @@
         <v>49</v>
       </c>
       <c r="D28" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="29" t="s">
         <v>129</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>130</v>
       </c>
       <c r="F28" s="30" t="n">
         <v>45082</v>
       </c>
       <c r="G28" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="I28" s="31" t="s">
         <v>132</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>133</v>
       </c>
       <c r="J28" s="32" t="s">
         <v>56</v>
@@ -5405,19 +5392,19 @@
         <v>56</v>
       </c>
       <c r="N28" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O28" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P28" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q28" s="32"/>
       <c r="R28" s="33"/>
       <c r="S28" s="34"/>
       <c r="T28" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17042,10 +17029,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>134</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17053,125 +17040,125 @@
         <v>49</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>137</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>140</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="39" t="s">
+      <c r="D4" s="39" t="s">
         <v>143</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>146</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="39" t="s">
+      <c r="D6" s="39" t="s">
         <v>149</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="39" t="s">
+      <c r="D7" s="39" t="s">
         <v>152</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="39" t="s">
+      <c r="D8" s="39" t="s">
         <v>155</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="39" t="s">
+      <c r="D9" s="39" t="s">
         <v>158</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="40" t="s">
+      <c r="D10" s="38" t="s">
         <v>161</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17179,111 +17166,111 @@
         <v>49</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="38" t="n">
+        <v>192</v>
+      </c>
+      <c r="D11" s="38" t="s">
         <v>163</v>
-      </c>
-      <c r="C11" s="39" t="n">
-        <v>192</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="39" t="n">
+        <v>162</v>
+      </c>
+      <c r="C12" s="38" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="39" t="s">
-        <v>165</v>
+      <c r="D12" s="38" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="39" t="n">
+        <v>162</v>
+      </c>
+      <c r="C13" s="38" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="40" t="s">
-        <v>166</v>
+      <c r="D13" s="39" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="39" t="n">
+        <v>162</v>
+      </c>
+      <c r="C14" s="38" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="39" t="s">
-        <v>167</v>
+      <c r="D14" s="38" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="39" t="n">
+        <v>162</v>
+      </c>
+      <c r="C15" s="38" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="40" t="s">
-        <v>168</v>
+      <c r="D15" s="39" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="39" t="n">
+        <v>162</v>
+      </c>
+      <c r="C16" s="38" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="40" t="s">
-        <v>169</v>
+      <c r="D16" s="39" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="39" t="n">
+        <v>162</v>
+      </c>
+      <c r="C17" s="38" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="40" t="s">
-        <v>170</v>
+      <c r="D17" s="39" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="39" t="n">
+        <v>162</v>
+      </c>
+      <c r="C18" s="38" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="40" t="s">
-        <v>171</v>
+      <c r="D18" s="39" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17291,111 +17278,111 @@
         <v>49</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="38" t="n">
+        <v>193</v>
+      </c>
+      <c r="D19" s="38" t="s">
         <v>172</v>
-      </c>
-      <c r="C19" s="39" t="n">
-        <v>193</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="39" t="n">
+        <v>171</v>
+      </c>
+      <c r="C20" s="38" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="39" t="s">
-        <v>174</v>
+      <c r="D20" s="38" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="39" t="n">
+        <v>171</v>
+      </c>
+      <c r="C21" s="38" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="40" t="s">
-        <v>175</v>
+      <c r="D21" s="39" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="39" t="n">
+        <v>171</v>
+      </c>
+      <c r="C22" s="38" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="39" t="s">
-        <v>176</v>
+      <c r="D22" s="38" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C23" s="39" t="n">
+        <v>171</v>
+      </c>
+      <c r="C23" s="38" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>177</v>
+      <c r="D23" s="39" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="39" t="n">
+        <v>171</v>
+      </c>
+      <c r="C24" s="38" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="40" t="s">
-        <v>178</v>
+      <c r="D24" s="39" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="39" t="n">
+        <v>171</v>
+      </c>
+      <c r="C25" s="38" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="40" t="s">
-        <v>179</v>
+      <c r="D25" s="39" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="39" t="n">
+        <v>171</v>
+      </c>
+      <c r="C26" s="38" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>180</v>
+      <c r="D26" s="39" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17403,111 +17390,111 @@
         <v>49</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="38" t="n">
+        <v>194</v>
+      </c>
+      <c r="D27" s="38" t="s">
         <v>181</v>
-      </c>
-      <c r="C27" s="39" t="n">
-        <v>194</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C28" s="39" t="n">
+        <v>180</v>
+      </c>
+      <c r="C28" s="38" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="39" t="s">
-        <v>183</v>
+      <c r="D28" s="38" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" s="39" t="n">
+        <v>180</v>
+      </c>
+      <c r="C29" s="38" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="41" t="s">
-        <v>184</v>
+      <c r="D29" s="40" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C30" s="39" t="n">
+        <v>180</v>
+      </c>
+      <c r="C30" s="38" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="39" t="s">
-        <v>185</v>
+      <c r="D30" s="38" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C31" s="39" t="n">
+        <v>180</v>
+      </c>
+      <c r="C31" s="38" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="40" t="s">
-        <v>186</v>
+      <c r="D31" s="39" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C32" s="39" t="n">
+        <v>180</v>
+      </c>
+      <c r="C32" s="38" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="40" t="s">
-        <v>187</v>
+      <c r="D32" s="39" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C33" s="39" t="n">
+        <v>180</v>
+      </c>
+      <c r="C33" s="38" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="40" t="s">
-        <v>188</v>
+      <c r="D33" s="39" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C34" s="39" t="n">
+        <v>180</v>
+      </c>
+      <c r="C34" s="38" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="40" t="s">
-        <v>189</v>
+      <c r="D34" s="39" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17515,110 +17502,110 @@
         <v>49</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C35" s="39" t="n">
+        <v>189</v>
+      </c>
+      <c r="C35" s="38" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="39" t="n">
+      <c r="D35" s="38" t="n">
         <v>204</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C36" s="39" t="n">
+        <v>189</v>
+      </c>
+      <c r="C36" s="38" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="39" t="n">
+      <c r="D36" s="38" t="n">
         <v>220</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C37" s="39" t="n">
+        <v>189</v>
+      </c>
+      <c r="C37" s="38" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="40" t="n">
+      <c r="D37" s="39" t="n">
         <v>236</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C38" s="39" t="n">
+        <v>189</v>
+      </c>
+      <c r="C38" s="38" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="39" t="n">
+      <c r="D38" s="38" t="n">
         <v>252</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C39" s="39" t="n">
+        <v>189</v>
+      </c>
+      <c r="C39" s="38" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="40" t="n">
+      <c r="D39" s="39" t="n">
         <v>268</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C40" s="39" t="n">
+        <v>189</v>
+      </c>
+      <c r="C40" s="38" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="40" t="n">
+      <c r="D40" s="39" t="n">
         <v>284</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" s="39" t="n">
+        <v>189</v>
+      </c>
+      <c r="C41" s="38" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="40" t="n">
+      <c r="D41" s="39" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C42" s="39" t="n">
+        <v>189</v>
+      </c>
+      <c r="C42" s="38" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="40" t="n">
+      <c r="D42" s="39" t="n">
         <v>316</v>
       </c>
     </row>
@@ -17627,110 +17614,110 @@
         <v>49</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C43" s="39" t="n">
+        <v>190</v>
+      </c>
+      <c r="C43" s="38" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="39" t="n">
+      <c r="D43" s="38" t="n">
         <v>207</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C44" s="39" t="n">
+        <v>190</v>
+      </c>
+      <c r="C44" s="38" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="39" t="n">
+      <c r="D44" s="38" t="n">
         <v>223</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C45" s="39" t="n">
+        <v>190</v>
+      </c>
+      <c r="C45" s="38" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="40" t="n">
+      <c r="D45" s="39" t="n">
         <v>239</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C46" s="39" t="n">
+        <v>190</v>
+      </c>
+      <c r="C46" s="38" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="39" t="n">
+      <c r="D46" s="38" t="n">
         <v>255</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C47" s="39" t="n">
+        <v>190</v>
+      </c>
+      <c r="C47" s="38" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="40" t="n">
+      <c r="D47" s="39" t="n">
         <v>271</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C48" s="39" t="n">
+        <v>190</v>
+      </c>
+      <c r="C48" s="38" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="40" t="n">
+      <c r="D48" s="39" t="n">
         <v>287</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C49" s="39" t="n">
+        <v>190</v>
+      </c>
+      <c r="C49" s="38" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="40" t="n">
+      <c r="D49" s="39" t="n">
         <v>303</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C50" s="39" t="n">
+        <v>190</v>
+      </c>
+      <c r="C50" s="38" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="40" t="n">
+      <c r="D50" s="39" t="n">
         <v>319</v>
       </c>
     </row>
@@ -18715,27 +18702,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>96</v>
+      <c r="B3" s="41" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="194">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -330,13 +330,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-21T23:39:59Z</t>
+    <t xml:space="preserve">22/07/2023</t>
   </si>
   <si>
-    <t xml:space="preserve">231b424040f886a9</t>
+    <t xml:space="preserve">2023-07-22T00:50:13Z</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.99e757ae1e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">1f33e4bcf2ed4a2f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.fe4dfdd7d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT5</t>
@@ -2063,9 +2066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>100800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>941040</xdr:rowOff>
+      <xdr:rowOff>940680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2075,7 +2078,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5372280" cy="2890800"/>
+          <a:ext cx="5371920" cy="2890440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4322,7 +4325,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4732,16 +4735,16 @@
         <v>69</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J13" s="32" t="s">
         <v>56</v>
@@ -4770,22 +4773,22 @@
         <v>49</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>52</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J14" s="32" t="s">
         <v>56</v>
@@ -4814,22 +4817,22 @@
         <v>49</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F15" s="30" t="n">
         <v>45099</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J15" s="32" t="s">
         <v>56</v>
@@ -4842,19 +4845,19 @@
         <v>56</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O15" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P15" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q15" s="32"/>
       <c r="R15" s="33"/>
       <c r="S15" s="34"/>
       <c r="T15" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4868,22 +4871,22 @@
         <v>49</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="30" t="n">
         <v>45099</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J16" s="32" t="s">
         <v>56</v>
@@ -4896,19 +4899,19 @@
         <v>56</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O16" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="32"/>
       <c r="R16" s="33"/>
       <c r="S16" s="34"/>
       <c r="T16" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4922,10 +4925,10 @@
         <v>49</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
@@ -4942,19 +4945,19 @@
         <v>56</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O17" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P17" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="32"/>
       <c r="R17" s="33"/>
       <c r="S17" s="34"/>
       <c r="T17" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4968,20 +4971,20 @@
         <v>49</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
       <c r="J18" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
@@ -4992,7 +4995,7 @@
       <c r="R18" s="33"/>
       <c r="S18" s="34"/>
       <c r="T18" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5006,20 +5009,20 @@
         <v>49</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
       <c r="J19" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
@@ -5030,7 +5033,7 @@
       <c r="R19" s="33"/>
       <c r="S19" s="34"/>
       <c r="T19" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5044,20 +5047,20 @@
         <v>49</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
       <c r="J20" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
@@ -5068,7 +5071,7 @@
       <c r="R20" s="33"/>
       <c r="S20" s="34"/>
       <c r="T20" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5082,20 +5085,20 @@
         <v>49</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
       <c r="J21" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K21" s="37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
@@ -5106,7 +5109,7 @@
       <c r="R21" s="33"/>
       <c r="S21" s="34"/>
       <c r="T21" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5120,20 +5123,20 @@
         <v>49</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
@@ -5144,7 +5147,7 @@
       <c r="R22" s="33"/>
       <c r="S22" s="34"/>
       <c r="T22" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5158,20 +5161,20 @@
         <v>49</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
       <c r="J23" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
@@ -5182,7 +5185,7 @@
       <c r="R23" s="33"/>
       <c r="S23" s="34"/>
       <c r="T23" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5196,20 +5199,20 @@
         <v>49</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
       <c r="J24" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
@@ -5220,7 +5223,7 @@
       <c r="R24" s="33"/>
       <c r="S24" s="34"/>
       <c r="T24" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5234,20 +5237,20 @@
         <v>49</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
       <c r="J25" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
@@ -5258,7 +5261,7 @@
       <c r="R25" s="33"/>
       <c r="S25" s="34"/>
       <c r="T25" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5272,22 +5275,22 @@
         <v>49</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F26" s="30" t="n">
         <v>44992</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J26" s="32" t="s">
         <v>56</v>
@@ -5300,19 +5303,19 @@
         <v>56</v>
       </c>
       <c r="N26" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O26" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P26" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q26" s="32"/>
       <c r="R26" s="33"/>
       <c r="S26" s="34"/>
       <c r="T26" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5326,20 +5329,20 @@
         <v>49</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
       <c r="J27" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
@@ -5350,7 +5353,7 @@
       <c r="R27" s="33"/>
       <c r="S27" s="34"/>
       <c r="T27" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5364,22 +5367,22 @@
         <v>49</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F28" s="30" t="n">
         <v>45082</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J28" s="32" t="s">
         <v>56</v>
@@ -5392,19 +5395,19 @@
         <v>56</v>
       </c>
       <c r="N28" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O28" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P28" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q28" s="32"/>
       <c r="R28" s="33"/>
       <c r="S28" s="34"/>
       <c r="T28" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17029,10 +17032,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17040,125 +17043,125 @@
         <v>49</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17166,111 +17169,111 @@
         <v>49</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C11" s="38" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C12" s="38" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="38" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="38" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C15" s="38" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C16" s="38" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" s="38" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C18" s="38" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17278,111 +17281,111 @@
         <v>49</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C19" s="38" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C20" s="38" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C21" s="38" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C22" s="38" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C23" s="38" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C24" s="38" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C25" s="38" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C26" s="38" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17390,111 +17393,111 @@
         <v>49</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C27" s="38" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C28" s="38" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C29" s="38" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C30" s="38" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C31" s="38" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C32" s="38" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C33" s="38" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C34" s="38" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17502,7 +17505,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C35" s="38" t="n">
         <v>195</v>
@@ -17513,10 +17516,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C36" s="38" t="n">
         <v>211</v>
@@ -17527,10 +17530,10 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C37" s="38" t="n">
         <v>227</v>
@@ -17541,10 +17544,10 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C38" s="38" t="n">
         <v>243</v>
@@ -17555,10 +17558,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C39" s="38" t="n">
         <v>259</v>
@@ -17569,10 +17572,10 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C40" s="38" t="n">
         <v>275</v>
@@ -17583,10 +17586,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C41" s="38" t="n">
         <v>291</v>
@@ -17597,10 +17600,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C42" s="38" t="n">
         <v>307</v>
@@ -17614,7 +17617,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C43" s="38" t="n">
         <v>196</v>
@@ -17625,10 +17628,10 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C44" s="38" t="n">
         <v>212</v>
@@ -17639,10 +17642,10 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C45" s="38" t="n">
         <v>228</v>
@@ -17653,10 +17656,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C46" s="38" t="n">
         <v>244</v>
@@ -17667,10 +17670,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C47" s="38" t="n">
         <v>260</v>
@@ -17681,10 +17684,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C48" s="38" t="n">
         <v>276</v>
@@ -17695,10 +17698,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C49" s="38" t="n">
         <v>292</v>
@@ -17709,10 +17712,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C50" s="38" t="n">
         <v>308</v>
@@ -18711,7 +18714,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="41" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>56</v>
@@ -18719,10 +18722,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="195">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -312,13 +312,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-21T23:36:58Z</t>
+    <t xml:space="preserve">25/07/2023</t>
   </si>
   <si>
-    <t xml:space="preserve">fea6942a2c42a12f</t>
+    <t xml:space="preserve">2023-07-25T00:10:48Z</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.092424a8b83ac1734d0e118a4c3a43c793f3f6c63b6ba838d480115903a3b457.a7c670f24f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">9f783ebf520b96da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.092424a8b83ac1734d0e118a4c3a43c793f3f6c63b6ba838d480115903a3b457.5519d585f4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT4</t>
@@ -2066,9 +2069,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>100800</xdr:colOff>
+      <xdr:colOff>100440</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>940680</xdr:rowOff>
+      <xdr:rowOff>940320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2078,7 +2081,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5371920" cy="2890440"/>
+          <a:ext cx="5371560" cy="2890080"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4321,11 +4324,11 @@
   <dimension ref="A1:T959"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4691,16 +4694,16 @@
         <v>64</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J12" s="32" t="s">
         <v>56</v>
@@ -4729,22 +4732,22 @@
         <v>49</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J13" s="32" t="s">
         <v>56</v>
@@ -4773,22 +4776,22 @@
         <v>49</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>52</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J14" s="32" t="s">
         <v>56</v>
@@ -4817,22 +4820,22 @@
         <v>49</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F15" s="30" t="n">
         <v>45099</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J15" s="32" t="s">
         <v>56</v>
@@ -4845,19 +4848,19 @@
         <v>56</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O15" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P15" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q15" s="32"/>
       <c r="R15" s="33"/>
       <c r="S15" s="34"/>
       <c r="T15" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4871,22 +4874,22 @@
         <v>49</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F16" s="30" t="n">
         <v>45099</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J16" s="32" t="s">
         <v>56</v>
@@ -4899,19 +4902,19 @@
         <v>56</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O16" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="32"/>
       <c r="R16" s="33"/>
       <c r="S16" s="34"/>
       <c r="T16" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4925,10 +4928,10 @@
         <v>49</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
@@ -4945,19 +4948,19 @@
         <v>56</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O17" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P17" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="32"/>
       <c r="R17" s="33"/>
       <c r="S17" s="34"/>
       <c r="T17" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4971,20 +4974,20 @@
         <v>49</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
       <c r="J18" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
@@ -4995,7 +4998,7 @@
       <c r="R18" s="33"/>
       <c r="S18" s="34"/>
       <c r="T18" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5009,20 +5012,20 @@
         <v>49</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
       <c r="J19" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
@@ -5033,7 +5036,7 @@
       <c r="R19" s="33"/>
       <c r="S19" s="34"/>
       <c r="T19" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5047,20 +5050,20 @@
         <v>49</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
       <c r="J20" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
@@ -5071,7 +5074,7 @@
       <c r="R20" s="33"/>
       <c r="S20" s="34"/>
       <c r="T20" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5085,20 +5088,20 @@
         <v>49</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
       <c r="J21" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K21" s="37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
@@ -5109,7 +5112,7 @@
       <c r="R21" s="33"/>
       <c r="S21" s="34"/>
       <c r="T21" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5123,20 +5126,20 @@
         <v>49</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
@@ -5147,7 +5150,7 @@
       <c r="R22" s="33"/>
       <c r="S22" s="34"/>
       <c r="T22" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5161,20 +5164,20 @@
         <v>49</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
       <c r="J23" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
@@ -5185,7 +5188,7 @@
       <c r="R23" s="33"/>
       <c r="S23" s="34"/>
       <c r="T23" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5199,20 +5202,20 @@
         <v>49</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
       <c r="J24" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
@@ -5223,7 +5226,7 @@
       <c r="R24" s="33"/>
       <c r="S24" s="34"/>
       <c r="T24" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5237,20 +5240,20 @@
         <v>49</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
       <c r="J25" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
@@ -5261,7 +5264,7 @@
       <c r="R25" s="33"/>
       <c r="S25" s="34"/>
       <c r="T25" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5275,22 +5278,22 @@
         <v>49</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F26" s="30" t="n">
         <v>44992</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J26" s="32" t="s">
         <v>56</v>
@@ -5303,19 +5306,19 @@
         <v>56</v>
       </c>
       <c r="N26" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O26" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P26" s="32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q26" s="32"/>
       <c r="R26" s="33"/>
       <c r="S26" s="34"/>
       <c r="T26" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5329,20 +5332,20 @@
         <v>49</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
       <c r="J27" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
@@ -5353,7 +5356,7 @@
       <c r="R27" s="33"/>
       <c r="S27" s="34"/>
       <c r="T27" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5367,22 +5370,22 @@
         <v>49</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F28" s="30" t="n">
         <v>45082</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J28" s="32" t="s">
         <v>56</v>
@@ -5395,19 +5398,19 @@
         <v>56</v>
       </c>
       <c r="N28" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O28" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P28" s="32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q28" s="32"/>
       <c r="R28" s="33"/>
       <c r="S28" s="34"/>
       <c r="T28" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17032,10 +17035,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17043,125 +17046,125 @@
         <v>49</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17169,111 +17172,111 @@
         <v>49</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C11" s="38" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C12" s="38" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="38" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="38" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C15" s="38" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" s="38" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C17" s="38" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C18" s="38" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17281,111 +17284,111 @@
         <v>49</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C19" s="38" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C20" s="38" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C21" s="38" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C22" s="38" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C23" s="38" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C24" s="38" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C25" s="38" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C26" s="38" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17393,111 +17396,111 @@
         <v>49</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C27" s="38" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C28" s="38" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C29" s="38" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C30" s="38" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C31" s="38" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C32" s="38" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C33" s="38" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C34" s="38" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17505,7 +17508,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C35" s="38" t="n">
         <v>195</v>
@@ -17516,10 +17519,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C36" s="38" t="n">
         <v>211</v>
@@ -17530,10 +17533,10 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C37" s="38" t="n">
         <v>227</v>
@@ -17544,10 +17547,10 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C38" s="38" t="n">
         <v>243</v>
@@ -17558,10 +17561,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C39" s="38" t="n">
         <v>259</v>
@@ -17572,10 +17575,10 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C40" s="38" t="n">
         <v>275</v>
@@ -17586,10 +17589,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C41" s="38" t="n">
         <v>291</v>
@@ -17600,10 +17603,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C42" s="38" t="n">
         <v>307</v>
@@ -17617,7 +17620,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C43" s="38" t="n">
         <v>196</v>
@@ -17628,10 +17631,10 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C44" s="38" t="n">
         <v>212</v>
@@ -17642,10 +17645,10 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C45" s="38" t="n">
         <v>228</v>
@@ -17656,10 +17659,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C46" s="38" t="n">
         <v>244</v>
@@ -17670,10 +17673,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C47" s="38" t="n">
         <v>260</v>
@@ -17684,10 +17687,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C48" s="38" t="n">
         <v>276</v>
@@ -17698,10 +17701,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C49" s="38" t="n">
         <v>292</v>
@@ -17712,10 +17715,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C50" s="38" t="n">
         <v>308</v>
@@ -18714,7 +18717,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>56</v>
@@ -18722,10 +18725,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="197">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -461,10 +461,10 @@
     <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Valore del campo "detail"</t>
+    <t xml:space="preserve">Viene visualizzata la risposta del gateway+Viene avvisato l’inviante che c’e’ un errore strutturale e di avvisare il fornitore del software l’errore non inficia la creazione del referto in quanto la trasmissione e’ posteriore+ viene registrata in un file di log+la richiesta viene inserita tra quelle da ritrasmettere</t>
   </si>
   <si>
-    <t xml:space="preserve">Visualizzato all'utente e registrato nel log</t>
+    <t xml:space="preserve">Viene rilevata la segnalazione da parte dell’inviante e corretto l’errore del software da parte di Datasoft</t>
   </si>
   <si>
     <t xml:space="preserve">KO</t>
@@ -542,6 +542,9 @@
     <t xml:space="preserve">a0fc8f87aabeb7ba</t>
   </si>
   <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_LAB_TIMEOUT</t>
   </si>
   <si>
@@ -549,7 +552,10 @@
 "ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "GESTIONE ERRORE".</t>
   </si>
   <si>
-    <t xml:space="preserve">Timeout</t>
+    <t xml:space="preserve">Viene segnalato all’INVIANTE che si e’ verificato un TIMEOUT e puo’ provare a ritentare e a controllare lo stato della connessione internet +  l’evento viene registrato nel log+la richiesta viene inserita tra quelle da ritrasmettere+se l’operazione non e’ interattiva, l’inviante consulta il log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene chiesto all’inviante di controllare la sua connessione internet e se gli e’ possibile, verificare se l’endpoint e’ attivo</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT6_KO</t>
@@ -557,9 +563,6 @@
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
   </si>
   <si>
     <t xml:space="preserve">Non è possibile produrre un referto per i pazienti senza confidentiality code</t>
@@ -651,10 +654,10 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.092424a8b83ac1734d0e118a4c3a43c793f3f6c63b6ba838d480115903a3b457.0e8346143a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">output del gateway</t>
+    <t xml:space="preserve">Viene visualizzata la risposta del gateway alla persona che sta effettuando la trasmissione + viene registrata in un file di log</t>
   </si>
   <si>
-    <t xml:space="preserve">segnalazione all'operatore + log</t>
+    <t xml:space="preserve">All’INVIANTE viene visualizzata la risposta del Gateway.+Richiesta di contattare il fornitore del software.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT15_KO</t>
@@ -681,6 +684,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.a9ea1d1558^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’errore viene gestito richiedendo all’INVIANTE di contattare il fornitore del software, dato che si tratta di una situazione anomala che non puo’ dipendere da qualche sua azione+la richiesta viene inserita tra quelle da ritrasmettere</t>
   </si>
   <si>
     <t xml:space="preserve">ID TEST CASE OK</t>
@@ -2069,9 +2075,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>100440</xdr:colOff>
+      <xdr:colOff>99720</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>940320</xdr:rowOff>
+      <xdr:rowOff>939600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2081,7 +2087,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5371560" cy="2890080"/>
+          <a:ext cx="5370840" cy="2889360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4324,11 +4330,11 @@
   <dimension ref="A1:T959"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="J22" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="O27" activeCellId="0" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4905,7 +4911,7 @@
         <v>85</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="P16" s="32" t="s">
         <v>86</v>
@@ -4917,7 +4923,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="n">
         <v>44</v>
       </c>
@@ -4928,10 +4934,10 @@
         <v>49</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
@@ -4948,13 +4954,13 @@
         <v>56</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="P17" s="32" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="32"/>
       <c r="R17" s="33"/>
@@ -4974,20 +4980,20 @@
         <v>49</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
       <c r="J18" s="32" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
@@ -5012,20 +5018,20 @@
         <v>49</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
       <c r="J19" s="32" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
@@ -5050,20 +5056,20 @@
         <v>49</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
       <c r="J20" s="32" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
@@ -5088,20 +5094,20 @@
         <v>49</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
       <c r="J21" s="32" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K21" s="37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
@@ -5126,20 +5132,20 @@
         <v>49</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="32" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
@@ -5164,20 +5170,20 @@
         <v>49</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
       <c r="J23" s="32" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
@@ -5202,20 +5208,20 @@
         <v>49</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
       <c r="J24" s="32" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
@@ -5240,20 +5246,20 @@
         <v>49</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
       <c r="J25" s="32" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
@@ -5278,22 +5284,22 @@
         <v>49</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F26" s="30" t="n">
         <v>44992</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J26" s="32" t="s">
         <v>56</v>
@@ -5306,13 +5312,13 @@
         <v>56</v>
       </c>
       <c r="N26" s="32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O26" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P26" s="32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q26" s="32"/>
       <c r="R26" s="33"/>
@@ -5332,20 +5338,20 @@
         <v>49</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
       <c r="J27" s="32" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
@@ -5370,22 +5376,22 @@
         <v>49</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F28" s="30" t="n">
         <v>45082</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J28" s="32" t="s">
         <v>56</v>
@@ -5398,13 +5404,13 @@
         <v>56</v>
       </c>
       <c r="N28" s="32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O28" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P28" s="32" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Q28" s="32"/>
       <c r="R28" s="33"/>
@@ -17035,10 +17041,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17046,125 +17052,125 @@
         <v>49</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17172,111 +17178,111 @@
         <v>49</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C11" s="38" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C12" s="38" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C13" s="38" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C14" s="38" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C15" s="38" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C16" s="38" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C17" s="38" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C18" s="38" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17284,111 +17290,111 @@
         <v>49</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C19" s="38" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C20" s="38" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C21" s="38" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C22" s="38" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C23" s="38" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C24" s="38" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C25" s="38" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C26" s="38" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17396,111 +17402,111 @@
         <v>49</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C27" s="38" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C28" s="38" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C29" s="38" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C30" s="38" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C31" s="38" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C32" s="38" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C33" s="38" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C34" s="38" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17508,7 +17514,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C35" s="38" t="n">
         <v>195</v>
@@ -17519,10 +17525,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C36" s="38" t="n">
         <v>211</v>
@@ -17533,10 +17539,10 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C37" s="38" t="n">
         <v>227</v>
@@ -17547,10 +17553,10 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C38" s="38" t="n">
         <v>243</v>
@@ -17561,10 +17567,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C39" s="38" t="n">
         <v>259</v>
@@ -17575,10 +17581,10 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C40" s="38" t="n">
         <v>275</v>
@@ -17589,10 +17595,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C41" s="38" t="n">
         <v>291</v>
@@ -17603,10 +17609,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C42" s="38" t="n">
         <v>307</v>
@@ -17620,7 +17626,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C43" s="38" t="n">
         <v>196</v>
@@ -17631,10 +17637,10 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C44" s="38" t="n">
         <v>212</v>
@@ -17645,10 +17651,10 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C45" s="38" t="n">
         <v>228</v>
@@ -17659,10 +17665,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C46" s="38" t="n">
         <v>244</v>
@@ -17673,10 +17679,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C47" s="38" t="n">
         <v>260</v>
@@ -17687,10 +17693,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C48" s="38" t="n">
         <v>276</v>
@@ -17701,10 +17707,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C49" s="38" t="n">
         <v>292</v>
@@ -17715,10 +17721,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C50" s="38" t="n">
         <v>308</v>
@@ -18717,7 +18723,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="41" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>56</v>
@@ -18725,10 +18731,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="41" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="195">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -464,7 +464,7 @@
     <t xml:space="preserve">Viene visualizzata la risposta del gateway+Viene avvisato l’inviante che c’e’ un errore strutturale e di avvisare il fornitore del software l’errore non inficia la creazione del referto in quanto la trasmissione e’ posteriore+ viene registrata in un file di log+la richiesta viene inserita tra quelle da ritrasmettere</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene rilevata la segnalazione da parte dell’inviante e corretto l’errore del software da parte di Datasoft</t>
+    <t xml:space="preserve">Apertura di ticket e analisi del log</t>
   </si>
   <si>
     <t xml:space="preserve">KO</t>
@@ -555,7 +555,7 @@
     <t xml:space="preserve">Viene segnalato all’INVIANTE che si e’ verificato un TIMEOUT e puo’ provare a ritentare e a controllare lo stato della connessione internet +  l’evento viene registrato nel log+la richiesta viene inserita tra quelle da ritrasmettere+se l’operazione non e’ interattiva, l’inviante consulta il log</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene chiesto all’inviante di controllare la sua connessione internet e se gli e’ possibile, verificare se l’endpoint e’ attivo</t>
+    <t xml:space="preserve">Viene suggerito all’inviante di controllare la sua connessione internet e se gli e’ possibile, verificare se l’endpoint e’ attivo</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT6_KO</t>
@@ -654,10 +654,7 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.092424a8b83ac1734d0e118a4c3a43c793f3f6c63b6ba838d480115903a3b457.0e8346143a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene visualizzata la risposta del gateway alla persona che sta effettuando la trasmissione + viene registrata in un file di log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All’INVIANTE viene visualizzata la risposta del Gateway.+Richiesta di contattare il fornitore del software.</t>
+    <t xml:space="preserve">Viene visualizzata la risposta del gateway alla persona che sta effettuando la trasmissione + viene registrata in un file di log+richiesta di contattare il fornitore</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT15_KO</t>
@@ -684,9 +681,6 @@
   </si>
   <si>
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.a9ea1d1558^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’errore viene gestito richiedendo all’INVIANTE di contattare il fornitore del software, dato che si tratta di una situazione anomala che non puo’ dipendere da qualche sua azione+la richiesta viene inserita tra quelle da ritrasmettere</t>
   </si>
   <si>
     <t xml:space="preserve">ID TEST CASE OK</t>
@@ -2075,9 +2069,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>99720</xdr:colOff>
+      <xdr:colOff>99360</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>939600</xdr:rowOff>
+      <xdr:rowOff>939240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2087,7 +2081,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5370840" cy="2889360"/>
+          <a:ext cx="5370480" cy="2889000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4330,11 +4324,11 @@
   <dimension ref="A1:T959"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="O27" activeCellId="0" sqref="O27"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="P18" activeCellId="0" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5318,7 +5312,7 @@
         <v>56</v>
       </c>
       <c r="P26" s="32" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="Q26" s="32"/>
       <c r="R26" s="33"/>
@@ -5338,10 +5332,10 @@
         <v>49</v>
       </c>
       <c r="D27" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="29" t="s">
         <v>128</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>129</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
@@ -5351,7 +5345,7 @@
         <v>92</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
@@ -5376,22 +5370,22 @@
         <v>49</v>
       </c>
       <c r="D28" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="29" t="s">
         <v>131</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>132</v>
       </c>
       <c r="F28" s="30" t="n">
         <v>45082</v>
       </c>
       <c r="G28" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="I28" s="31" t="s">
         <v>134</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>135</v>
       </c>
       <c r="J28" s="32" t="s">
         <v>56</v>
@@ -5410,7 +5404,7 @@
         <v>56</v>
       </c>
       <c r="P28" s="32" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="Q28" s="32"/>
       <c r="R28" s="33"/>
@@ -17041,10 +17035,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17052,125 +17046,125 @@
         <v>49</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>145</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="38" t="s">
         <v>148</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="39" t="s">
         <v>151</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>154</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="39" t="s">
         <v>157</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>160</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>163</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17178,111 +17172,111 @@
         <v>49</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C11" s="38" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C12" s="38" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C13" s="38" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C14" s="38" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C15" s="38" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C16" s="38" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C17" s="38" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C18" s="38" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17290,111 +17284,111 @@
         <v>49</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C19" s="38" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C20" s="38" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C21" s="38" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C22" s="38" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C23" s="38" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C24" s="38" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C25" s="38" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C26" s="38" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17402,111 +17396,111 @@
         <v>49</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C27" s="38" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C28" s="38" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C29" s="38" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C30" s="38" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C31" s="38" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C32" s="38" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C33" s="38" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C34" s="38" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17514,7 +17508,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C35" s="38" t="n">
         <v>195</v>
@@ -17525,10 +17519,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C36" s="38" t="n">
         <v>211</v>
@@ -17539,10 +17533,10 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C37" s="38" t="n">
         <v>227</v>
@@ -17553,10 +17547,10 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C38" s="38" t="n">
         <v>243</v>
@@ -17567,10 +17561,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C39" s="38" t="n">
         <v>259</v>
@@ -17581,10 +17575,10 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C40" s="38" t="n">
         <v>275</v>
@@ -17595,10 +17589,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C41" s="38" t="n">
         <v>291</v>
@@ -17609,10 +17603,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C42" s="38" t="n">
         <v>307</v>
@@ -17626,7 +17620,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C43" s="38" t="n">
         <v>196</v>
@@ -17637,10 +17631,10 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C44" s="38" t="n">
         <v>212</v>
@@ -17651,10 +17645,10 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C45" s="38" t="n">
         <v>228</v>
@@ -17665,10 +17659,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C46" s="38" t="n">
         <v>244</v>
@@ -17679,10 +17673,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C47" s="38" t="n">
         <v>260</v>
@@ -17693,10 +17687,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C48" s="38" t="n">
         <v>276</v>
@@ -17707,10 +17701,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C49" s="38" t="n">
         <v>292</v>
@@ -17721,10 +17715,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C50" s="38" t="n">
         <v>308</v>
@@ -18723,7 +18717,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>56</v>
@@ -18731,7 +18725,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="41" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>92</v>

--- a/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="194">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene visualizzata la risposta del gateway+Viene avvisato l’inviante che c’e’ un errore strutturale e di avvisare il fornitore del software l’errore non inficia la creazione del referto in quanto la trasmissione e’ posteriore+ viene registrata in un file di log+la richiesta viene inserita tra quelle da ritrasmettere</t>
+    <t xml:space="preserve">Errore dell’applicativo contattare  il fornitore</t>
   </si>
   <si>
     <t xml:space="preserve">Apertura di ticket e analisi del log</t>
@@ -542,9 +542,6 @@
     <t xml:space="preserve">a0fc8f87aabeb7ba</t>
   </si>
   <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_LAB_TIMEOUT</t>
   </si>
   <si>
@@ -552,7 +549,7 @@
 "ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "GESTIONE ERRORE".</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene segnalato all’INVIANTE che si e’ verificato un TIMEOUT e puo’ provare a ritentare e a controllare lo stato della connessione internet +  l’evento viene registrato nel log+la richiesta viene inserita tra quelle da ritrasmettere+se l’operazione non e’ interattiva, l’inviante consulta il log</t>
+    <t xml:space="preserve">Tineout riprovare piu’ tardi e controllare la connessione internet</t>
   </si>
   <si>
     <t xml:space="preserve">Viene suggerito all’inviante di controllare la sua connessione internet e se gli e’ possibile, verificare se l’endpoint e’ attivo</t>
@@ -563,6 +560,9 @@
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
   </si>
   <si>
     <t xml:space="preserve">Non è possibile produrre un referto per i pazienti senza confidentiality code</t>
@@ -652,9 +652,6 @@
   </si>
   <si>
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.092424a8b83ac1734d0e118a4c3a43c793f3f6c63b6ba838d480115903a3b457.0e8346143a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene visualizzata la risposta del gateway alla persona che sta effettuando la trasmissione + viene registrata in un file di log+richiesta di contattare il fornitore</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT15_KO</t>
@@ -872,7 +869,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1168,6 +1165,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="23">
@@ -1759,7 +1762,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1909,6 +1912,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2069,9 +2076,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>99360</xdr:colOff>
+      <xdr:colOff>99000</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>939240</xdr:rowOff>
+      <xdr:rowOff>938880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2081,7 +2088,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5370480" cy="2889000"/>
+          <a:ext cx="5370120" cy="2888640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4324,11 +4331,11 @@
   <dimension ref="A1:T959"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="I31" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="P18" activeCellId="0" sqref="P18"/>
+      <selection pane="bottomLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="N28" activeCellId="0" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4905,7 +4912,7 @@
         <v>85</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="P16" s="32" t="s">
         <v>86</v>
@@ -4917,7 +4924,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="n">
         <v>44</v>
       </c>
@@ -4928,10 +4935,10 @@
         <v>49</v>
       </c>
       <c r="D17" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="29" t="s">
         <v>93</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>94</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
@@ -4948,13 +4955,13 @@
         <v>56</v>
       </c>
       <c r="N17" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="O17" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="32" t="s">
         <v>95</v>
-      </c>
-      <c r="O17" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="P17" s="32" t="s">
-        <v>96</v>
       </c>
       <c r="Q17" s="32"/>
       <c r="R17" s="33"/>
@@ -4974,17 +4981,17 @@
         <v>49</v>
       </c>
       <c r="D18" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="29" t="s">
         <v>97</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>98</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
       <c r="J18" s="32" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K18" s="32" t="s">
         <v>99</v>
@@ -5022,7 +5029,7 @@
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
       <c r="J19" s="32" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K19" s="32" t="s">
         <v>102</v>
@@ -5060,7 +5067,7 @@
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
       <c r="J20" s="32" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K20" s="32" t="s">
         <v>105</v>
@@ -5098,7 +5105,7 @@
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
       <c r="J21" s="32" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K21" s="37" t="s">
         <v>108</v>
@@ -5136,7 +5143,7 @@
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="32" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K22" s="32" t="s">
         <v>111</v>
@@ -5174,7 +5181,7 @@
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
       <c r="J23" s="32" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K23" s="32" t="s">
         <v>114</v>
@@ -5212,7 +5219,7 @@
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
       <c r="J24" s="32" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K24" s="32" t="s">
         <v>117</v>
@@ -5250,7 +5257,7 @@
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
       <c r="J25" s="32" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K25" s="32" t="s">
         <v>120</v>
@@ -5306,7 +5313,7 @@
         <v>56</v>
       </c>
       <c r="N26" s="32" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="O26" s="32" t="s">
         <v>56</v>
@@ -5332,20 +5339,20 @@
         <v>49</v>
       </c>
       <c r="D27" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="29" t="s">
         <v>127</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>128</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
       <c r="J27" s="32" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
@@ -5370,22 +5377,22 @@
         <v>49</v>
       </c>
       <c r="D28" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="29" t="s">
         <v>130</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>131</v>
       </c>
       <c r="F28" s="30" t="n">
         <v>45082</v>
       </c>
       <c r="G28" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="I28" s="31" t="s">
         <v>133</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>134</v>
       </c>
       <c r="J28" s="32" t="s">
         <v>56</v>
@@ -5397,8 +5404,8 @@
       <c r="M28" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="N28" s="32" t="s">
-        <v>126</v>
+      <c r="N28" s="38" t="s">
+        <v>85</v>
       </c>
       <c r="O28" s="32" t="s">
         <v>56</v>
@@ -17035,10 +17042,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>135</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17046,125 +17053,125 @@
         <v>49</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="39" t="s">
         <v>138</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="D3" s="39" t="s">
         <v>141</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="38" t="s">
+      <c r="D4" s="40" t="s">
         <v>144</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="38" t="s">
+      <c r="D5" s="39" t="s">
         <v>147</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="38" t="s">
+      <c r="D6" s="40" t="s">
         <v>150</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="38" t="s">
+      <c r="D7" s="40" t="s">
         <v>153</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="38" t="s">
+      <c r="D8" s="40" t="s">
         <v>156</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="38" t="s">
+      <c r="D9" s="40" t="s">
         <v>159</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="39" t="s">
+      <c r="D10" s="39" t="s">
         <v>162</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17172,111 +17179,111 @@
         <v>49</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="39" t="n">
+        <v>192</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>164</v>
-      </c>
-      <c r="C11" s="38" t="n">
-        <v>192</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="38" t="n">
+        <v>163</v>
+      </c>
+      <c r="C12" s="39" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>166</v>
+      <c r="D12" s="39" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="38" t="n">
+        <v>163</v>
+      </c>
+      <c r="C13" s="39" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>167</v>
+      <c r="D13" s="40" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="38" t="n">
+        <v>163</v>
+      </c>
+      <c r="C14" s="39" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>168</v>
+      <c r="D14" s="39" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="38" t="n">
+        <v>163</v>
+      </c>
+      <c r="C15" s="39" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>169</v>
+      <c r="D15" s="40" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="38" t="n">
+        <v>163</v>
+      </c>
+      <c r="C16" s="39" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>170</v>
+      <c r="D16" s="40" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="38" t="n">
+        <v>163</v>
+      </c>
+      <c r="C17" s="39" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>171</v>
+      <c r="D17" s="40" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="38" t="n">
+        <v>163</v>
+      </c>
+      <c r="C18" s="39" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="39" t="s">
-        <v>172</v>
+      <c r="D18" s="40" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17284,111 +17291,111 @@
         <v>49</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="39" t="n">
+        <v>193</v>
+      </c>
+      <c r="D19" s="39" t="s">
         <v>173</v>
-      </c>
-      <c r="C19" s="38" t="n">
-        <v>193</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C20" s="38" t="n">
+        <v>172</v>
+      </c>
+      <c r="C20" s="39" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="38" t="s">
-        <v>175</v>
+      <c r="D20" s="39" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="38" t="n">
+        <v>172</v>
+      </c>
+      <c r="C21" s="39" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="39" t="s">
-        <v>176</v>
+      <c r="D21" s="40" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="38" t="n">
+        <v>172</v>
+      </c>
+      <c r="C22" s="39" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="38" t="s">
-        <v>177</v>
+      <c r="D22" s="39" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C23" s="38" t="n">
+        <v>172</v>
+      </c>
+      <c r="C23" s="39" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="39" t="s">
-        <v>178</v>
+      <c r="D23" s="40" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="38" t="n">
+        <v>172</v>
+      </c>
+      <c r="C24" s="39" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>179</v>
+      <c r="D24" s="40" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="38" t="n">
+        <v>172</v>
+      </c>
+      <c r="C25" s="39" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="39" t="s">
-        <v>180</v>
+      <c r="D25" s="40" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="38" t="n">
+        <v>172</v>
+      </c>
+      <c r="C26" s="39" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="39" t="s">
-        <v>181</v>
+      <c r="D26" s="40" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17396,111 +17403,111 @@
         <v>49</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="39" t="n">
+        <v>194</v>
+      </c>
+      <c r="D27" s="39" t="s">
         <v>182</v>
-      </c>
-      <c r="C27" s="38" t="n">
-        <v>194</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C28" s="38" t="n">
+        <v>181</v>
+      </c>
+      <c r="C28" s="39" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="38" t="s">
-        <v>184</v>
+      <c r="D28" s="39" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C29" s="38" t="n">
+        <v>181</v>
+      </c>
+      <c r="C29" s="39" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="40" t="s">
-        <v>185</v>
+      <c r="D29" s="41" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="38" t="n">
+        <v>181</v>
+      </c>
+      <c r="C30" s="39" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="38" t="s">
-        <v>186</v>
+      <c r="D30" s="39" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C31" s="38" t="n">
+        <v>181</v>
+      </c>
+      <c r="C31" s="39" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="39" t="s">
-        <v>187</v>
+      <c r="D31" s="40" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C32" s="38" t="n">
+        <v>181</v>
+      </c>
+      <c r="C32" s="39" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="39" t="s">
-        <v>188</v>
+      <c r="D32" s="40" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C33" s="38" t="n">
+        <v>181</v>
+      </c>
+      <c r="C33" s="39" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="39" t="s">
-        <v>189</v>
+      <c r="D33" s="40" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" s="38" t="n">
+        <v>181</v>
+      </c>
+      <c r="C34" s="39" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="39" t="s">
-        <v>190</v>
+      <c r="D34" s="40" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17508,110 +17515,110 @@
         <v>49</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" s="38" t="n">
+        <v>190</v>
+      </c>
+      <c r="C35" s="39" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="38" t="n">
+      <c r="D35" s="39" t="n">
         <v>204</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C36" s="38" t="n">
+        <v>190</v>
+      </c>
+      <c r="C36" s="39" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="38" t="n">
+      <c r="D36" s="39" t="n">
         <v>220</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="38" t="n">
+        <v>190</v>
+      </c>
+      <c r="C37" s="39" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="39" t="n">
+      <c r="D37" s="40" t="n">
         <v>236</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C38" s="38" t="n">
+        <v>190</v>
+      </c>
+      <c r="C38" s="39" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="38" t="n">
+      <c r="D38" s="39" t="n">
         <v>252</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C39" s="38" t="n">
+        <v>190</v>
+      </c>
+      <c r="C39" s="39" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="39" t="n">
+      <c r="D39" s="40" t="n">
         <v>268</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C40" s="38" t="n">
+        <v>190</v>
+      </c>
+      <c r="C40" s="39" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="39" t="n">
+      <c r="D40" s="40" t="n">
         <v>284</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C41" s="38" t="n">
+        <v>190</v>
+      </c>
+      <c r="C41" s="39" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="39" t="n">
+      <c r="D41" s="40" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C42" s="38" t="n">
+        <v>190</v>
+      </c>
+      <c r="C42" s="39" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="39" t="n">
+      <c r="D42" s="40" t="n">
         <v>316</v>
       </c>
     </row>
@@ -17620,110 +17627,110 @@
         <v>49</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C43" s="38" t="n">
+        <v>191</v>
+      </c>
+      <c r="C43" s="39" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="38" t="n">
+      <c r="D43" s="39" t="n">
         <v>207</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C44" s="38" t="n">
+        <v>191</v>
+      </c>
+      <c r="C44" s="39" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="38" t="n">
+      <c r="D44" s="39" t="n">
         <v>223</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C45" s="38" t="n">
+        <v>191</v>
+      </c>
+      <c r="C45" s="39" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="39" t="n">
+      <c r="D45" s="40" t="n">
         <v>239</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C46" s="38" t="n">
+        <v>191</v>
+      </c>
+      <c r="C46" s="39" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="38" t="n">
+      <c r="D46" s="39" t="n">
         <v>255</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C47" s="38" t="n">
+        <v>191</v>
+      </c>
+      <c r="C47" s="39" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="39" t="n">
+      <c r="D47" s="40" t="n">
         <v>271</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C48" s="38" t="n">
+        <v>191</v>
+      </c>
+      <c r="C48" s="39" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="39" t="n">
+      <c r="D48" s="40" t="n">
         <v>287</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" s="38" t="n">
+        <v>191</v>
+      </c>
+      <c r="C49" s="39" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="39" t="n">
+      <c r="D49" s="40" t="n">
         <v>303</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C50" s="38" t="n">
+        <v>191</v>
+      </c>
+      <c r="C50" s="39" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="39" t="n">
+      <c r="D50" s="40" t="n">
         <v>319</v>
       </c>
     </row>
@@ -18708,27 +18715,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>92</v>
+      <c r="B3" s="42" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTNA/DATASOFT/LABGUI/3.0/report-checklist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="196">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -461,10 +461,10 @@
     <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Errore dell’applicativo contattare  il fornitore</t>
+    <t xml:space="preserve">All’operatore di back office che esegue l’operazione viene visualizzato il messaggio ottenuto dal Gateway e richiesto di  contattare  il fornitore dell’applicativo</t>
   </si>
   <si>
-    <t xml:space="preserve">Apertura di ticket e analisi del log</t>
+    <t xml:space="preserve">Apertura di ticket , correzione da parte del fornitore  dell’eventuale errore nel software, invio dell’aggiornamento.I referti non trasmessi vengono inseriti in una coda per la ritrasmissione.</t>
   </si>
   <si>
     <t xml:space="preserve">KO</t>
@@ -542,6 +542,40 @@
     <t xml:space="preserve">a0fc8f87aabeb7ba</t>
   </si>
   <si>
+    <t xml:space="preserve">All’operatore di back office che esegue l’operazione viene visualizzato il  messaggio  ottenuto dal Gateway e richiesto di  contattare  il fornitore dell’applicativo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Apertura di ticket, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">correzione da parte del fornitore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dell’eventuale errore nel software, invio dell’aggiornamento.I referti non trasmessi vengono inseriti in una coda per la ritrasmissione.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_LAB_TIMEOUT</t>
   </si>
   <si>
@@ -549,10 +583,28 @@
 "ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "GESTIONE ERRORE".</t>
   </si>
   <si>
-    <t xml:space="preserve">Tineout riprovare piu’ tardi e controllare la connessione internet</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">L’operatore di back office che esegue l’operazione viene avvisato dell’ errore di </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Timeout </t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">Viene suggerito all’inviante di controllare la sua connessione internet e se gli e’ possibile, verificare se l’endpoint e’ attivo</t>
+    <t xml:space="preserve">L’inviante dovrebbe controllare  la sua connessione internet e se gli e’ possibile, verificare se l’endpoint e’ attivo I referti non trasmessi vengono inseriti in una coda per la ritrasmissione.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT6_KO</t>
@@ -1911,11 +1963,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2076,9 +2128,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>99000</xdr:colOff>
+      <xdr:colOff>98640</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>938880</xdr:rowOff>
+      <xdr:rowOff>938520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2088,7 +2140,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5370120" cy="2888640"/>
+          <a:ext cx="5369760" cy="2888280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4331,11 +4383,11 @@
   <dimension ref="A1:T959"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="I31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
-      <selection pane="bottomRight" activeCell="N28" activeCellId="0" sqref="N28"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="P18" activeCellId="0" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4354,7 +4406,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="36.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="28.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="44.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="36.31"/>
@@ -4860,7 +4912,7 @@
       <c r="O15" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="P15" s="32" t="s">
+      <c r="P15" s="37" t="s">
         <v>86</v>
       </c>
       <c r="Q15" s="32"/>
@@ -4908,14 +4960,14 @@
       <c r="M16" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="N16" s="32" t="s">
-        <v>85</v>
+      <c r="N16" s="37" t="s">
+        <v>92</v>
       </c>
       <c r="O16" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="32"/>
       <c r="R16" s="33"/>
@@ -4924,7 +4976,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="n">
         <v>44</v>
       </c>
@@ -4935,10 +4987,10 @@
         <v>49</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
@@ -4954,14 +5006,14 @@
       <c r="M17" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="32" t="s">
-        <v>94</v>
+      <c r="N17" s="37" t="s">
+        <v>96</v>
       </c>
       <c r="O17" s="32" t="s">
         <v>56</v>
       </c>
       <c r="P17" s="32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="32"/>
       <c r="R17" s="33"/>
@@ -4981,20 +5033,20 @@
         <v>49</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
       <c r="J18" s="32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
@@ -5019,20 +5071,20 @@
         <v>49</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
       <c r="J19" s="32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
@@ -5057,20 +5109,20 @@
         <v>49</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
       <c r="J20" s="32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
@@ -5095,20 +5147,20 @@
         <v>49</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
       <c r="J21" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>110</v>
       </c>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
@@ -5133,20 +5185,20 @@
         <v>49</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
@@ -5171,20 +5223,20 @@
         <v>49</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
       <c r="J23" s="32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
@@ -5209,20 +5261,20 @@
         <v>49</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
       <c r="J24" s="32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
@@ -5247,20 +5299,20 @@
         <v>49</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
       <c r="J25" s="32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
@@ -5285,22 +5337,22 @@
         <v>49</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F26" s="30" t="n">
         <v>44992</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J26" s="32" t="s">
         <v>56</v>
@@ -5312,13 +5364,13 @@
       <c r="M26" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="N26" s="32" t="s">
-        <v>85</v>
+      <c r="N26" s="37" t="s">
+        <v>92</v>
       </c>
       <c r="O26" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="P26" s="32" t="s">
+      <c r="P26" s="37" t="s">
         <v>86</v>
       </c>
       <c r="Q26" s="32"/>
@@ -5339,20 +5391,20 @@
         <v>49</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
       <c r="J27" s="32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
@@ -5377,22 +5429,22 @@
         <v>49</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F28" s="30" t="n">
         <v>45082</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J28" s="32" t="s">
         <v>56</v>
@@ -5404,13 +5456,13 @@
       <c r="M28" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="N28" s="38" t="s">
-        <v>85</v>
+      <c r="N28" s="37" t="s">
+        <v>92</v>
       </c>
       <c r="O28" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="P28" s="32" t="s">
+      <c r="P28" s="37" t="s">
         <v>86</v>
       </c>
       <c r="Q28" s="32"/>
@@ -17042,10 +17094,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17053,125 +17105,125 @@
         <v>49</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17179,111 +17231,111 @@
         <v>49</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C11" s="39" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C12" s="39" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C13" s="39" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C14" s="39" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C15" s="39" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C16" s="39" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C17" s="39" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C18" s="39" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17291,111 +17343,111 @@
         <v>49</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C19" s="39" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C20" s="39" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C21" s="39" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C22" s="39" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C23" s="39" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C24" s="39" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C25" s="39" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C26" s="39" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17403,111 +17455,111 @@
         <v>49</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C27" s="39" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C28" s="39" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C29" s="39" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C30" s="39" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C31" s="39" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C32" s="39" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C33" s="39" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C34" s="39" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17515,7 +17567,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C35" s="39" t="n">
         <v>195</v>
@@ -17526,10 +17578,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C36" s="39" t="n">
         <v>211</v>
@@ -17540,10 +17592,10 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C37" s="39" t="n">
         <v>227</v>
@@ -17554,10 +17606,10 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C38" s="39" t="n">
         <v>243</v>
@@ -17568,10 +17620,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C39" s="39" t="n">
         <v>259</v>
@@ -17582,10 +17634,10 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C40" s="39" t="n">
         <v>275</v>
@@ -17596,10 +17648,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C41" s="39" t="n">
         <v>291</v>
@@ -17610,10 +17662,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C42" s="39" t="n">
         <v>307</v>
@@ -17627,7 +17679,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C43" s="39" t="n">
         <v>196</v>
@@ -17638,10 +17690,10 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C44" s="39" t="n">
         <v>212</v>
@@ -17652,10 +17704,10 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C45" s="39" t="n">
         <v>228</v>
@@ -17666,10 +17718,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C46" s="39" t="n">
         <v>244</v>
@@ -17680,10 +17732,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C47" s="39" t="n">
         <v>260</v>
@@ -17694,10 +17746,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C48" s="39" t="n">
         <v>276</v>
@@ -17708,10 +17760,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C49" s="39" t="n">
         <v>292</v>
@@ -17722,10 +17774,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C50" s="39" t="n">
         <v>308</v>
@@ -18724,7 +18776,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>56</v>
@@ -18732,10 +18784,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="42" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
